--- a/天津力神项目IO表.xlsx
+++ b/天津力神项目IO表.xlsx
@@ -12,7 +12,7 @@
     <sheet name="标志位" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">输入输出!$A$1:$I$147</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">输入输出!$A$1:$I$158</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">输入输出!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="641">
   <si>
     <t>输入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1989,6 +1989,206 @@
   </si>
   <si>
     <t>运料小车3、4变频器运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X131</t>
+  </si>
+  <si>
+    <t>X132</t>
+  </si>
+  <si>
+    <t>X133</t>
+  </si>
+  <si>
+    <t>X134</t>
+  </si>
+  <si>
+    <t>X135</t>
+  </si>
+  <si>
+    <t>X136</t>
+  </si>
+  <si>
+    <t>X137</t>
+  </si>
+  <si>
+    <t>X140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X141</t>
+  </si>
+  <si>
+    <t>X142</t>
+  </si>
+  <si>
+    <t>X143</t>
+  </si>
+  <si>
+    <t>X144</t>
+  </si>
+  <si>
+    <t>X145</t>
+  </si>
+  <si>
+    <t>X146</t>
+  </si>
+  <si>
+    <t>X147</t>
+  </si>
+  <si>
+    <t>Y130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y131</t>
+  </si>
+  <si>
+    <t>Y132</t>
+  </si>
+  <si>
+    <t>Y133</t>
+  </si>
+  <si>
+    <t>Y134</t>
+  </si>
+  <si>
+    <t>Y135</t>
+  </si>
+  <si>
+    <t>Y136</t>
+  </si>
+  <si>
+    <t>Y137</t>
+  </si>
+  <si>
+    <t>Y140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y141</t>
+  </si>
+  <si>
+    <t>Y142</t>
+  </si>
+  <si>
+    <t>Y143</t>
+  </si>
+  <si>
+    <t>Y144</t>
+  </si>
+  <si>
+    <t>Y145</t>
+  </si>
+  <si>
+    <t>Y146</t>
+  </si>
+  <si>
+    <t>Y147</t>
+  </si>
+  <si>
+    <t>炉子下料线体位置1允许下料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉子下料线体位置1下料请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉子下料线体位置1下料完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉子下料线体位置1下料确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉子下料线体位置2下料请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉子下料线体位置2下料完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉子下料线体位置2允许下料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉子下料线体位置2下料确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉子上料线体位置1下料请求</t>
+  </si>
+  <si>
+    <t>炉子上料线体位置1下料完成</t>
+  </si>
+  <si>
+    <t>炉子上料线体位置2下料请求</t>
+  </si>
+  <si>
+    <t>炉子上料线体位置2下料完成</t>
+  </si>
+  <si>
+    <t>炉子上料线体位置2允许放行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罩子机械手提起检测开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罩子机械手落下检测开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罩子机械手夹紧检测开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罩子机械手松开检测开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罩子机械手提起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罩子机械手落下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罩子机械手夹紧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罩子机械手松开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉子下料线体位置2允许放行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉子上料线体位置1允许上料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉子上料线体位置1上料确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉子上料线体位置2允许上料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉子上料线体位置2上料确认</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2030,7 +2230,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2059,15 +2259,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2104,13 +2295,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2129,35 +2400,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2453,10 +2745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R147"/>
+  <dimension ref="A1:R158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I83" sqref="I83"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I121" sqref="I121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2480,16 +2772,16 @@
   <sheetData>
     <row r="1" spans="1:18" ht="14.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1"/>
@@ -2526,7 +2818,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>350</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -2536,7 +2828,7 @@
       <c r="E3" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>349</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -2551,7 +2843,7 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="3" t="s">
         <v>516</v>
       </c>
@@ -2559,7 +2851,7 @@
       <c r="E4" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="3" t="s">
         <v>21</v>
       </c>
@@ -2570,13 +2862,13 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="3" t="s">
         <v>517</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="12"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="3" t="s">
         <v>22</v>
       </c>
@@ -2587,7 +2879,7 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="3" t="s">
         <v>518</v>
       </c>
@@ -2595,7 +2887,7 @@
       <c r="E6" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="3" t="s">
         <v>23</v>
       </c>
@@ -2606,7 +2898,7 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="3" t="s">
         <v>519</v>
       </c>
@@ -2614,7 +2906,7 @@
       <c r="E7" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="3" t="s">
         <v>24</v>
       </c>
@@ -2627,7 +2919,7 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="3" t="s">
         <v>520</v>
       </c>
@@ -2635,7 +2927,7 @@
       <c r="E8" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="3" t="s">
         <v>25</v>
       </c>
@@ -2648,13 +2940,13 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="3" t="s">
         <v>521</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="12"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="3" t="s">
         <v>26</v>
       </c>
@@ -2667,7 +2959,7 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="3" t="s">
         <v>522</v>
       </c>
@@ -2675,7 +2967,7 @@
       <c r="E10" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="3" t="s">
         <v>27</v>
       </c>
@@ -2686,7 +2978,7 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="3" t="s">
         <v>523</v>
       </c>
@@ -2694,7 +2986,7 @@
       <c r="E11" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="3" t="s">
         <v>171</v>
       </c>
@@ -2707,7 +2999,7 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="3" t="s">
         <v>168</v>
       </c>
@@ -2715,7 +3007,7 @@
       <c r="E12" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="3" t="s">
         <v>172</v>
       </c>
@@ -2728,7 +3020,7 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="3" t="s">
         <v>169</v>
       </c>
@@ -2736,7 +3028,7 @@
       <c r="E13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="12"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="3" t="s">
         <v>173</v>
       </c>
@@ -2749,7 +3041,7 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="3" t="s">
         <v>170</v>
       </c>
@@ -2757,7 +3049,7 @@
       <c r="E14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="12"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="3" t="s">
         <v>174</v>
       </c>
@@ -2770,7 +3062,7 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="3" t="s">
         <v>351</v>
       </c>
@@ -2778,7 +3070,7 @@
       <c r="E15" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="F15" s="12"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="3" t="s">
         <v>355</v>
       </c>
@@ -2791,7 +3083,7 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="3" t="s">
         <v>352</v>
       </c>
@@ -2799,7 +3091,7 @@
       <c r="E16" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F16" s="12"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="3" t="s">
         <v>356</v>
       </c>
@@ -2812,7 +3104,7 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="12"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="3" t="s">
         <v>353</v>
       </c>
@@ -2820,7 +3112,7 @@
       <c r="E17" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F17" s="12"/>
+      <c r="F17" s="10"/>
       <c r="G17" s="3"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -2829,7 +3121,7 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="12"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="3" t="s">
         <v>354</v>
       </c>
@@ -2837,7 +3129,7 @@
       <c r="E18" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F18" s="12"/>
+      <c r="F18" s="10"/>
       <c r="G18" s="3" t="s">
         <v>358</v>
       </c>
@@ -2850,7 +3142,7 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="3" t="s">
         <v>524</v>
       </c>
@@ -2858,7 +3150,7 @@
       <c r="E19" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F19" s="12"/>
+      <c r="F19" s="10"/>
       <c r="G19" s="3" t="s">
         <v>367</v>
       </c>
@@ -2871,7 +3163,7 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="3" t="s">
         <v>360</v>
       </c>
@@ -2879,7 +3171,7 @@
       <c r="E20" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="F20" s="12"/>
+      <c r="F20" s="10"/>
       <c r="G20" s="3" t="s">
         <v>368</v>
       </c>
@@ -2892,7 +3184,7 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="12"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="3" t="s">
         <v>361</v>
       </c>
@@ -2900,7 +3192,7 @@
       <c r="E21" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F21" s="12"/>
+      <c r="F21" s="10"/>
       <c r="G21" s="3" t="s">
         <v>369</v>
       </c>
@@ -2913,7 +3205,7 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="3" t="s">
         <v>362</v>
       </c>
@@ -2921,7 +3213,7 @@
       <c r="E22" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="F22" s="12"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="3" t="s">
         <v>370</v>
       </c>
@@ -2934,12 +3226,12 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="12"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="3" t="s">
         <v>363</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="F23" s="12"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="3" t="s">
         <v>371</v>
       </c>
@@ -2952,7 +3244,7 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="12"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="3" t="s">
         <v>364</v>
       </c>
@@ -2960,7 +3252,7 @@
       <c r="E24" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="F24" s="12"/>
+      <c r="F24" s="10"/>
       <c r="G24" s="3" t="s">
         <v>372</v>
       </c>
@@ -2973,7 +3265,7 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="12"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="3" t="s">
         <v>365</v>
       </c>
@@ -2981,7 +3273,7 @@
       <c r="E25" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="F25" s="12"/>
+      <c r="F25" s="10"/>
       <c r="G25" s="3" t="s">
         <v>373</v>
       </c>
@@ -2994,7 +3286,7 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="12"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="3" t="s">
         <v>366</v>
       </c>
@@ -3002,7 +3294,7 @@
       <c r="E26" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F26" s="12"/>
+      <c r="F26" s="10"/>
       <c r="G26" s="3" t="s">
         <v>374</v>
       </c>
@@ -3015,7 +3307,7 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="12"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="3" t="s">
         <v>525</v>
       </c>
@@ -3023,7 +3315,7 @@
       <c r="E27" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F27" s="12"/>
+      <c r="F27" s="10"/>
       <c r="G27" s="3" t="s">
         <v>383</v>
       </c>
@@ -3036,7 +3328,7 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="12"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="3" t="s">
         <v>376</v>
       </c>
@@ -3044,7 +3336,7 @@
       <c r="E28" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F28" s="12"/>
+      <c r="F28" s="10"/>
       <c r="G28" s="3" t="s">
         <v>384</v>
       </c>
@@ -3057,7 +3349,7 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="12"/>
+      <c r="B29" s="10"/>
       <c r="C29" s="3" t="s">
         <v>377</v>
       </c>
@@ -3065,7 +3357,7 @@
       <c r="E29" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F29" s="12"/>
+      <c r="F29" s="10"/>
       <c r="G29" s="3" t="s">
         <v>385</v>
       </c>
@@ -3078,7 +3370,7 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="12"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="3" t="s">
         <v>378</v>
       </c>
@@ -3086,7 +3378,7 @@
       <c r="E30" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F30" s="12"/>
+      <c r="F30" s="10"/>
       <c r="G30" s="3" t="s">
         <v>386</v>
       </c>
@@ -3099,7 +3391,7 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="12"/>
+      <c r="B31" s="10"/>
       <c r="C31" s="3" t="s">
         <v>379</v>
       </c>
@@ -3107,7 +3399,7 @@
       <c r="E31" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F31" s="12"/>
+      <c r="F31" s="10"/>
       <c r="G31" s="3" t="s">
         <v>387</v>
       </c>
@@ -3120,7 +3412,7 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="12"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="3" t="s">
         <v>380</v>
       </c>
@@ -3128,7 +3420,7 @@
       <c r="E32" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="F32" s="12"/>
+      <c r="F32" s="10"/>
       <c r="G32" s="3" t="s">
         <v>388</v>
       </c>
@@ -3141,7 +3433,7 @@
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="12"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="3" t="s">
         <v>381</v>
       </c>
@@ -3149,7 +3441,7 @@
       <c r="E33" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="F33" s="12"/>
+      <c r="F33" s="10"/>
       <c r="G33" s="3" t="s">
         <v>389</v>
       </c>
@@ -3162,7 +3454,7 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="12"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="3" t="s">
         <v>382</v>
       </c>
@@ -3170,7 +3462,7 @@
       <c r="E34" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="F34" s="12"/>
+      <c r="F34" s="10"/>
       <c r="G34" s="3" t="s">
         <v>390</v>
       </c>
@@ -3181,7 +3473,7 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="12"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="3" t="s">
         <v>526</v>
       </c>
@@ -3189,7 +3481,7 @@
       <c r="E35" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="F35" s="12"/>
+      <c r="F35" s="10"/>
       <c r="G35" s="3" t="s">
         <v>224</v>
       </c>
@@ -3202,7 +3494,7 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="12"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="3" t="s">
         <v>527</v>
       </c>
@@ -3210,7 +3502,7 @@
       <c r="E36" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="F36" s="12"/>
+      <c r="F36" s="10"/>
       <c r="G36" s="3" t="s">
         <v>225</v>
       </c>
@@ -3223,13 +3515,13 @@
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="12"/>
+      <c r="B37" s="10"/>
       <c r="C37" s="3" t="s">
         <v>528</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="12"/>
+      <c r="F37" s="10"/>
       <c r="G37" s="3" t="s">
         <v>226</v>
       </c>
@@ -3245,13 +3537,13 @@
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="12"/>
+      <c r="B38" s="10"/>
       <c r="C38" s="3" t="s">
         <v>529</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="12"/>
+      <c r="F38" s="10"/>
       <c r="G38" s="3" t="s">
         <v>227</v>
       </c>
@@ -3264,7 +3556,7 @@
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="12"/>
+      <c r="B39" s="10"/>
       <c r="C39" s="3" t="s">
         <v>530</v>
       </c>
@@ -3272,7 +3564,7 @@
       <c r="E39" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="F39" s="12"/>
+      <c r="F39" s="10"/>
       <c r="G39" s="3" t="s">
         <v>228</v>
       </c>
@@ -3285,7 +3577,7 @@
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="12"/>
+      <c r="B40" s="10"/>
       <c r="C40" s="3" t="s">
         <v>531</v>
       </c>
@@ -3293,7 +3585,7 @@
       <c r="E40" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="F40" s="12"/>
+      <c r="F40" s="10"/>
       <c r="G40" s="3" t="s">
         <v>229</v>
       </c>
@@ -3306,7 +3598,7 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="12"/>
+      <c r="B41" s="10"/>
       <c r="C41" s="3" t="s">
         <v>532</v>
       </c>
@@ -3314,7 +3606,7 @@
       <c r="E41" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="F41" s="12"/>
+      <c r="F41" s="10"/>
       <c r="G41" s="3" t="s">
         <v>230</v>
       </c>
@@ -3327,7 +3619,7 @@
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="12"/>
+      <c r="B42" s="10"/>
       <c r="C42" s="3" t="s">
         <v>533</v>
       </c>
@@ -3335,7 +3627,7 @@
       <c r="E42" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="F42" s="12"/>
+      <c r="F42" s="10"/>
       <c r="G42" s="3" t="s">
         <v>231</v>
       </c>
@@ -3348,7 +3640,7 @@
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="10" t="s">
         <v>393</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -3358,7 +3650,7 @@
       <c r="E43" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F43" s="10" t="s">
         <v>393</v>
       </c>
       <c r="G43" s="3" t="s">
@@ -3373,7 +3665,7 @@
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="12"/>
+      <c r="B44" s="10"/>
       <c r="C44" s="3" t="s">
         <v>217</v>
       </c>
@@ -3381,7 +3673,7 @@
       <c r="E44" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="F44" s="12"/>
+      <c r="F44" s="10"/>
       <c r="G44" s="3" t="s">
         <v>232</v>
       </c>
@@ -3394,7 +3686,7 @@
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="12"/>
+      <c r="B45" s="10"/>
       <c r="C45" s="3" t="s">
         <v>218</v>
       </c>
@@ -3402,7 +3694,7 @@
       <c r="E45" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="F45" s="12"/>
+      <c r="F45" s="10"/>
       <c r="G45" s="3" t="s">
         <v>233</v>
       </c>
@@ -3415,7 +3707,7 @@
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="12"/>
+      <c r="B46" s="10"/>
       <c r="C46" s="3" t="s">
         <v>219</v>
       </c>
@@ -3423,7 +3715,7 @@
       <c r="E46" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="F46" s="12"/>
+      <c r="F46" s="10"/>
       <c r="G46" s="3" t="s">
         <v>234</v>
       </c>
@@ -3436,7 +3728,7 @@
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="12"/>
+      <c r="B47" s="10"/>
       <c r="C47" s="3" t="s">
         <v>220</v>
       </c>
@@ -3444,7 +3736,7 @@
       <c r="E47" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="F47" s="12"/>
+      <c r="F47" s="10"/>
       <c r="G47" s="3" t="s">
         <v>235</v>
       </c>
@@ -3457,7 +3749,7 @@
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="12"/>
+      <c r="B48" s="10"/>
       <c r="C48" s="3" t="s">
         <v>221</v>
       </c>
@@ -3465,7 +3757,7 @@
       <c r="E48" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="F48" s="12"/>
+      <c r="F48" s="10"/>
       <c r="G48" s="3" t="s">
         <v>236</v>
       </c>
@@ -3478,7 +3770,7 @@
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="12"/>
+      <c r="B49" s="10"/>
       <c r="C49" s="3" t="s">
         <v>222</v>
       </c>
@@ -3486,7 +3778,7 @@
       <c r="E49" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="F49" s="12"/>
+      <c r="F49" s="10"/>
       <c r="G49" s="3" t="s">
         <v>237</v>
       </c>
@@ -3499,7 +3791,7 @@
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="12"/>
+      <c r="B50" s="10"/>
       <c r="C50" s="3" t="s">
         <v>223</v>
       </c>
@@ -3507,7 +3799,7 @@
       <c r="E50" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="F50" s="12"/>
+      <c r="F50" s="10"/>
       <c r="G50" s="3" t="s">
         <v>238</v>
       </c>
@@ -3518,7 +3810,7 @@
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="12"/>
+      <c r="B51" s="10"/>
       <c r="C51" s="3" t="s">
         <v>535</v>
       </c>
@@ -3526,7 +3818,7 @@
       <c r="E51" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="F51" s="12"/>
+      <c r="F51" s="10"/>
       <c r="G51" s="1" t="s">
         <v>406</v>
       </c>
@@ -3539,7 +3831,7 @@
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="12"/>
+      <c r="B52" s="10"/>
       <c r="C52" s="3" t="s">
         <v>215</v>
       </c>
@@ -3547,7 +3839,7 @@
       <c r="E52" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="F52" s="12"/>
+      <c r="F52" s="10"/>
       <c r="G52" s="1" t="s">
         <v>279</v>
       </c>
@@ -3560,7 +3852,7 @@
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="12"/>
+      <c r="B53" s="10"/>
       <c r="C53" s="3" t="s">
         <v>269</v>
       </c>
@@ -3568,7 +3860,7 @@
       <c r="E53" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="F53" s="12"/>
+      <c r="F53" s="10"/>
       <c r="G53" s="1" t="s">
         <v>280</v>
       </c>
@@ -3581,7 +3873,7 @@
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="12"/>
+      <c r="B54" s="10"/>
       <c r="C54" s="3" t="s">
         <v>270</v>
       </c>
@@ -3589,7 +3881,7 @@
       <c r="E54" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="F54" s="12"/>
+      <c r="F54" s="10"/>
       <c r="G54" s="1" t="s">
         <v>281</v>
       </c>
@@ -3602,7 +3894,7 @@
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="12"/>
+      <c r="B55" s="10"/>
       <c r="C55" s="3" t="s">
         <v>391</v>
       </c>
@@ -3610,7 +3902,7 @@
       <c r="E55" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="F55" s="12"/>
+      <c r="F55" s="10"/>
       <c r="G55" s="1" t="s">
         <v>407</v>
       </c>
@@ -3623,7 +3915,7 @@
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="12"/>
+      <c r="B56" s="10"/>
       <c r="C56" s="3" t="s">
         <v>272</v>
       </c>
@@ -3631,7 +3923,7 @@
       <c r="E56" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F56" s="12"/>
+      <c r="F56" s="10"/>
       <c r="G56" s="1" t="s">
         <v>283</v>
       </c>
@@ -3644,7 +3936,7 @@
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="12"/>
+      <c r="B57" s="10"/>
       <c r="C57" s="3" t="s">
         <v>271</v>
       </c>
@@ -3652,7 +3944,7 @@
       <c r="E57" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="F57" s="12"/>
+      <c r="F57" s="10"/>
       <c r="G57" s="1" t="s">
         <v>282</v>
       </c>
@@ -3665,7 +3957,7 @@
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="12"/>
+      <c r="B58" s="10"/>
       <c r="C58" s="3" t="s">
         <v>273</v>
       </c>
@@ -3673,7 +3965,7 @@
       <c r="E58" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="F58" s="12"/>
+      <c r="F58" s="10"/>
       <c r="G58" s="1" t="s">
         <v>284</v>
       </c>
@@ -3686,7 +3978,7 @@
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="10" t="s">
         <v>393</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -3696,7 +3988,7 @@
       <c r="E59" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="F59" s="12" t="s">
+      <c r="F59" s="10" t="s">
         <v>393</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -3711,7 +4003,7 @@
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="12"/>
+      <c r="B60" s="10"/>
       <c r="C60" s="3" t="s">
         <v>274</v>
       </c>
@@ -3719,7 +4011,7 @@
       <c r="E60" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="F60" s="12"/>
+      <c r="F60" s="10"/>
       <c r="G60" s="1" t="s">
         <v>285</v>
       </c>
@@ -3732,7 +4024,7 @@
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="12"/>
+      <c r="B61" s="10"/>
       <c r="C61" s="3" t="s">
         <v>216</v>
       </c>
@@ -3740,7 +4032,7 @@
       <c r="E61" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="F61" s="12"/>
+      <c r="F61" s="10"/>
       <c r="G61" s="1" t="s">
         <v>286</v>
       </c>
@@ -3753,7 +4045,7 @@
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="12"/>
+      <c r="B62" s="10"/>
       <c r="C62" s="3" t="s">
         <v>275</v>
       </c>
@@ -3761,7 +4053,7 @@
       <c r="E62" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="F62" s="12"/>
+      <c r="F62" s="10"/>
       <c r="G62" s="1" t="s">
         <v>287</v>
       </c>
@@ -3774,7 +4066,7 @@
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="12"/>
+      <c r="B63" s="10"/>
       <c r="C63" s="3" t="s">
         <v>276</v>
       </c>
@@ -3782,7 +4074,7 @@
       <c r="E63" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="F63" s="12"/>
+      <c r="F63" s="10"/>
       <c r="G63" s="1" t="s">
         <v>288</v>
       </c>
@@ -3795,7 +4087,7 @@
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="12"/>
+      <c r="B64" s="10"/>
       <c r="C64" s="3" t="s">
         <v>392</v>
       </c>
@@ -3803,7 +4095,7 @@
       <c r="E64" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="F64" s="12"/>
+      <c r="F64" s="10"/>
       <c r="G64" s="1" t="s">
         <v>409</v>
       </c>
@@ -3816,7 +4108,7 @@
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="12"/>
+      <c r="B65" s="10"/>
       <c r="C65" s="3" t="s">
         <v>278</v>
       </c>
@@ -3824,7 +4116,7 @@
       <c r="E65" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="F65" s="12"/>
+      <c r="F65" s="10"/>
       <c r="G65" s="1" t="s">
         <v>290</v>
       </c>
@@ -3837,7 +4129,7 @@
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" s="12"/>
+      <c r="B66" s="10"/>
       <c r="C66" s="3" t="s">
         <v>277</v>
       </c>
@@ -3845,7 +4137,7 @@
       <c r="E66" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="F66" s="12"/>
+      <c r="F66" s="10"/>
       <c r="G66" s="1" t="s">
         <v>289</v>
       </c>
@@ -3858,7 +4150,7 @@
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" s="12"/>
+      <c r="B67" s="10"/>
       <c r="C67" s="3" t="s">
         <v>537</v>
       </c>
@@ -3866,7 +4158,7 @@
       <c r="E67" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="F67" s="12"/>
+      <c r="F67" s="10"/>
       <c r="G67" s="3" t="s">
         <v>410</v>
       </c>
@@ -3879,7 +4171,7 @@
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" s="12"/>
+      <c r="B68" s="10"/>
       <c r="C68" s="3" t="s">
         <v>398</v>
       </c>
@@ -3887,7 +4179,7 @@
       <c r="E68" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="F68" s="12"/>
+      <c r="F68" s="10"/>
       <c r="G68" s="3" t="s">
         <v>411</v>
       </c>
@@ -3900,7 +4192,7 @@
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" s="12"/>
+      <c r="B69" s="10"/>
       <c r="C69" s="3" t="s">
         <v>399</v>
       </c>
@@ -3908,7 +4200,7 @@
       <c r="E69" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="F69" s="12"/>
+      <c r="F69" s="10"/>
       <c r="G69" s="3" t="s">
         <v>412</v>
       </c>
@@ -3921,7 +4213,7 @@
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" s="12"/>
+      <c r="B70" s="10"/>
       <c r="C70" s="3" t="s">
         <v>400</v>
       </c>
@@ -3929,7 +4221,7 @@
       <c r="E70" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="F70" s="12"/>
+      <c r="F70" s="10"/>
       <c r="G70" s="3" t="s">
         <v>413</v>
       </c>
@@ -3942,7 +4234,7 @@
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" s="12"/>
+      <c r="B71" s="10"/>
       <c r="C71" s="3" t="s">
         <v>401</v>
       </c>
@@ -3950,7 +4242,7 @@
       <c r="E71" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="F71" s="12"/>
+      <c r="F71" s="10"/>
       <c r="G71" s="3" t="s">
         <v>414</v>
       </c>
@@ -3963,13 +4255,13 @@
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" s="12"/>
+      <c r="B72" s="10"/>
       <c r="C72" s="3" t="s">
         <v>402</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="12"/>
+      <c r="F72" s="10"/>
       <c r="G72" s="3" t="s">
         <v>415</v>
       </c>
@@ -3980,13 +4272,13 @@
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" s="12"/>
+      <c r="B73" s="10"/>
       <c r="C73" s="3" t="s">
         <v>403</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="12"/>
+      <c r="F73" s="10"/>
       <c r="G73" s="3" t="s">
         <v>416</v>
       </c>
@@ -3997,7 +4289,7 @@
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" s="12"/>
+      <c r="B74" s="10"/>
       <c r="C74" s="3" t="s">
         <v>404</v>
       </c>
@@ -4005,7 +4297,7 @@
       <c r="E74" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="F74" s="12"/>
+      <c r="F74" s="10"/>
       <c r="G74" s="3" t="s">
         <v>417</v>
       </c>
@@ -4016,7 +4308,7 @@
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="10" t="s">
         <v>393</v>
       </c>
       <c r="C75" s="3" t="s">
@@ -4026,7 +4318,7 @@
       <c r="E75" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="F75" s="12" t="s">
+      <c r="F75" s="10" t="s">
         <v>393</v>
       </c>
       <c r="G75" s="3" t="s">
@@ -4041,7 +4333,7 @@
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" s="12"/>
+      <c r="B76" s="10"/>
       <c r="C76" s="3" t="s">
         <v>539</v>
       </c>
@@ -4049,7 +4341,7 @@
       <c r="E76" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="F76" s="12"/>
+      <c r="F76" s="10"/>
       <c r="G76" s="3" t="s">
         <v>555</v>
       </c>
@@ -4062,7 +4354,7 @@
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" s="12"/>
+      <c r="B77" s="10"/>
       <c r="C77" s="3" t="s">
         <v>540</v>
       </c>
@@ -4070,7 +4362,7 @@
       <c r="E77" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="F77" s="12"/>
+      <c r="F77" s="10"/>
       <c r="G77" s="3" t="s">
         <v>556</v>
       </c>
@@ -4083,7 +4375,7 @@
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" s="12"/>
+      <c r="B78" s="10"/>
       <c r="C78" s="3" t="s">
         <v>541</v>
       </c>
@@ -4091,7 +4383,7 @@
       <c r="E78" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="F78" s="12"/>
+      <c r="F78" s="10"/>
       <c r="G78" s="3" t="s">
         <v>557</v>
       </c>
@@ -4104,7 +4396,7 @@
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" s="12"/>
+      <c r="B79" s="10"/>
       <c r="C79" s="3" t="s">
         <v>542</v>
       </c>
@@ -4112,7 +4404,7 @@
       <c r="E79" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="F79" s="12"/>
+      <c r="F79" s="10"/>
       <c r="G79" s="3" t="s">
         <v>558</v>
       </c>
@@ -4125,7 +4417,7 @@
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" s="12"/>
+      <c r="B80" s="10"/>
       <c r="C80" s="3" t="s">
         <v>543</v>
       </c>
@@ -4133,18 +4425,20 @@
       <c r="E80" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="F80" s="12"/>
+      <c r="F80" s="10"/>
       <c r="G80" s="3" t="s">
         <v>559</v>
       </c>
       <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
+      <c r="I80" s="4" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" s="12"/>
+      <c r="B81" s="10"/>
       <c r="C81" s="3" t="s">
         <v>544</v>
       </c>
@@ -4152,18 +4446,20 @@
       <c r="E81" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="F81" s="12"/>
+      <c r="F81" s="10"/>
       <c r="G81" s="3" t="s">
         <v>560</v>
       </c>
       <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
+      <c r="I81" s="4" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" s="12"/>
+      <c r="B82" s="10"/>
       <c r="C82" s="3" t="s">
         <v>545</v>
       </c>
@@ -4171,18 +4467,20 @@
       <c r="E82" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="F82" s="12"/>
+      <c r="F82" s="10"/>
       <c r="G82" s="3" t="s">
         <v>561</v>
       </c>
       <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
+      <c r="I82" s="4" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" s="12"/>
+      <c r="B83" s="10"/>
       <c r="C83" s="3" t="s">
         <v>546</v>
       </c>
@@ -4190,18 +4488,20 @@
       <c r="E83" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="F83" s="12"/>
+      <c r="F83" s="10"/>
       <c r="G83" s="3" t="s">
         <v>562</v>
       </c>
       <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
+      <c r="I83" s="4" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" s="12"/>
+      <c r="B84" s="10"/>
       <c r="C84" s="3" t="s">
         <v>547</v>
       </c>
@@ -4209,18 +4509,20 @@
       <c r="E84" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="F84" s="12"/>
+      <c r="F84" s="10"/>
       <c r="G84" s="3" t="s">
         <v>563</v>
       </c>
       <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
+      <c r="I84" s="4" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" s="12"/>
+      <c r="B85" s="10"/>
       <c r="C85" s="3" t="s">
         <v>548</v>
       </c>
@@ -4228,18 +4530,20 @@
       <c r="E85" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="F85" s="12"/>
+      <c r="F85" s="10"/>
       <c r="G85" s="3" t="s">
         <v>564</v>
       </c>
       <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
+      <c r="I85" s="4" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" s="12"/>
+      <c r="B86" s="10"/>
       <c r="C86" s="3" t="s">
         <v>549</v>
       </c>
@@ -4247,18 +4551,20 @@
       <c r="E86" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="F86" s="12"/>
+      <c r="F86" s="10"/>
       <c r="G86" s="3" t="s">
         <v>565</v>
       </c>
       <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
+      <c r="I86" s="4" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" s="12"/>
+      <c r="B87" s="10"/>
       <c r="C87" s="3" t="s">
         <v>550</v>
       </c>
@@ -4266,18 +4572,20 @@
       <c r="E87" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="F87" s="12"/>
+      <c r="F87" s="10"/>
       <c r="G87" s="3" t="s">
         <v>566</v>
       </c>
       <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
+      <c r="I87" s="4" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" s="12"/>
+      <c r="B88" s="10"/>
       <c r="C88" s="3" t="s">
         <v>551</v>
       </c>
@@ -4285,18 +4593,20 @@
       <c r="E88" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="F88" s="12"/>
+      <c r="F88" s="10"/>
       <c r="G88" s="3" t="s">
         <v>567</v>
       </c>
       <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
+      <c r="I88" s="1" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" s="12"/>
+      <c r="B89" s="10"/>
       <c r="C89" s="3" t="s">
         <v>552</v>
       </c>
@@ -4304,18 +4614,20 @@
       <c r="E89" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="F89" s="12"/>
+      <c r="F89" s="10"/>
       <c r="G89" s="3" t="s">
         <v>568</v>
       </c>
       <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
+      <c r="I89" s="1" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="90" spans="1:9" ht="14.25" thickBot="1">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" s="12"/>
+      <c r="B90" s="10"/>
       <c r="C90" s="3" t="s">
         <v>553</v>
       </c>
@@ -4323,1085 +4635,1355 @@
       <c r="E90" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="F90" s="12"/>
+      <c r="F90" s="10"/>
       <c r="G90" s="3" t="s">
         <v>569</v>
       </c>
       <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="1:9" s="8" customFormat="1">
-      <c r="A91" s="6"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-    </row>
-    <row r="92" spans="1:9" s="7" customFormat="1">
-      <c r="A92" s="6"/>
-    </row>
-    <row r="93" spans="1:9" s="7" customFormat="1">
-      <c r="A93" s="6"/>
-    </row>
-    <row r="94" spans="1:9" s="7" customFormat="1">
-      <c r="A94" s="6"/>
-    </row>
-    <row r="95" spans="1:9" s="9" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A95" s="6"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="13" t="s">
-        <v>438</v>
-      </c>
-      <c r="B96" s="13"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="13"/>
-      <c r="I96" s="13"/>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="13"/>
-      <c r="B97" s="13"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="13"/>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="13"/>
-      <c r="B98" s="13"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
-      <c r="I98" s="13"/>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="13.5" customHeight="1">
+      <c r="I90" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="7" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D91" s="1"/>
+      <c r="E91" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" s="7" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" s="10"/>
+      <c r="C92" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="D92" s="1"/>
+      <c r="E92" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="F92" s="10"/>
+      <c r="G92" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="1:9" s="7" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" s="10"/>
+      <c r="C93" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="D93" s="1"/>
+      <c r="E93" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="F93" s="10"/>
+      <c r="G93" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="1:9" s="7" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" s="10"/>
+      <c r="C94" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="D94" s="1"/>
+      <c r="E94" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="F94" s="10"/>
+      <c r="G94" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="1:9" s="7" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="10"/>
+      <c r="C95" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="D95" s="1"/>
+      <c r="E95" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="F95" s="10"/>
+      <c r="G95" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="1:9" s="7" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="10"/>
+      <c r="C96" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="D96" s="1"/>
+      <c r="E96" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="F96" s="10"/>
+      <c r="G96" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="1:9" s="7" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" s="10"/>
+      <c r="C97" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="D97" s="1"/>
+      <c r="E97" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="F97" s="10"/>
+      <c r="G97" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="1:9" s="7" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" s="10"/>
+      <c r="C98" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="D98" s="1"/>
+      <c r="E98" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="F98" s="10"/>
+      <c r="G98" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="1:9" s="7" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="10"/>
+      <c r="C99" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="E99" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="F99" s="10"/>
+      <c r="G99" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="1:9" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A100" s="1">
-        <v>1</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>350</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B100" s="10"/>
       <c r="C100" s="3" t="s">
-        <v>12</v>
+        <v>592</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="F100" s="14" t="s">
-        <v>349</v>
-      </c>
+        <v>627</v>
+      </c>
+      <c r="F100" s="10"/>
       <c r="G100" s="3" t="s">
-        <v>20</v>
+        <v>608</v>
       </c>
       <c r="H100" s="1"/>
-      <c r="I100" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="1:9" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A101" s="1">
-        <v>2</v>
-      </c>
-      <c r="B101" s="15"/>
+        <v>99</v>
+      </c>
+      <c r="B101" s="10"/>
       <c r="C101" s="3" t="s">
-        <v>13</v>
+        <v>593</v>
       </c>
       <c r="D101" s="1"/>
-      <c r="E101" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="F101" s="15"/>
+      <c r="E101" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="F101" s="10"/>
       <c r="G101" s="3" t="s">
-        <v>21</v>
+        <v>609</v>
       </c>
       <c r="H101" s="1"/>
-      <c r="I101" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="I101" s="1"/>
+    </row>
+    <row r="102" spans="1:9" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A102" s="1">
-        <v>3</v>
-      </c>
-      <c r="B102" s="15"/>
+        <v>100</v>
+      </c>
+      <c r="B102" s="10"/>
       <c r="C102" s="3" t="s">
-        <v>14</v>
+        <v>594</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="F102" s="15"/>
+        <v>629</v>
+      </c>
+      <c r="F102" s="10"/>
       <c r="G102" s="3" t="s">
-        <v>22</v>
+        <v>610</v>
       </c>
       <c r="H102" s="1"/>
-      <c r="I102" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" spans="1:9" s="7" customFormat="1">
       <c r="A103" s="1">
-        <v>4</v>
-      </c>
-      <c r="B103" s="15"/>
+        <v>101</v>
+      </c>
+      <c r="B103" s="10"/>
       <c r="C103" s="3" t="s">
-        <v>15</v>
+        <v>595</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="F103" s="15"/>
+        <v>630</v>
+      </c>
+      <c r="F103" s="10"/>
       <c r="G103" s="3" t="s">
-        <v>23</v>
+        <v>611</v>
       </c>
       <c r="H103" s="1"/>
-      <c r="I103" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="I103" s="1"/>
+    </row>
+    <row r="104" spans="1:9" s="6" customFormat="1">
       <c r="A104" s="1">
-        <v>5</v>
-      </c>
-      <c r="B104" s="15"/>
+        <v>102</v>
+      </c>
+      <c r="B104" s="10"/>
       <c r="C104" s="3" t="s">
-        <v>16</v>
+        <v>596</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="F104" s="15"/>
+        <v>631</v>
+      </c>
+      <c r="F104" s="10"/>
       <c r="G104" s="3" t="s">
-        <v>24</v>
+        <v>612</v>
       </c>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" s="6" customFormat="1">
       <c r="A105" s="1">
-        <v>6</v>
-      </c>
-      <c r="B105" s="15"/>
+        <v>103</v>
+      </c>
+      <c r="B105" s="10"/>
       <c r="C105" s="3" t="s">
-        <v>17</v>
+        <v>597</v>
       </c>
       <c r="D105" s="1"/>
-      <c r="E105" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="F105" s="15"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="10"/>
       <c r="G105" s="3" t="s">
-        <v>25</v>
+        <v>613</v>
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" s="6" customFormat="1">
       <c r="A106" s="1">
-        <v>7</v>
-      </c>
-      <c r="B106" s="15"/>
+        <v>104</v>
+      </c>
+      <c r="B106" s="10"/>
       <c r="C106" s="3" t="s">
-        <v>18</v>
+        <v>598</v>
       </c>
       <c r="D106" s="1"/>
-      <c r="E106" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F106" s="15"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="10"/>
       <c r="G106" s="3" t="s">
-        <v>26</v>
+        <v>614</v>
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="1">
-        <v>8</v>
+    <row r="107" spans="1:9" s="8" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A107" s="14" t="s">
+        <v>438</v>
       </c>
       <c r="B107" s="15"/>
-      <c r="C107" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1" t="s">
-        <v>474</v>
-      </c>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
       <c r="F107" s="15"/>
-      <c r="G107" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="16"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="1">
-        <v>9</v>
-      </c>
-      <c r="B108" s="15"/>
-      <c r="C108" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D108" s="1"/>
-      <c r="E108" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="F108" s="15"/>
-      <c r="G108" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1" t="s">
-        <v>439</v>
-      </c>
+      <c r="A108" s="17"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="19"/>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="1">
-        <v>10</v>
-      </c>
-      <c r="B109" s="15"/>
-      <c r="C109" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D109" s="1"/>
-      <c r="E109" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="F109" s="15"/>
-      <c r="G109" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1" t="s">
-        <v>440</v>
-      </c>
+      <c r="A109" s="20"/>
+      <c r="B109" s="21"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="21"/>
+      <c r="I109" s="22"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="1">
-        <v>11</v>
-      </c>
-      <c r="B110" s="15"/>
-      <c r="C110" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D110" s="1"/>
-      <c r="E110" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="F110" s="15"/>
-      <c r="G110" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H110" s="1"/>
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="I110" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="13.5" customHeight="1">
       <c r="A111" s="1">
+        <v>1</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B111" s="15"/>
-      <c r="C111" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="F111" s="15"/>
+        <v>488</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>349</v>
+      </c>
       <c r="G111" s="3" t="s">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="H111" s="1"/>
       <c r="I111" s="1" t="s">
-        <v>442</v>
+        <v>464</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="1">
+        <v>2</v>
+      </c>
+      <c r="B112" s="12"/>
+      <c r="C112" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B112" s="15"/>
-      <c r="C112" s="3" t="s">
-        <v>351</v>
-      </c>
       <c r="D112" s="1"/>
-      <c r="E112" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="F112" s="15"/>
+      <c r="E112" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="F112" s="12"/>
       <c r="G112" s="3" t="s">
-        <v>355</v>
+        <v>21</v>
       </c>
       <c r="H112" s="1"/>
       <c r="I112" s="1" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="1">
+        <v>3</v>
+      </c>
+      <c r="B113" s="12"/>
+      <c r="C113" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B113" s="15"/>
-      <c r="C113" s="3" t="s">
-        <v>352</v>
-      </c>
       <c r="D113" s="1"/>
-      <c r="E113" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="F113" s="15"/>
+      <c r="E113" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F113" s="12"/>
       <c r="G113" s="3" t="s">
-        <v>356</v>
+        <v>22</v>
       </c>
       <c r="H113" s="1"/>
-      <c r="I113" s="3" t="s">
-        <v>444</v>
+      <c r="I113" s="1" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="1">
+        <v>4</v>
+      </c>
+      <c r="B114" s="12"/>
+      <c r="C114" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B114" s="15"/>
-      <c r="C114" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="F114" s="15"/>
+        <v>470</v>
+      </c>
+      <c r="F114" s="12"/>
       <c r="G114" s="3" t="s">
-        <v>357</v>
+        <v>23</v>
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="1">
+        <v>5</v>
+      </c>
+      <c r="B115" s="12"/>
+      <c r="C115" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B115" s="15"/>
-      <c r="C115" s="3" t="s">
-        <v>354</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="F115" s="15"/>
+        <v>471</v>
+      </c>
+      <c r="F115" s="12"/>
       <c r="G115" s="3" t="s">
-        <v>358</v>
+        <v>24</v>
       </c>
       <c r="H115" s="1"/>
-      <c r="I115" s="1" t="s">
-        <v>507</v>
-      </c>
+      <c r="I115" s="1"/>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="1">
+        <v>6</v>
+      </c>
+      <c r="B116" s="12"/>
+      <c r="C116" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B116" s="15"/>
-      <c r="C116" s="3" t="s">
-        <v>359</v>
-      </c>
       <c r="D116" s="1"/>
-      <c r="E116" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="F116" s="15"/>
+      <c r="E116" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="F116" s="12"/>
       <c r="G116" s="3" t="s">
-        <v>367</v>
+        <v>25</v>
       </c>
       <c r="H116" s="1"/>
-      <c r="I116" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="I116" s="1"/>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="1">
+        <v>7</v>
+      </c>
+      <c r="B117" s="12"/>
+      <c r="C117" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B117" s="15"/>
-      <c r="C117" s="3" t="s">
-        <v>360</v>
-      </c>
       <c r="D117" s="1"/>
-      <c r="E117" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="F117" s="15"/>
+      <c r="E117" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F117" s="12"/>
       <c r="G117" s="3" t="s">
-        <v>368</v>
+        <v>26</v>
       </c>
       <c r="H117" s="1"/>
-      <c r="I117" s="1" t="s">
-        <v>293</v>
-      </c>
+      <c r="I117" s="1"/>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="1">
+        <v>8</v>
+      </c>
+      <c r="B118" s="12"/>
+      <c r="C118" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B118" s="15"/>
-      <c r="C118" s="3" t="s">
-        <v>361</v>
-      </c>
       <c r="D118" s="1"/>
-      <c r="E118" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="F118" s="15"/>
+      <c r="E118" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="F118" s="12"/>
       <c r="G118" s="3" t="s">
-        <v>369</v>
+        <v>27</v>
       </c>
       <c r="H118" s="1"/>
-      <c r="I118" s="1" t="s">
-        <v>294</v>
-      </c>
+      <c r="I118" s="1"/>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="1">
-        <v>20</v>
-      </c>
-      <c r="B119" s="15"/>
+        <v>9</v>
+      </c>
+      <c r="B119" s="12"/>
       <c r="C119" s="3" t="s">
-        <v>362</v>
+        <v>167</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="F119" s="15"/>
+        <v>448</v>
+      </c>
+      <c r="F119" s="12"/>
       <c r="G119" s="3" t="s">
-        <v>370</v>
+        <v>171</v>
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1" t="s">
-        <v>295</v>
+        <v>439</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="1">
-        <v>21</v>
-      </c>
-      <c r="B120" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="B120" s="12"/>
       <c r="C120" s="3" t="s">
-        <v>363</v>
+        <v>168</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="F120" s="15"/>
+        <v>447</v>
+      </c>
+      <c r="F120" s="12"/>
       <c r="G120" s="3" t="s">
-        <v>371</v>
+        <v>172</v>
       </c>
       <c r="H120" s="1"/>
       <c r="I120" s="1" t="s">
-        <v>296</v>
+        <v>440</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="1">
-        <v>22</v>
-      </c>
-      <c r="B121" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="B121" s="12"/>
       <c r="C121" s="3" t="s">
-        <v>364</v>
+        <v>169</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="F121" s="15"/>
+        <v>446</v>
+      </c>
+      <c r="F121" s="12"/>
       <c r="G121" s="3" t="s">
-        <v>372</v>
+        <v>173</v>
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="1" t="s">
-        <v>297</v>
+        <v>441</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="1">
-        <v>23</v>
-      </c>
-      <c r="B122" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="B122" s="12"/>
       <c r="C122" s="3" t="s">
-        <v>365</v>
+        <v>170</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="F122" s="15"/>
+        <v>449</v>
+      </c>
+      <c r="F122" s="12"/>
       <c r="G122" s="3" t="s">
-        <v>373</v>
+        <v>174</v>
       </c>
       <c r="H122" s="1"/>
       <c r="I122" s="1" t="s">
-        <v>298</v>
+        <v>442</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="1">
-        <v>24</v>
-      </c>
-      <c r="B123" s="15"/>
+        <v>13</v>
+      </c>
+      <c r="B123" s="12"/>
       <c r="C123" s="3" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="15"/>
+      <c r="E123" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F123" s="12"/>
       <c r="G123" s="3" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="H123" s="1"/>
       <c r="I123" s="1" t="s">
-        <v>299</v>
+        <v>443</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="1">
-        <v>25</v>
-      </c>
-      <c r="B124" s="15"/>
+        <v>14</v>
+      </c>
+      <c r="B124" s="12"/>
       <c r="C124" s="3" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="D124" s="1"/>
-      <c r="E124" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="F124" s="15"/>
+      <c r="E124" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="F124" s="12"/>
       <c r="G124" s="3" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="H124" s="1"/>
-      <c r="I124" s="1" t="s">
-        <v>468</v>
+      <c r="I124" s="3" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="1">
-        <v>26</v>
-      </c>
-      <c r="B125" s="15"/>
+        <v>15</v>
+      </c>
+      <c r="B125" s="12"/>
       <c r="C125" s="3" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="D125" s="1"/>
-      <c r="E125" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="F125" s="15"/>
+      <c r="E125" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F125" s="12"/>
       <c r="G125" s="3" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="H125" s="1"/>
       <c r="I125" s="1" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="1">
-        <v>27</v>
-      </c>
-      <c r="B126" s="15"/>
+        <v>16</v>
+      </c>
+      <c r="B126" s="12"/>
       <c r="C126" s="3" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="D126" s="1"/>
-      <c r="E126" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="F126" s="15"/>
+      <c r="E126" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="F126" s="12"/>
       <c r="G126" s="3" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="H126" s="1"/>
       <c r="I126" s="1" t="s">
-        <v>455</v>
+        <v>507</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="1">
-        <v>28</v>
-      </c>
-      <c r="B127" s="15"/>
+        <v>17</v>
+      </c>
+      <c r="B127" s="12"/>
       <c r="C127" s="3" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="F127" s="15"/>
+        <v>422</v>
+      </c>
+      <c r="F127" s="12"/>
       <c r="G127" s="3" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="H127" s="1"/>
       <c r="I127" s="1" t="s">
-        <v>456</v>
+        <v>291</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="1">
-        <v>29</v>
-      </c>
-      <c r="B128" s="15"/>
+        <v>18</v>
+      </c>
+      <c r="B128" s="12"/>
       <c r="C128" s="3" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="F128" s="15"/>
+        <v>423</v>
+      </c>
+      <c r="F128" s="12"/>
       <c r="G128" s="3" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="H128" s="1"/>
       <c r="I128" s="1" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="1">
-        <v>30</v>
-      </c>
-      <c r="B129" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="B129" s="12"/>
       <c r="C129" s="3" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="F129" s="15"/>
+        <v>451</v>
+      </c>
+      <c r="F129" s="12"/>
       <c r="G129" s="3" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="H129" s="1"/>
       <c r="I129" s="1" t="s">
-        <v>495</v>
+        <v>294</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="1">
-        <v>31</v>
-      </c>
-      <c r="B130" s="15"/>
+        <v>20</v>
+      </c>
+      <c r="B130" s="12"/>
       <c r="C130" s="3" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="15"/>
+      <c r="E130" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="F130" s="12"/>
       <c r="G130" s="3" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="H130" s="1"/>
       <c r="I130" s="1" t="s">
-        <v>496</v>
+        <v>295</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="1">
-        <v>32</v>
-      </c>
-      <c r="B131" s="15"/>
+        <v>21</v>
+      </c>
+      <c r="B131" s="12"/>
       <c r="C131" s="3" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="15"/>
+      <c r="E131" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="F131" s="12"/>
       <c r="G131" s="3" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="H131" s="1"/>
       <c r="I131" s="1" t="s">
-        <v>497</v>
+        <v>296</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="1">
-        <v>33</v>
-      </c>
-      <c r="B132" s="12" t="s">
-        <v>393</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B132" s="12"/>
       <c r="C132" s="3" t="s">
-        <v>175</v>
+        <v>364</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="F132" s="12" t="s">
-        <v>393</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="F132" s="12"/>
       <c r="G132" s="3" t="s">
-        <v>224</v>
+        <v>372</v>
       </c>
       <c r="H132" s="1"/>
-      <c r="I132" s="3" t="s">
-        <v>476</v>
+      <c r="I132" s="1" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="1">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B133" s="12"/>
       <c r="C133" s="3" t="s">
-        <v>176</v>
+        <v>365</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="4" t="s">
-        <v>485</v>
+        <v>429</v>
       </c>
       <c r="F133" s="12"/>
       <c r="G133" s="3" t="s">
-        <v>225</v>
+        <v>373</v>
       </c>
       <c r="H133" s="1"/>
-      <c r="I133" s="3" t="s">
-        <v>477</v>
+      <c r="I133" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="1">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B134" s="12"/>
       <c r="C134" s="3" t="s">
-        <v>177</v>
+        <v>366</v>
       </c>
       <c r="D134" s="1"/>
-      <c r="E134" s="4" t="s">
-        <v>486</v>
-      </c>
+      <c r="E134" s="1"/>
       <c r="F134" s="12"/>
       <c r="G134" s="3" t="s">
-        <v>226</v>
+        <v>374</v>
       </c>
       <c r="H134" s="1"/>
-      <c r="I134" s="3" t="s">
-        <v>478</v>
+      <c r="I134" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="1">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B135" s="12"/>
       <c r="C135" s="3" t="s">
-        <v>178</v>
+        <v>375</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="4" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="F135" s="12"/>
       <c r="G135" s="3" t="s">
-        <v>227</v>
+        <v>383</v>
       </c>
       <c r="H135" s="1"/>
-      <c r="I135" s="3" t="s">
-        <v>479</v>
+      <c r="I135" s="1" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="1">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B136" s="12"/>
       <c r="C136" s="3" t="s">
-        <v>179</v>
+        <v>376</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="4" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F136" s="12"/>
       <c r="G136" s="3" t="s">
-        <v>228</v>
+        <v>384</v>
       </c>
       <c r="H136" s="1"/>
-      <c r="I136" s="3" t="s">
-        <v>480</v>
+      <c r="I136" s="1" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="1">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B137" s="12"/>
       <c r="C137" s="3" t="s">
-        <v>180</v>
+        <v>377</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="4" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F137" s="12"/>
       <c r="G137" s="3" t="s">
-        <v>229</v>
+        <v>385</v>
       </c>
       <c r="H137" s="1"/>
-      <c r="I137" s="3" t="s">
-        <v>481</v>
+      <c r="I137" s="1" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="1">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B138" s="12"/>
       <c r="C138" s="3" t="s">
-        <v>181</v>
+        <v>378</v>
       </c>
       <c r="D138" s="1"/>
-      <c r="E138" s="4"/>
+      <c r="E138" s="4" t="s">
+        <v>483</v>
+      </c>
       <c r="F138" s="12"/>
       <c r="G138" s="3" t="s">
-        <v>230</v>
+        <v>386</v>
       </c>
       <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
+      <c r="I138" s="1" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="1">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B139" s="12"/>
       <c r="C139" s="3" t="s">
-        <v>182</v>
+        <v>379</v>
       </c>
       <c r="D139" s="1"/>
-      <c r="E139" s="4"/>
+      <c r="E139" s="4" t="s">
+        <v>462</v>
+      </c>
       <c r="F139" s="12"/>
       <c r="G139" s="3" t="s">
-        <v>231</v>
+        <v>387</v>
       </c>
       <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
+      <c r="I139" s="1" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B140" s="12"/>
       <c r="C140" s="3" t="s">
-        <v>508</v>
+        <v>380</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="4" t="s">
-        <v>498</v>
+        <v>463</v>
       </c>
       <c r="F140" s="12"/>
       <c r="G140" s="3" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="H140" s="1"/>
-      <c r="I140" s="1"/>
+      <c r="I140" s="1" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="1">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B141" s="12"/>
       <c r="C141" s="3" t="s">
-        <v>217</v>
+        <v>381</v>
       </c>
       <c r="D141" s="1"/>
-      <c r="E141" s="4" t="s">
-        <v>499</v>
-      </c>
+      <c r="E141" s="1"/>
       <c r="F141" s="12"/>
       <c r="G141" s="3" t="s">
-        <v>232</v>
+        <v>389</v>
       </c>
       <c r="H141" s="1"/>
-      <c r="I141" s="1"/>
+      <c r="I141" s="1" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="1">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B142" s="12"/>
       <c r="C142" s="3" t="s">
-        <v>218</v>
+        <v>382</v>
       </c>
       <c r="D142" s="1"/>
-      <c r="E142" s="4" t="s">
-        <v>500</v>
-      </c>
+      <c r="E142" s="1"/>
       <c r="F142" s="12"/>
       <c r="G142" s="3" t="s">
-        <v>233</v>
+        <v>390</v>
       </c>
       <c r="H142" s="1"/>
-      <c r="I142" s="1"/>
+      <c r="I142" s="1" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="1">
-        <v>53</v>
-      </c>
-      <c r="B143" s="12"/>
+        <v>33</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>393</v>
+      </c>
       <c r="C143" s="3" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="F143" s="12"/>
+        <v>484</v>
+      </c>
+      <c r="F143" s="10" t="s">
+        <v>393</v>
+      </c>
       <c r="G143" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="H143" s="1"/>
-      <c r="I143" s="1"/>
+      <c r="I143" s="3" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="1">
-        <v>54</v>
-      </c>
-      <c r="B144" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="B144" s="10"/>
       <c r="C144" s="3" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="F144" s="12"/>
+        <v>485</v>
+      </c>
+      <c r="F144" s="10"/>
       <c r="G144" s="3" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="H144" s="1"/>
-      <c r="I144" s="1"/>
+      <c r="I144" s="3" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="1">
-        <v>55</v>
-      </c>
-      <c r="B145" s="12"/>
+        <v>35</v>
+      </c>
+      <c r="B145" s="10"/>
       <c r="C145" s="3" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="F145" s="12"/>
+        <v>486</v>
+      </c>
+      <c r="F145" s="10"/>
       <c r="G145" s="3" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="H145" s="1"/>
-      <c r="I145" s="1"/>
+      <c r="I145" s="3" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="1">
-        <v>56</v>
-      </c>
-      <c r="B146" s="12"/>
+        <v>36</v>
+      </c>
+      <c r="B146" s="10"/>
       <c r="C146" s="3" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="12"/>
+      <c r="E146" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="F146" s="10"/>
       <c r="G146" s="3" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="H146" s="1"/>
-      <c r="I146" s="1"/>
+      <c r="I146" s="3" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="1">
+        <v>37</v>
+      </c>
+      <c r="B147" s="10"/>
+      <c r="C147" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D147" s="1"/>
+      <c r="E147" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="F147" s="10"/>
+      <c r="G147" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H147" s="1"/>
+      <c r="I147" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="1">
+        <v>38</v>
+      </c>
+      <c r="B148" s="10"/>
+      <c r="C148" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D148" s="1"/>
+      <c r="E148" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="F148" s="10"/>
+      <c r="G148" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H148" s="1"/>
+      <c r="I148" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="1">
+        <v>39</v>
+      </c>
+      <c r="B149" s="10"/>
+      <c r="C149" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D149" s="1"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="1">
+        <v>40</v>
+      </c>
+      <c r="B150" s="10"/>
+      <c r="C150" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D150" s="1"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="1">
+        <v>50</v>
+      </c>
+      <c r="B151" s="10"/>
+      <c r="C151" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D151" s="1"/>
+      <c r="E151" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="F151" s="10"/>
+      <c r="G151" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="1">
+        <v>51</v>
+      </c>
+      <c r="B152" s="10"/>
+      <c r="C152" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D152" s="1"/>
+      <c r="E152" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="F152" s="10"/>
+      <c r="G152" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="1">
+        <v>52</v>
+      </c>
+      <c r="B153" s="10"/>
+      <c r="C153" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D153" s="1"/>
+      <c r="E153" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="F153" s="10"/>
+      <c r="G153" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="1">
+        <v>53</v>
+      </c>
+      <c r="B154" s="10"/>
+      <c r="C154" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D154" s="1"/>
+      <c r="E154" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="F154" s="10"/>
+      <c r="G154" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="1">
+        <v>54</v>
+      </c>
+      <c r="B155" s="10"/>
+      <c r="C155" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D155" s="1"/>
+      <c r="E155" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="F155" s="10"/>
+      <c r="G155" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="1">
+        <v>55</v>
+      </c>
+      <c r="B156" s="10"/>
+      <c r="C156" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D156" s="1"/>
+      <c r="E156" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="F156" s="10"/>
+      <c r="G156" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="1">
+        <v>56</v>
+      </c>
+      <c r="B157" s="10"/>
+      <c r="C157" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="1">
         <v>57</v>
       </c>
-      <c r="B147" s="12"/>
-      <c r="C147" s="3" t="s">
+      <c r="B158" s="10"/>
+      <c r="C158" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="12"/>
-      <c r="G147" s="3" t="s">
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B132:B147"/>
-    <mergeCell ref="F132:F147"/>
-    <mergeCell ref="A96:I98"/>
-    <mergeCell ref="B3:B42"/>
-    <mergeCell ref="F3:F42"/>
-    <mergeCell ref="B100:B131"/>
-    <mergeCell ref="F100:F131"/>
+  <mergeCells count="16">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B75:B90"/>
     <mergeCell ref="F75:F90"/>
@@ -5409,13 +5991,22 @@
     <mergeCell ref="F59:F74"/>
     <mergeCell ref="B43:B58"/>
     <mergeCell ref="F43:F58"/>
+    <mergeCell ref="B143:B158"/>
+    <mergeCell ref="F143:F158"/>
+    <mergeCell ref="A107:I109"/>
+    <mergeCell ref="B3:B42"/>
+    <mergeCell ref="F3:F42"/>
+    <mergeCell ref="B111:B142"/>
+    <mergeCell ref="F111:F142"/>
+    <mergeCell ref="B91:B106"/>
+    <mergeCell ref="F91:F106"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="72" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="58" max="8" man="1"/>
-    <brk id="95" max="8" man="1"/>
+    <brk id="106" max="8" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>

--- a/天津力神项目IO表.xlsx
+++ b/天津力神项目IO表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="644">
   <si>
     <t>输入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>停止按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>塔灯红</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1688,10 +1684,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上料段急停</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下料段急停</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1754,14 +1746,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上料机械手1放料信号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上料机械手2放料信号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上料机械手1允许放料信号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2096,26 +2080,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>炉子下料线体位置1下料请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炉子下料线体位置1下料完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>炉子下料线体位置1下料确认</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>炉子下料线体位置2下料请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炉子下料线体位置2下料完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>炉子下料线体位置2允许下料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2172,10 +2140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>炉子下料线体位置2允许放行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>炉子上料线体位置1允许上料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2189,6 +2153,54 @@
   </si>
   <si>
     <t>炉子上料线体位置2上料确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉子下料1允许物流线运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉子下料1放料请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉子下料1放料完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉子下料2允许物流线运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉子下料2放料请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉子下料2放料完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉子上料1允许</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉子上料1请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉子上料1完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉子上料2允许</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉子上料2请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉子上料2完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2412,17 +2424,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2450,6 +2456,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2747,8 +2759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I121" sqref="I121"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I91" sqref="I91:I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2772,16 +2784,16 @@
   <sheetData>
     <row r="1" spans="1:18" ht="14.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="B1" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1"/>
@@ -2818,42 +2830,42 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>350</v>
+      <c r="B3" s="11" t="s">
+        <v>349</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="3" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="F4" s="10"/>
+        <v>345</v>
+      </c>
+      <c r="F4" s="11"/>
       <c r="G4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2862,15 +2874,17 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="3" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="10"/>
+      <c r="E5" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F5" s="11"/>
       <c r="G5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -2879,17 +2893,17 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="3" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F6" s="10"/>
+        <v>396</v>
+      </c>
+      <c r="F6" s="11"/>
       <c r="G6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2898,78 +2912,80 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="3" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="F7" s="10"/>
+        <v>503</v>
+      </c>
+      <c r="F7" s="11"/>
       <c r="G7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="14.25" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="F8" s="10"/>
+        <v>504</v>
+      </c>
+      <c r="F8" s="11"/>
       <c r="G8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="10"/>
+      <c r="E9" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F9" s="11"/>
       <c r="G9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="F10" s="10"/>
+        <v>488</v>
+      </c>
+      <c r="F10" s="11"/>
       <c r="G10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -2978,141 +2994,141 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="3" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F11" s="10"/>
+        <v>347</v>
+      </c>
+      <c r="F11" s="11"/>
       <c r="G11" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="F12" s="10"/>
+        <v>436</v>
+      </c>
+      <c r="F12" s="11"/>
       <c r="G12" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="10"/>
+      <c r="E13" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F13" s="11"/>
       <c r="G13" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="10"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="F14" s="11"/>
       <c r="G14" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F15" s="10"/>
+        <v>250</v>
+      </c>
+      <c r="F15" s="11"/>
       <c r="G15" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="10"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F16" s="10"/>
+        <v>251</v>
+      </c>
+      <c r="F16" s="11"/>
       <c r="G16" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="10"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F17" s="10"/>
+        <v>238</v>
+      </c>
+      <c r="F17" s="11"/>
       <c r="G17" s="3"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -3121,350 +3137,353 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="10"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F18" s="10"/>
+        <v>239</v>
+      </c>
+      <c r="F18" s="11"/>
       <c r="G18" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="10"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="3" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F19" s="10"/>
+        <v>247</v>
+      </c>
+      <c r="F19" s="11"/>
       <c r="G19" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="10"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F20" s="10"/>
+        <v>248</v>
+      </c>
+      <c r="F20" s="11"/>
       <c r="G20" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="10"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="F21" s="10"/>
+        <v>256</v>
+      </c>
+      <c r="F21" s="11"/>
       <c r="G21" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="10"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="F22" s="10"/>
+        <v>257</v>
+      </c>
+      <c r="F22" s="11"/>
       <c r="G22" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="10"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="F23" s="10"/>
+      <c r="E23" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F23" s="11"/>
       <c r="G23" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="10"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="F24" s="10"/>
+        <v>266</v>
+      </c>
+      <c r="F24" s="11"/>
       <c r="G24" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="10"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F25" s="10"/>
+        <v>267</v>
+      </c>
+      <c r="F25" s="11"/>
       <c r="G25" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="10"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F26" s="10"/>
+        <v>258</v>
+      </c>
+      <c r="F26" s="11"/>
       <c r="G26" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="10"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F27" s="10"/>
+        <v>260</v>
+      </c>
+      <c r="F27" s="11"/>
       <c r="G27" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="10"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F28" s="10"/>
+        <v>262</v>
+      </c>
+      <c r="F28" s="11"/>
       <c r="G28" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="10"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F29" s="10"/>
+        <v>263</v>
+      </c>
+      <c r="F29" s="11"/>
       <c r="G29" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="10"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F30" s="10"/>
+        <v>264</v>
+      </c>
+      <c r="F30" s="11"/>
       <c r="G30" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="10"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F31" s="10"/>
+        <v>265</v>
+      </c>
+      <c r="F31" s="11"/>
       <c r="G31" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="10"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F32" s="10"/>
+        <v>340</v>
+      </c>
+      <c r="F32" s="11"/>
       <c r="G32" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="10"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F33" s="10"/>
+        <v>341</v>
+      </c>
+      <c r="F33" s="11"/>
       <c r="G33" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="10"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="F34" s="10"/>
+        <v>342</v>
+      </c>
+      <c r="F34" s="11"/>
       <c r="G34" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -3473,335 +3492,335 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="10"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="3" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="F35" s="10"/>
+        <v>343</v>
+      </c>
+      <c r="F35" s="11"/>
       <c r="G35" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="10"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="3" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="F36" s="10"/>
+        <v>486</v>
+      </c>
+      <c r="F36" s="11"/>
       <c r="G36" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="10"/>
+      <c r="B37" s="11"/>
       <c r="C37" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="10"/>
+      <c r="F37" s="11"/>
       <c r="G37" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="10"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="3" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="10"/>
+      <c r="F38" s="11"/>
       <c r="G38" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="10"/>
+      <c r="B39" s="11"/>
       <c r="C39" s="3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="F39" s="10"/>
+        <v>421</v>
+      </c>
+      <c r="F39" s="11"/>
       <c r="G39" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="10"/>
+      <c r="B40" s="11"/>
       <c r="C40" s="3" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="F40" s="10"/>
+        <v>422</v>
+      </c>
+      <c r="F40" s="11"/>
       <c r="G40" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="10"/>
+      <c r="B41" s="11"/>
       <c r="C41" s="3" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="F41" s="10"/>
+        <v>423</v>
+      </c>
+      <c r="F41" s="11"/>
       <c r="G41" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="13.5" customHeight="1">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="10"/>
+      <c r="B42" s="11"/>
       <c r="C42" s="3" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="F42" s="10"/>
+        <v>424</v>
+      </c>
+      <c r="F42" s="11"/>
       <c r="G42" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="14.25" customHeight="1">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>393</v>
+      <c r="B43" s="11" t="s">
+        <v>392</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>393</v>
+        <v>426</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>392</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="10"/>
+      <c r="B44" s="11"/>
       <c r="C44" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="F44" s="10"/>
+        <v>291</v>
+      </c>
+      <c r="F44" s="11"/>
       <c r="G44" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="10"/>
+      <c r="B45" s="11"/>
       <c r="C45" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="F45" s="10"/>
+        <v>427</v>
+      </c>
+      <c r="F45" s="11"/>
       <c r="G45" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="10"/>
+      <c r="B46" s="11"/>
       <c r="C46" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="F46" s="10"/>
+        <v>428</v>
+      </c>
+      <c r="F46" s="11"/>
       <c r="G46" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="10"/>
+      <c r="B47" s="11"/>
       <c r="C47" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="F47" s="10"/>
+        <v>429</v>
+      </c>
+      <c r="F47" s="11"/>
       <c r="G47" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="10"/>
+      <c r="B48" s="11"/>
       <c r="C48" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="F48" s="10"/>
+        <v>430</v>
+      </c>
+      <c r="F48" s="11"/>
       <c r="G48" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="10"/>
+      <c r="B49" s="11"/>
       <c r="C49" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="F49" s="10"/>
+        <v>431</v>
+      </c>
+      <c r="F49" s="11"/>
       <c r="G49" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="10"/>
+      <c r="B50" s="11"/>
       <c r="C50" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="F50" s="10"/>
+        <v>432</v>
+      </c>
+      <c r="F50" s="11"/>
       <c r="G50" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -3810,460 +3829,460 @@
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="10"/>
+      <c r="B51" s="11"/>
       <c r="C51" s="3" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="F51" s="10"/>
+        <v>433</v>
+      </c>
+      <c r="F51" s="11"/>
       <c r="G51" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="10"/>
+      <c r="B52" s="11"/>
       <c r="C52" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="F52" s="10"/>
+        <v>434</v>
+      </c>
+      <c r="F52" s="11"/>
       <c r="G52" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="10"/>
+      <c r="B53" s="11"/>
       <c r="C53" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="F53" s="10"/>
+        <v>435</v>
+      </c>
+      <c r="F53" s="11"/>
       <c r="G53" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="10"/>
+      <c r="B54" s="11"/>
       <c r="C54" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="F54" s="10"/>
+        <v>315</v>
+      </c>
+      <c r="F54" s="11"/>
       <c r="G54" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="10"/>
+      <c r="B55" s="11"/>
       <c r="C55" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="F55" s="10"/>
+        <v>316</v>
+      </c>
+      <c r="F55" s="11"/>
       <c r="G55" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="10"/>
+      <c r="B56" s="11"/>
       <c r="C56" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="F56" s="10"/>
+        <v>638</v>
+      </c>
+      <c r="F56" s="11"/>
       <c r="G56" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="10"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="F57" s="10"/>
+        <v>639</v>
+      </c>
+      <c r="F57" s="11"/>
       <c r="G57" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="10"/>
+      <c r="B58" s="11"/>
       <c r="C58" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="F58" s="10"/>
+        <v>640</v>
+      </c>
+      <c r="F58" s="11"/>
       <c r="G58" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>393</v>
+      <c r="B59" s="11" t="s">
+        <v>392</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>393</v>
+        <v>299</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>392</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="10"/>
+      <c r="B60" s="11"/>
       <c r="C60" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="F60" s="10"/>
+        <v>300</v>
+      </c>
+      <c r="F60" s="11"/>
       <c r="G60" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="10"/>
+      <c r="B61" s="11"/>
       <c r="C61" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="F61" s="10"/>
+        <v>301</v>
+      </c>
+      <c r="F61" s="11"/>
       <c r="G61" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="10"/>
+      <c r="B62" s="11"/>
       <c r="C62" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="F62" s="10"/>
+        <v>302</v>
+      </c>
+      <c r="F62" s="11"/>
       <c r="G62" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="10"/>
+      <c r="B63" s="11"/>
       <c r="C63" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="F63" s="10"/>
+        <v>303</v>
+      </c>
+      <c r="F63" s="11"/>
       <c r="G63" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="10"/>
+      <c r="B64" s="11"/>
       <c r="C64" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="F64" s="10"/>
+        <v>304</v>
+      </c>
+      <c r="F64" s="11"/>
       <c r="G64" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="10"/>
+      <c r="B65" s="11"/>
       <c r="C65" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="F65" s="10"/>
+        <v>305</v>
+      </c>
+      <c r="F65" s="11"/>
       <c r="G65" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" s="10"/>
+      <c r="B66" s="11"/>
       <c r="C66" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="F66" s="10"/>
+        <v>306</v>
+      </c>
+      <c r="F66" s="11"/>
       <c r="G66" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="13.5" customHeight="1">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" s="10"/>
+      <c r="B67" s="11"/>
       <c r="C67" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="F67" s="10"/>
+        <v>417</v>
+      </c>
+      <c r="F67" s="11"/>
       <c r="G67" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" s="10"/>
+      <c r="B68" s="11"/>
       <c r="C68" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="F68" s="10"/>
+        <v>418</v>
+      </c>
+      <c r="F68" s="11"/>
       <c r="G68" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" s="10"/>
+      <c r="B69" s="11"/>
       <c r="C69" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="F69" s="10"/>
+        <v>419</v>
+      </c>
+      <c r="F69" s="11"/>
       <c r="G69" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" s="10"/>
+      <c r="B70" s="11"/>
       <c r="C70" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="F70" s="10"/>
+        <v>420</v>
+      </c>
+      <c r="F70" s="11"/>
       <c r="G70" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" s="10"/>
+      <c r="B71" s="11"/>
       <c r="C71" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="F71" s="10"/>
+        <v>492</v>
+      </c>
+      <c r="F71" s="11"/>
       <c r="G71" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" s="10"/>
+      <c r="B72" s="11"/>
       <c r="C72" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="10"/>
+      <c r="F72" s="11"/>
       <c r="G72" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -4272,15 +4291,15 @@
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" s="10"/>
+      <c r="B73" s="11"/>
       <c r="C73" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="10"/>
+      <c r="F73" s="11"/>
       <c r="G73" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -4289,17 +4308,17 @@
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" s="10"/>
+      <c r="B74" s="11"/>
       <c r="C74" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="F74" s="10"/>
+        <v>507</v>
+      </c>
+      <c r="F74" s="11"/>
       <c r="G74" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -4308,515 +4327,508 @@
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" s="10" t="s">
-        <v>393</v>
+      <c r="B75" s="11" t="s">
+        <v>392</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="F75" s="10" t="s">
-        <v>393</v>
+        <v>322</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>392</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" s="10"/>
+      <c r="B76" s="11"/>
       <c r="C76" s="3" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="F76" s="10"/>
+        <v>323</v>
+      </c>
+      <c r="F76" s="11"/>
       <c r="G76" s="3" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" s="10"/>
+      <c r="B77" s="11"/>
       <c r="C77" s="3" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="F77" s="10"/>
+        <v>324</v>
+      </c>
+      <c r="F77" s="11"/>
       <c r="G77" s="3" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" s="10"/>
+      <c r="B78" s="11"/>
       <c r="C78" s="3" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="F78" s="10"/>
+        <v>325</v>
+      </c>
+      <c r="F78" s="11"/>
       <c r="G78" s="3" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" s="10"/>
+      <c r="B79" s="11"/>
       <c r="C79" s="3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="F79" s="10"/>
+        <v>326</v>
+      </c>
+      <c r="F79" s="11"/>
       <c r="G79" s="3" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" s="10"/>
+      <c r="B80" s="11"/>
       <c r="C80" s="3" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="F80" s="10"/>
+        <v>332</v>
+      </c>
+      <c r="F80" s="11"/>
       <c r="G80" s="3" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="H80" s="1"/>
-      <c r="I80" s="4" t="s">
-        <v>615</v>
-      </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" s="10"/>
+      <c r="B81" s="11"/>
       <c r="C81" s="3" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="F81" s="10"/>
+        <v>335</v>
+      </c>
+      <c r="F81" s="11"/>
       <c r="G81" s="3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="H81" s="1"/>
-      <c r="I81" s="4" t="s">
-        <v>618</v>
-      </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" s="10"/>
+      <c r="B82" s="11"/>
       <c r="C82" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="F82" s="10"/>
+        <v>336</v>
+      </c>
+      <c r="F82" s="11"/>
       <c r="G82" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="H82" s="1"/>
-      <c r="I82" s="4" t="s">
-        <v>621</v>
-      </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" s="10"/>
+      <c r="B83" s="11"/>
       <c r="C83" s="3" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="F83" s="10"/>
+        <v>572</v>
+      </c>
+      <c r="F83" s="11"/>
       <c r="G83" s="3" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="4" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" s="10"/>
+      <c r="B84" s="11"/>
       <c r="C84" s="3" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="F84" s="10"/>
+        <v>573</v>
+      </c>
+      <c r="F84" s="11"/>
       <c r="G84" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="4" t="s">
-        <v>637</v>
+        <v>612</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" s="10"/>
+      <c r="B85" s="11"/>
       <c r="C85" s="3" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="F85" s="10"/>
+        <v>572</v>
+      </c>
+      <c r="F85" s="11"/>
       <c r="G85" s="3" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="4" t="s">
-        <v>638</v>
+        <v>613</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" s="10"/>
+      <c r="B86" s="11"/>
       <c r="C86" s="3" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="F86" s="10"/>
+        <v>573</v>
+      </c>
+      <c r="F86" s="11"/>
       <c r="G86" s="3" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="4" t="s">
-        <v>639</v>
+        <v>614</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" s="10"/>
+      <c r="B87" s="11"/>
       <c r="C87" s="3" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="F87" s="10"/>
+        <v>570</v>
+      </c>
+      <c r="F87" s="11"/>
       <c r="G87" s="3" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="4" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" s="10"/>
+      <c r="B88" s="11"/>
       <c r="C88" s="3" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="F88" s="10"/>
+        <v>571</v>
+      </c>
+      <c r="F88" s="11"/>
       <c r="G88" s="3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="H88" s="1"/>
-      <c r="I88" s="1" t="s">
-        <v>632</v>
+      <c r="I88" s="4" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" s="10"/>
+      <c r="B89" s="11"/>
       <c r="C89" s="3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="F89" s="10"/>
+        <v>570</v>
+      </c>
+      <c r="F89" s="11"/>
       <c r="G89" s="3" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H89" s="1"/>
-      <c r="I89" s="1" t="s">
-        <v>633</v>
+      <c r="I89" s="4" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="14.25" thickBot="1">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" s="10"/>
+      <c r="B90" s="11"/>
       <c r="C90" s="3" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="F90" s="10"/>
+        <v>571</v>
+      </c>
+      <c r="F90" s="11"/>
       <c r="G90" s="3" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="H90" s="1"/>
-      <c r="I90" s="1" t="s">
-        <v>634</v>
+      <c r="I90" s="4" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="91" spans="1:9" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" s="10" t="s">
-        <v>393</v>
+      <c r="B91" s="11" t="s">
+        <v>392</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D91" s="1"/>
-      <c r="E91" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="F91" s="10" t="s">
-        <v>393</v>
+      <c r="E91" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>392</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
     </row>
     <row r="92" spans="1:9" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" s="10"/>
+      <c r="B92" s="11"/>
       <c r="C92" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D92" s="1"/>
-      <c r="E92" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="F92" s="10"/>
+      <c r="E92" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F92" s="11"/>
       <c r="G92" s="3" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
+      <c r="I92" s="1" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="93" spans="1:9" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" s="10"/>
+      <c r="B93" s="11"/>
       <c r="C93" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D93" s="1"/>
-      <c r="E93" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="F93" s="10"/>
+      <c r="E93" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="F93" s="11"/>
       <c r="G93" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
+      <c r="I93" s="1" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="94" spans="1:9" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" s="10"/>
+      <c r="B94" s="11"/>
       <c r="C94" s="3" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D94" s="1"/>
-      <c r="E94" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="F94" s="10"/>
+      <c r="E94" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="F94" s="11"/>
       <c r="G94" s="3" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
+      <c r="I94" s="1" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="95" spans="1:9" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" s="10"/>
+      <c r="B95" s="11"/>
       <c r="C95" s="3" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D95" s="1"/>
-      <c r="E95" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="F95" s="10"/>
+      <c r="E95" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="F95" s="11"/>
       <c r="G95" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
     </row>
     <row r="96" spans="1:9" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" s="10"/>
+      <c r="B96" s="11"/>
       <c r="C96" s="3" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="4" t="s">
-        <v>623</v>
-      </c>
-      <c r="F96" s="10"/>
+        <v>615</v>
+      </c>
+      <c r="F96" s="11"/>
       <c r="G96" s="3" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
     </row>
     <row r="97" spans="1:9" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" s="10"/>
+      <c r="B97" s="11"/>
       <c r="C97" s="3" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="4" t="s">
-        <v>624</v>
-      </c>
-      <c r="F97" s="10"/>
+        <v>616</v>
+      </c>
+      <c r="F97" s="11"/>
       <c r="G97" s="3" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
     </row>
     <row r="98" spans="1:9" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" s="10"/>
+      <c r="B98" s="11"/>
       <c r="C98" s="3" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="F98" s="10"/>
+        <v>617</v>
+      </c>
+      <c r="F98" s="11"/>
       <c r="G98" s="3" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:9" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" s="10"/>
+      <c r="B99" s="11"/>
       <c r="C99" s="3" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="4" t="s">
-        <v>626</v>
-      </c>
-      <c r="F99" s="10"/>
+        <v>618</v>
+      </c>
+      <c r="F99" s="11"/>
       <c r="G99" s="3" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -4825,17 +4837,17 @@
       <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" s="10"/>
+      <c r="B100" s="11"/>
       <c r="C100" s="3" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="F100" s="10"/>
+        <v>619</v>
+      </c>
+      <c r="F100" s="11"/>
       <c r="G100" s="3" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -4844,17 +4856,17 @@
       <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" s="10"/>
+      <c r="B101" s="11"/>
       <c r="C101" s="3" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="F101" s="10"/>
+        <v>620</v>
+      </c>
+      <c r="F101" s="11"/>
       <c r="G101" s="3" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -4863,17 +4875,17 @@
       <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" s="10"/>
+      <c r="B102" s="11"/>
       <c r="C102" s="3" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="F102" s="10"/>
+        <v>621</v>
+      </c>
+      <c r="F102" s="11"/>
       <c r="G102" s="3" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -4882,17 +4894,17 @@
       <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" s="10"/>
+      <c r="B103" s="11"/>
       <c r="C103" s="3" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="F103" s="10"/>
+        <v>622</v>
+      </c>
+      <c r="F103" s="11"/>
       <c r="G103" s="3" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -4901,17 +4913,17 @@
       <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" s="10"/>
+      <c r="B104" s="11"/>
       <c r="C104" s="3" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="F104" s="10"/>
+        <v>623</v>
+      </c>
+      <c r="F104" s="11"/>
       <c r="G104" s="3" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -4920,15 +4932,15 @@
       <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" s="10"/>
+      <c r="B105" s="11"/>
       <c r="C105" s="3" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="10"/>
+      <c r="F105" s="11"/>
       <c r="G105" s="3" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -4937,53 +4949,53 @@
       <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" s="10"/>
+      <c r="B106" s="11"/>
       <c r="C106" s="3" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="10"/>
+      <c r="F106" s="11"/>
       <c r="G106" s="3" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
     <row r="107" spans="1:9" s="8" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A107" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="B107" s="15"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="15"/>
-      <c r="H107" s="15"/>
-      <c r="I107" s="16"/>
+      <c r="A107" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="B107" s="13"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="14"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="17"/>
-      <c r="B108" s="18"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="18"/>
-      <c r="G108" s="18"/>
-      <c r="H108" s="18"/>
-      <c r="I108" s="19"/>
+      <c r="A108" s="15"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="16"/>
+      <c r="I108" s="17"/>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="20"/>
-      <c r="B109" s="21"/>
-      <c r="C109" s="21"/>
-      <c r="D109" s="21"/>
-      <c r="E109" s="21"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="21"/>
-      <c r="H109" s="21"/>
-      <c r="I109" s="22"/>
+      <c r="A109" s="18"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="19"/>
+      <c r="G109" s="19"/>
+      <c r="H109" s="19"/>
+      <c r="I109" s="20"/>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="1"/>
@@ -5012,105 +5024,105 @@
       <c r="A111" s="1">
         <v>1</v>
       </c>
-      <c r="B111" s="11" t="s">
-        <v>350</v>
+      <c r="B111" s="21" t="s">
+        <v>349</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="F111" s="11" t="s">
-        <v>349</v>
+        <v>487</v>
+      </c>
+      <c r="F111" s="21" t="s">
+        <v>348</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H111" s="1"/>
       <c r="I111" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="1">
         <v>2</v>
       </c>
-      <c r="B112" s="12"/>
+      <c r="B112" s="22"/>
       <c r="C112" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="F112" s="12"/>
+        <v>474</v>
+      </c>
+      <c r="F112" s="22"/>
       <c r="G112" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H112" s="1"/>
       <c r="I112" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="1">
         <v>3</v>
       </c>
-      <c r="B113" s="12"/>
+      <c r="B113" s="22"/>
       <c r="C113" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="F113" s="12"/>
+        <v>468</v>
+      </c>
+      <c r="F113" s="22"/>
       <c r="G113" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="1">
         <v>4</v>
       </c>
-      <c r="B114" s="12"/>
+      <c r="B114" s="22"/>
       <c r="C114" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="F114" s="12"/>
+        <v>469</v>
+      </c>
+      <c r="F114" s="22"/>
       <c r="G114" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="1">
         <v>5</v>
       </c>
-      <c r="B115" s="12"/>
+      <c r="B115" s="22"/>
       <c r="C115" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="F115" s="12"/>
+        <v>470</v>
+      </c>
+      <c r="F115" s="22"/>
       <c r="G115" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
@@ -5119,17 +5131,17 @@
       <c r="A116" s="1">
         <v>6</v>
       </c>
-      <c r="B116" s="12"/>
+      <c r="B116" s="22"/>
       <c r="C116" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="F116" s="12"/>
+        <v>471</v>
+      </c>
+      <c r="F116" s="22"/>
       <c r="G116" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
@@ -5138,17 +5150,17 @@
       <c r="A117" s="1">
         <v>7</v>
       </c>
-      <c r="B117" s="12"/>
+      <c r="B117" s="22"/>
       <c r="C117" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F117" s="12"/>
+        <v>472</v>
+      </c>
+      <c r="F117" s="22"/>
       <c r="G117" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
@@ -5157,17 +5169,17 @@
       <c r="A118" s="1">
         <v>8</v>
       </c>
-      <c r="B118" s="12"/>
+      <c r="B118" s="22"/>
       <c r="C118" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="F118" s="12"/>
+        <v>473</v>
+      </c>
+      <c r="F118" s="22"/>
       <c r="G118" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -5176,643 +5188,643 @@
       <c r="A119" s="1">
         <v>9</v>
       </c>
-      <c r="B119" s="12"/>
+      <c r="B119" s="22"/>
       <c r="C119" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="F119" s="12"/>
+        <v>447</v>
+      </c>
+      <c r="F119" s="22"/>
       <c r="G119" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="1">
         <v>10</v>
       </c>
-      <c r="B120" s="12"/>
+      <c r="B120" s="22"/>
       <c r="C120" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="F120" s="12"/>
+        <v>446</v>
+      </c>
+      <c r="F120" s="22"/>
       <c r="G120" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H120" s="1"/>
       <c r="I120" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="1">
         <v>11</v>
       </c>
-      <c r="B121" s="12"/>
+      <c r="B121" s="22"/>
       <c r="C121" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="F121" s="12"/>
+        <v>445</v>
+      </c>
+      <c r="F121" s="22"/>
       <c r="G121" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="1">
         <v>12</v>
       </c>
-      <c r="B122" s="12"/>
+      <c r="B122" s="22"/>
       <c r="C122" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="F122" s="12"/>
+        <v>448</v>
+      </c>
+      <c r="F122" s="22"/>
       <c r="G122" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H122" s="1"/>
       <c r="I122" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="1">
         <v>13</v>
       </c>
-      <c r="B123" s="12"/>
+      <c r="B123" s="22"/>
       <c r="C123" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="F123" s="12"/>
+        <v>449</v>
+      </c>
+      <c r="F123" s="22"/>
       <c r="G123" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H123" s="1"/>
       <c r="I123" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="1">
         <v>14</v>
       </c>
-      <c r="B124" s="12"/>
+      <c r="B124" s="22"/>
       <c r="C124" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="F124" s="12"/>
+        <v>502</v>
+      </c>
+      <c r="F124" s="22"/>
       <c r="G124" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H124" s="1"/>
       <c r="I124" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="1">
         <v>15</v>
       </c>
-      <c r="B125" s="12"/>
+      <c r="B125" s="22"/>
       <c r="C125" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="F125" s="12"/>
+        <v>490</v>
+      </c>
+      <c r="F125" s="22"/>
       <c r="G125" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H125" s="1"/>
       <c r="I125" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="1">
         <v>16</v>
       </c>
-      <c r="B126" s="12"/>
+      <c r="B126" s="22"/>
       <c r="C126" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="F126" s="12"/>
+        <v>491</v>
+      </c>
+      <c r="F126" s="22"/>
       <c r="G126" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H126" s="1"/>
       <c r="I126" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="1">
         <v>17</v>
       </c>
-      <c r="B127" s="12"/>
+      <c r="B127" s="22"/>
       <c r="C127" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="F127" s="12"/>
+        <v>421</v>
+      </c>
+      <c r="F127" s="22"/>
       <c r="G127" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H127" s="1"/>
       <c r="I127" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="1">
         <v>18</v>
       </c>
-      <c r="B128" s="12"/>
+      <c r="B128" s="22"/>
       <c r="C128" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="F128" s="12"/>
+        <v>422</v>
+      </c>
+      <c r="F128" s="22"/>
       <c r="G128" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H128" s="1"/>
       <c r="I128" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="1">
         <v>19</v>
       </c>
-      <c r="B129" s="12"/>
+      <c r="B129" s="22"/>
       <c r="C129" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="F129" s="12"/>
+        <v>450</v>
+      </c>
+      <c r="F129" s="22"/>
       <c r="G129" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H129" s="1"/>
       <c r="I129" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="1">
         <v>20</v>
       </c>
-      <c r="B130" s="12"/>
+      <c r="B130" s="22"/>
       <c r="C130" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="F130" s="12"/>
+        <v>451</v>
+      </c>
+      <c r="F130" s="22"/>
       <c r="G130" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H130" s="1"/>
       <c r="I130" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="1">
         <v>21</v>
       </c>
-      <c r="B131" s="12"/>
+      <c r="B131" s="22"/>
       <c r="C131" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="F131" s="12"/>
+        <v>452</v>
+      </c>
+      <c r="F131" s="22"/>
       <c r="G131" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H131" s="1"/>
       <c r="I131" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="1">
         <v>22</v>
       </c>
-      <c r="B132" s="12"/>
+      <c r="B132" s="22"/>
       <c r="C132" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="F132" s="12"/>
+        <v>427</v>
+      </c>
+      <c r="F132" s="22"/>
       <c r="G132" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H132" s="1"/>
       <c r="I132" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="1">
         <v>23</v>
       </c>
-      <c r="B133" s="12"/>
+      <c r="B133" s="22"/>
       <c r="C133" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="F133" s="12"/>
+        <v>428</v>
+      </c>
+      <c r="F133" s="22"/>
       <c r="G133" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H133" s="1"/>
       <c r="I133" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="1">
         <v>24</v>
       </c>
-      <c r="B134" s="12"/>
+      <c r="B134" s="22"/>
       <c r="C134" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="12"/>
+      <c r="F134" s="22"/>
       <c r="G134" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H134" s="1"/>
       <c r="I134" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="1">
         <v>25</v>
       </c>
-      <c r="B135" s="12"/>
+      <c r="B135" s="22"/>
       <c r="C135" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="F135" s="12"/>
+        <v>481</v>
+      </c>
+      <c r="F135" s="22"/>
       <c r="G135" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H135" s="1"/>
       <c r="I135" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="1">
         <v>26</v>
       </c>
-      <c r="B136" s="12"/>
+      <c r="B136" s="22"/>
       <c r="C136" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="F136" s="12"/>
+        <v>456</v>
+      </c>
+      <c r="F136" s="22"/>
       <c r="G136" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H136" s="1"/>
       <c r="I136" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="1">
         <v>27</v>
       </c>
-      <c r="B137" s="12"/>
+      <c r="B137" s="22"/>
       <c r="C137" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="F137" s="12"/>
+        <v>457</v>
+      </c>
+      <c r="F137" s="22"/>
       <c r="G137" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H137" s="1"/>
       <c r="I137" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="1">
         <v>28</v>
       </c>
-      <c r="B138" s="12"/>
+      <c r="B138" s="22"/>
       <c r="C138" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="F138" s="12"/>
+        <v>482</v>
+      </c>
+      <c r="F138" s="22"/>
       <c r="G138" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H138" s="1"/>
       <c r="I138" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="1">
         <v>29</v>
       </c>
-      <c r="B139" s="12"/>
+      <c r="B139" s="22"/>
       <c r="C139" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="F139" s="12"/>
+        <v>461</v>
+      </c>
+      <c r="F139" s="22"/>
       <c r="G139" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H139" s="1"/>
       <c r="I139" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="1">
         <v>30</v>
       </c>
-      <c r="B140" s="12"/>
+      <c r="B140" s="22"/>
       <c r="C140" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="F140" s="12"/>
+        <v>462</v>
+      </c>
+      <c r="F140" s="22"/>
       <c r="G140" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H140" s="1"/>
       <c r="I140" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="1">
         <v>31</v>
       </c>
-      <c r="B141" s="12"/>
+      <c r="B141" s="22"/>
       <c r="C141" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
-      <c r="F141" s="12"/>
+      <c r="F141" s="22"/>
       <c r="G141" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H141" s="1"/>
       <c r="I141" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="1">
         <v>32</v>
       </c>
-      <c r="B142" s="12"/>
+      <c r="B142" s="22"/>
       <c r="C142" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
-      <c r="F142" s="12"/>
+      <c r="F142" s="22"/>
       <c r="G142" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H142" s="1"/>
       <c r="I142" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="1">
         <v>33</v>
       </c>
-      <c r="B143" s="10" t="s">
-        <v>393</v>
+      <c r="B143" s="11" t="s">
+        <v>392</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="F143" s="10" t="s">
-        <v>393</v>
+        <v>483</v>
+      </c>
+      <c r="F143" s="11" t="s">
+        <v>392</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H143" s="1"/>
       <c r="I143" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="1">
         <v>34</v>
       </c>
-      <c r="B144" s="10"/>
+      <c r="B144" s="11"/>
       <c r="C144" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="F144" s="10"/>
+        <v>484</v>
+      </c>
+      <c r="F144" s="11"/>
       <c r="G144" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H144" s="1"/>
       <c r="I144" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="1">
         <v>35</v>
       </c>
-      <c r="B145" s="10"/>
+      <c r="B145" s="11"/>
       <c r="C145" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="F145" s="10"/>
+        <v>485</v>
+      </c>
+      <c r="F145" s="11"/>
       <c r="G145" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H145" s="1"/>
       <c r="I145" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="1">
         <v>36</v>
       </c>
-      <c r="B146" s="10"/>
+      <c r="B146" s="11"/>
       <c r="C146" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="F146" s="10"/>
+        <v>458</v>
+      </c>
+      <c r="F146" s="11"/>
       <c r="G146" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H146" s="1"/>
       <c r="I146" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="1">
         <v>37</v>
       </c>
-      <c r="B147" s="10"/>
+      <c r="B147" s="11"/>
       <c r="C147" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="F147" s="10"/>
+        <v>459</v>
+      </c>
+      <c r="F147" s="11"/>
       <c r="G147" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H147" s="1"/>
       <c r="I147" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="1">
         <v>38</v>
       </c>
-      <c r="B148" s="10"/>
+      <c r="B148" s="11"/>
       <c r="C148" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="F148" s="10"/>
+        <v>460</v>
+      </c>
+      <c r="F148" s="11"/>
       <c r="G148" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H148" s="1"/>
       <c r="I148" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="1">
         <v>39</v>
       </c>
-      <c r="B149" s="10"/>
+      <c r="B149" s="11"/>
       <c r="C149" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="4"/>
-      <c r="F149" s="10"/>
+      <c r="F149" s="11"/>
       <c r="G149" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
@@ -5821,15 +5833,15 @@
       <c r="A150" s="1">
         <v>40</v>
       </c>
-      <c r="B150" s="10"/>
+      <c r="B150" s="11"/>
       <c r="C150" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="4"/>
-      <c r="F150" s="10"/>
+      <c r="F150" s="11"/>
       <c r="G150" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
@@ -5838,17 +5850,17 @@
       <c r="A151" s="1">
         <v>50</v>
       </c>
-      <c r="B151" s="10"/>
+      <c r="B151" s="11"/>
       <c r="C151" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="F151" s="10"/>
+        <v>496</v>
+      </c>
+      <c r="F151" s="11"/>
       <c r="G151" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
@@ -5857,17 +5869,17 @@
       <c r="A152" s="1">
         <v>51</v>
       </c>
-      <c r="B152" s="10"/>
+      <c r="B152" s="11"/>
       <c r="C152" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="F152" s="10"/>
+        <v>497</v>
+      </c>
+      <c r="F152" s="11"/>
       <c r="G152" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
@@ -5876,17 +5888,17 @@
       <c r="A153" s="1">
         <v>52</v>
       </c>
-      <c r="B153" s="10"/>
+      <c r="B153" s="11"/>
       <c r="C153" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="F153" s="10"/>
+        <v>498</v>
+      </c>
+      <c r="F153" s="11"/>
       <c r="G153" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
@@ -5895,17 +5907,17 @@
       <c r="A154" s="1">
         <v>53</v>
       </c>
-      <c r="B154" s="10"/>
+      <c r="B154" s="11"/>
       <c r="C154" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="F154" s="10"/>
+        <v>499</v>
+      </c>
+      <c r="F154" s="11"/>
       <c r="G154" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
@@ -5914,17 +5926,17 @@
       <c r="A155" s="1">
         <v>54</v>
       </c>
-      <c r="B155" s="10"/>
+      <c r="B155" s="11"/>
       <c r="C155" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="F155" s="10"/>
+        <v>500</v>
+      </c>
+      <c r="F155" s="11"/>
       <c r="G155" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
@@ -5933,17 +5945,17 @@
       <c r="A156" s="1">
         <v>55</v>
       </c>
-      <c r="B156" s="10"/>
+      <c r="B156" s="11"/>
       <c r="C156" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="F156" s="10"/>
+        <v>501</v>
+      </c>
+      <c r="F156" s="11"/>
       <c r="G156" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
@@ -5952,15 +5964,15 @@
       <c r="A157" s="1">
         <v>56</v>
       </c>
-      <c r="B157" s="10"/>
+      <c r="B157" s="11"/>
       <c r="C157" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
-      <c r="F157" s="10"/>
+      <c r="F157" s="11"/>
       <c r="G157" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
@@ -5969,28 +5981,21 @@
       <c r="A158" s="1">
         <v>57</v>
       </c>
-      <c r="B158" s="10"/>
+      <c r="B158" s="11"/>
       <c r="C158" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
-      <c r="F158" s="10"/>
+      <c r="F158" s="11"/>
       <c r="G158" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B75:B90"/>
-    <mergeCell ref="F75:F90"/>
-    <mergeCell ref="B59:B74"/>
-    <mergeCell ref="F59:F74"/>
-    <mergeCell ref="B43:B58"/>
-    <mergeCell ref="F43:F58"/>
     <mergeCell ref="B143:B158"/>
     <mergeCell ref="F143:F158"/>
     <mergeCell ref="A107:I109"/>
@@ -6000,6 +6005,13 @@
     <mergeCell ref="F111:F142"/>
     <mergeCell ref="B91:B106"/>
     <mergeCell ref="F91:F106"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B75:B90"/>
+    <mergeCell ref="F75:F90"/>
+    <mergeCell ref="B59:B74"/>
+    <mergeCell ref="F59:F74"/>
+    <mergeCell ref="B43:B58"/>
+    <mergeCell ref="F43:F58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6047,793 +6059,793 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/天津力神项目IO表.xlsx
+++ b/天津力神项目IO表.xlsx
@@ -2234,12 +2234,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="14">
@@ -2393,7 +2399,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2423,9 +2429,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2462,6 +2465,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2759,8 +2768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I91" sqref="I91:I94"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93:E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2784,16 +2793,16 @@
   <sheetData>
     <row r="1" spans="1:18" ht="14.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1"/>
@@ -2830,7 +2839,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>349</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -2840,7 +2849,7 @@
       <c r="E3" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>348</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -2855,7 +2864,7 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="3" t="s">
         <v>512</v>
       </c>
@@ -2863,7 +2872,7 @@
       <c r="E4" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="3" t="s">
         <v>20</v>
       </c>
@@ -2874,7 +2883,7 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="3" t="s">
         <v>513</v>
       </c>
@@ -2882,7 +2891,7 @@
       <c r="E5" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="3" t="s">
         <v>21</v>
       </c>
@@ -2893,7 +2902,7 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="3" t="s">
         <v>514</v>
       </c>
@@ -2901,7 +2910,7 @@
       <c r="E6" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="3" t="s">
         <v>22</v>
       </c>
@@ -2912,7 +2921,7 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="3" t="s">
         <v>515</v>
       </c>
@@ -2920,7 +2929,7 @@
       <c r="E7" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="3" t="s">
         <v>23</v>
       </c>
@@ -2933,7 +2942,7 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="3" t="s">
         <v>516</v>
       </c>
@@ -2941,7 +2950,7 @@
       <c r="E8" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="3" t="s">
         <v>24</v>
       </c>
@@ -2954,7 +2963,7 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="3" t="s">
         <v>517</v>
       </c>
@@ -2962,7 +2971,7 @@
       <c r="E9" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="3" t="s">
         <v>25</v>
       </c>
@@ -2975,7 +2984,7 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="3" t="s">
         <v>518</v>
       </c>
@@ -2983,7 +2992,7 @@
       <c r="E10" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="3" t="s">
         <v>26</v>
       </c>
@@ -2994,7 +3003,7 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="11"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="3" t="s">
         <v>519</v>
       </c>
@@ -3002,7 +3011,7 @@
       <c r="E11" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="3" t="s">
         <v>170</v>
       </c>
@@ -3015,7 +3024,7 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="3" t="s">
         <v>167</v>
       </c>
@@ -3023,7 +3032,7 @@
       <c r="E12" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="F12" s="11"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="3" t="s">
         <v>171</v>
       </c>
@@ -3036,7 +3045,7 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="3" t="s">
         <v>168</v>
       </c>
@@ -3044,7 +3053,7 @@
       <c r="E13" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="3" t="s">
         <v>172</v>
       </c>
@@ -3057,7 +3066,7 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="3" t="s">
         <v>169</v>
       </c>
@@ -3065,7 +3074,7 @@
       <c r="E14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="3" t="s">
         <v>173</v>
       </c>
@@ -3078,7 +3087,7 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="3" t="s">
         <v>350</v>
       </c>
@@ -3086,7 +3095,7 @@
       <c r="E15" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="3" t="s">
         <v>354</v>
       </c>
@@ -3099,7 +3108,7 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="11"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="3" t="s">
         <v>351</v>
       </c>
@@ -3107,7 +3116,7 @@
       <c r="E16" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="3" t="s">
         <v>355</v>
       </c>
@@ -3120,7 +3129,7 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="11"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="3" t="s">
         <v>352</v>
       </c>
@@ -3128,7 +3137,7 @@
       <c r="E17" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F17" s="11"/>
+      <c r="F17" s="10"/>
       <c r="G17" s="3"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -3137,7 +3146,7 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="11"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="3" t="s">
         <v>353</v>
       </c>
@@ -3145,7 +3154,7 @@
       <c r="E18" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="10"/>
       <c r="G18" s="3" t="s">
         <v>357</v>
       </c>
@@ -3158,7 +3167,7 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="3" t="s">
         <v>520</v>
       </c>
@@ -3166,7 +3175,7 @@
       <c r="E19" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F19" s="11"/>
+      <c r="F19" s="10"/>
       <c r="G19" s="3" t="s">
         <v>366</v>
       </c>
@@ -3179,7 +3188,7 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="11"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="3" t="s">
         <v>359</v>
       </c>
@@ -3187,7 +3196,7 @@
       <c r="E20" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F20" s="11"/>
+      <c r="F20" s="10"/>
       <c r="G20" s="3" t="s">
         <v>367</v>
       </c>
@@ -3200,7 +3209,7 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="11"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="3" t="s">
         <v>360</v>
       </c>
@@ -3208,7 +3217,7 @@
       <c r="E21" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="F21" s="11"/>
+      <c r="F21" s="10"/>
       <c r="G21" s="3" t="s">
         <v>368</v>
       </c>
@@ -3221,7 +3230,7 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="3" t="s">
         <v>361</v>
       </c>
@@ -3229,7 +3238,7 @@
       <c r="E22" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F22" s="11"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="3" t="s">
         <v>369</v>
       </c>
@@ -3242,7 +3251,7 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="11"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="3" t="s">
         <v>362</v>
       </c>
@@ -3250,7 +3259,7 @@
       <c r="E23" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="F23" s="11"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="3" t="s">
         <v>370</v>
       </c>
@@ -3263,7 +3272,7 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="11"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="3" t="s">
         <v>363</v>
       </c>
@@ -3271,7 +3280,7 @@
       <c r="E24" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="F24" s="11"/>
+      <c r="F24" s="10"/>
       <c r="G24" s="3" t="s">
         <v>371</v>
       </c>
@@ -3284,7 +3293,7 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="11"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="3" t="s">
         <v>364</v>
       </c>
@@ -3292,7 +3301,7 @@
       <c r="E25" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="F25" s="11"/>
+      <c r="F25" s="10"/>
       <c r="G25" s="3" t="s">
         <v>372</v>
       </c>
@@ -3305,7 +3314,7 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="3" t="s">
         <v>365</v>
       </c>
@@ -3313,7 +3322,7 @@
       <c r="E26" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F26" s="11"/>
+      <c r="F26" s="10"/>
       <c r="G26" s="3" t="s">
         <v>373</v>
       </c>
@@ -3326,7 +3335,7 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="3" t="s">
         <v>521</v>
       </c>
@@ -3334,7 +3343,7 @@
       <c r="E27" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="F27" s="11"/>
+      <c r="F27" s="10"/>
       <c r="G27" s="3" t="s">
         <v>382</v>
       </c>
@@ -3347,7 +3356,7 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="11"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="3" t="s">
         <v>375</v>
       </c>
@@ -3355,7 +3364,7 @@
       <c r="E28" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F28" s="11"/>
+      <c r="F28" s="10"/>
       <c r="G28" s="3" t="s">
         <v>383</v>
       </c>
@@ -3368,7 +3377,7 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="11"/>
+      <c r="B29" s="10"/>
       <c r="C29" s="3" t="s">
         <v>376</v>
       </c>
@@ -3376,7 +3385,7 @@
       <c r="E29" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F29" s="11"/>
+      <c r="F29" s="10"/>
       <c r="G29" s="3" t="s">
         <v>384</v>
       </c>
@@ -3389,7 +3398,7 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="11"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="3" t="s">
         <v>377</v>
       </c>
@@ -3397,7 +3406,7 @@
       <c r="E30" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F30" s="11"/>
+      <c r="F30" s="10"/>
       <c r="G30" s="3" t="s">
         <v>385</v>
       </c>
@@ -3410,7 +3419,7 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="11"/>
+      <c r="B31" s="10"/>
       <c r="C31" s="3" t="s">
         <v>378</v>
       </c>
@@ -3418,7 +3427,7 @@
       <c r="E31" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F31" s="11"/>
+      <c r="F31" s="10"/>
       <c r="G31" s="3" t="s">
         <v>386</v>
       </c>
@@ -3431,7 +3440,7 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="11"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="3" t="s">
         <v>379</v>
       </c>
@@ -3439,7 +3448,7 @@
       <c r="E32" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="F32" s="11"/>
+      <c r="F32" s="10"/>
       <c r="G32" s="3" t="s">
         <v>387</v>
       </c>
@@ -3452,7 +3461,7 @@
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="11"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="3" t="s">
         <v>380</v>
       </c>
@@ -3460,7 +3469,7 @@
       <c r="E33" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="F33" s="11"/>
+      <c r="F33" s="10"/>
       <c r="G33" s="3" t="s">
         <v>388</v>
       </c>
@@ -3473,7 +3482,7 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="11"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="3" t="s">
         <v>381</v>
       </c>
@@ -3481,7 +3490,7 @@
       <c r="E34" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="F34" s="11"/>
+      <c r="F34" s="10"/>
       <c r="G34" s="3" t="s">
         <v>389</v>
       </c>
@@ -3492,7 +3501,7 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="11"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="3" t="s">
         <v>522</v>
       </c>
@@ -3500,7 +3509,7 @@
       <c r="E35" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="F35" s="11"/>
+      <c r="F35" s="10"/>
       <c r="G35" s="3" t="s">
         <v>223</v>
       </c>
@@ -3513,7 +3522,7 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="11"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="3" t="s">
         <v>523</v>
       </c>
@@ -3521,7 +3530,7 @@
       <c r="E36" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="F36" s="11"/>
+      <c r="F36" s="10"/>
       <c r="G36" s="3" t="s">
         <v>224</v>
       </c>
@@ -3534,13 +3543,13 @@
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="11"/>
+      <c r="B37" s="10"/>
       <c r="C37" s="3" t="s">
         <v>524</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="11"/>
+      <c r="F37" s="10"/>
       <c r="G37" s="3" t="s">
         <v>225</v>
       </c>
@@ -3556,13 +3565,13 @@
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="11"/>
+      <c r="B38" s="10"/>
       <c r="C38" s="3" t="s">
         <v>525</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="11"/>
+      <c r="F38" s="10"/>
       <c r="G38" s="3" t="s">
         <v>226</v>
       </c>
@@ -3575,7 +3584,7 @@
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="11"/>
+      <c r="B39" s="10"/>
       <c r="C39" s="3" t="s">
         <v>526</v>
       </c>
@@ -3583,7 +3592,7 @@
       <c r="E39" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="F39" s="11"/>
+      <c r="F39" s="10"/>
       <c r="G39" s="3" t="s">
         <v>227</v>
       </c>
@@ -3596,7 +3605,7 @@
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="11"/>
+      <c r="B40" s="10"/>
       <c r="C40" s="3" t="s">
         <v>527</v>
       </c>
@@ -3604,7 +3613,7 @@
       <c r="E40" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="F40" s="11"/>
+      <c r="F40" s="10"/>
       <c r="G40" s="3" t="s">
         <v>228</v>
       </c>
@@ -3617,7 +3626,7 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="11"/>
+      <c r="B41" s="10"/>
       <c r="C41" s="3" t="s">
         <v>528</v>
       </c>
@@ -3625,7 +3634,7 @@
       <c r="E41" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="F41" s="11"/>
+      <c r="F41" s="10"/>
       <c r="G41" s="3" t="s">
         <v>229</v>
       </c>
@@ -3638,7 +3647,7 @@
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="11"/>
+      <c r="B42" s="10"/>
       <c r="C42" s="3" t="s">
         <v>529</v>
       </c>
@@ -3646,7 +3655,7 @@
       <c r="E42" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="F42" s="11"/>
+      <c r="F42" s="10"/>
       <c r="G42" s="3" t="s">
         <v>230</v>
       </c>
@@ -3659,7 +3668,7 @@
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>392</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -3669,7 +3678,7 @@
       <c r="E43" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="F43" s="10" t="s">
         <v>392</v>
       </c>
       <c r="G43" s="3" t="s">
@@ -3684,7 +3693,7 @@
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="11"/>
+      <c r="B44" s="10"/>
       <c r="C44" s="3" t="s">
         <v>216</v>
       </c>
@@ -3692,7 +3701,7 @@
       <c r="E44" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="F44" s="11"/>
+      <c r="F44" s="10"/>
       <c r="G44" s="3" t="s">
         <v>231</v>
       </c>
@@ -3705,7 +3714,7 @@
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="11"/>
+      <c r="B45" s="10"/>
       <c r="C45" s="3" t="s">
         <v>217</v>
       </c>
@@ -3713,7 +3722,7 @@
       <c r="E45" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="F45" s="11"/>
+      <c r="F45" s="10"/>
       <c r="G45" s="3" t="s">
         <v>232</v>
       </c>
@@ -3726,7 +3735,7 @@
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="11"/>
+      <c r="B46" s="10"/>
       <c r="C46" s="3" t="s">
         <v>218</v>
       </c>
@@ -3734,7 +3743,7 @@
       <c r="E46" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="F46" s="11"/>
+      <c r="F46" s="10"/>
       <c r="G46" s="3" t="s">
         <v>233</v>
       </c>
@@ -3747,7 +3756,7 @@
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="11"/>
+      <c r="B47" s="10"/>
       <c r="C47" s="3" t="s">
         <v>219</v>
       </c>
@@ -3755,7 +3764,7 @@
       <c r="E47" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="F47" s="11"/>
+      <c r="F47" s="10"/>
       <c r="G47" s="3" t="s">
         <v>234</v>
       </c>
@@ -3768,7 +3777,7 @@
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="11"/>
+      <c r="B48" s="10"/>
       <c r="C48" s="3" t="s">
         <v>220</v>
       </c>
@@ -3776,7 +3785,7 @@
       <c r="E48" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="F48" s="11"/>
+      <c r="F48" s="10"/>
       <c r="G48" s="3" t="s">
         <v>235</v>
       </c>
@@ -3789,7 +3798,7 @@
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="11"/>
+      <c r="B49" s="10"/>
       <c r="C49" s="3" t="s">
         <v>221</v>
       </c>
@@ -3797,7 +3806,7 @@
       <c r="E49" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="F49" s="11"/>
+      <c r="F49" s="10"/>
       <c r="G49" s="3" t="s">
         <v>236</v>
       </c>
@@ -3810,7 +3819,7 @@
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="11"/>
+      <c r="B50" s="10"/>
       <c r="C50" s="3" t="s">
         <v>222</v>
       </c>
@@ -3818,7 +3827,7 @@
       <c r="E50" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="F50" s="11"/>
+      <c r="F50" s="10"/>
       <c r="G50" s="3" t="s">
         <v>237</v>
       </c>
@@ -3829,7 +3838,7 @@
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="11"/>
+      <c r="B51" s="10"/>
       <c r="C51" s="3" t="s">
         <v>531</v>
       </c>
@@ -3837,7 +3846,7 @@
       <c r="E51" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="F51" s="11"/>
+      <c r="F51" s="10"/>
       <c r="G51" s="1" t="s">
         <v>405</v>
       </c>
@@ -3850,7 +3859,7 @@
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="11"/>
+      <c r="B52" s="10"/>
       <c r="C52" s="3" t="s">
         <v>214</v>
       </c>
@@ -3858,7 +3867,7 @@
       <c r="E52" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="F52" s="11"/>
+      <c r="F52" s="10"/>
       <c r="G52" s="1" t="s">
         <v>278</v>
       </c>
@@ -3871,7 +3880,7 @@
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="11"/>
+      <c r="B53" s="10"/>
       <c r="C53" s="3" t="s">
         <v>268</v>
       </c>
@@ -3879,7 +3888,7 @@
       <c r="E53" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="F53" s="11"/>
+      <c r="F53" s="10"/>
       <c r="G53" s="1" t="s">
         <v>279</v>
       </c>
@@ -3892,7 +3901,7 @@
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="11"/>
+      <c r="B54" s="10"/>
       <c r="C54" s="3" t="s">
         <v>269</v>
       </c>
@@ -3900,7 +3909,7 @@
       <c r="E54" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="F54" s="11"/>
+      <c r="F54" s="10"/>
       <c r="G54" s="1" t="s">
         <v>280</v>
       </c>
@@ -3913,7 +3922,7 @@
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="11"/>
+      <c r="B55" s="10"/>
       <c r="C55" s="3" t="s">
         <v>390</v>
       </c>
@@ -3921,7 +3930,7 @@
       <c r="E55" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="F55" s="11"/>
+      <c r="F55" s="10"/>
       <c r="G55" s="1" t="s">
         <v>406</v>
       </c>
@@ -3934,15 +3943,15 @@
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="3" t="s">
+      <c r="B56" s="10"/>
+      <c r="C56" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1" t="s">
+      <c r="D56" s="23"/>
+      <c r="E56" s="23" t="s">
         <v>638</v>
       </c>
-      <c r="F56" s="11"/>
+      <c r="F56" s="10"/>
       <c r="G56" s="1" t="s">
         <v>282</v>
       </c>
@@ -3955,15 +3964,15 @@
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="3" t="s">
+      <c r="B57" s="10"/>
+      <c r="C57" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1" t="s">
+      <c r="D57" s="23"/>
+      <c r="E57" s="23" t="s">
         <v>639</v>
       </c>
-      <c r="F57" s="11"/>
+      <c r="F57" s="10"/>
       <c r="G57" s="1" t="s">
         <v>281</v>
       </c>
@@ -3976,15 +3985,15 @@
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="3" t="s">
+      <c r="B58" s="10"/>
+      <c r="C58" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1" t="s">
+      <c r="D58" s="23"/>
+      <c r="E58" s="23" t="s">
         <v>640</v>
       </c>
-      <c r="F58" s="11"/>
+      <c r="F58" s="10"/>
       <c r="G58" s="1" t="s">
         <v>283</v>
       </c>
@@ -3997,7 +4006,7 @@
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="10" t="s">
         <v>392</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -4007,7 +4016,7 @@
       <c r="E59" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="F59" s="11" t="s">
+      <c r="F59" s="10" t="s">
         <v>392</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -4022,7 +4031,7 @@
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="11"/>
+      <c r="B60" s="10"/>
       <c r="C60" s="3" t="s">
         <v>273</v>
       </c>
@@ -4030,7 +4039,7 @@
       <c r="E60" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="F60" s="11"/>
+      <c r="F60" s="10"/>
       <c r="G60" s="1" t="s">
         <v>284</v>
       </c>
@@ -4043,7 +4052,7 @@
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="11"/>
+      <c r="B61" s="10"/>
       <c r="C61" s="3" t="s">
         <v>215</v>
       </c>
@@ -4051,7 +4060,7 @@
       <c r="E61" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="F61" s="11"/>
+      <c r="F61" s="10"/>
       <c r="G61" s="1" t="s">
         <v>285</v>
       </c>
@@ -4064,7 +4073,7 @@
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="11"/>
+      <c r="B62" s="10"/>
       <c r="C62" s="3" t="s">
         <v>274</v>
       </c>
@@ -4072,7 +4081,7 @@
       <c r="E62" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="F62" s="11"/>
+      <c r="F62" s="10"/>
       <c r="G62" s="1" t="s">
         <v>286</v>
       </c>
@@ -4085,7 +4094,7 @@
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="11"/>
+      <c r="B63" s="10"/>
       <c r="C63" s="3" t="s">
         <v>275</v>
       </c>
@@ -4093,7 +4102,7 @@
       <c r="E63" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="F63" s="11"/>
+      <c r="F63" s="10"/>
       <c r="G63" s="1" t="s">
         <v>287</v>
       </c>
@@ -4106,7 +4115,7 @@
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="11"/>
+      <c r="B64" s="10"/>
       <c r="C64" s="3" t="s">
         <v>391</v>
       </c>
@@ -4114,7 +4123,7 @@
       <c r="E64" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="F64" s="11"/>
+      <c r="F64" s="10"/>
       <c r="G64" s="1" t="s">
         <v>408</v>
       </c>
@@ -4127,7 +4136,7 @@
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="11"/>
+      <c r="B65" s="10"/>
       <c r="C65" s="3" t="s">
         <v>277</v>
       </c>
@@ -4135,7 +4144,7 @@
       <c r="E65" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="F65" s="11"/>
+      <c r="F65" s="10"/>
       <c r="G65" s="1" t="s">
         <v>289</v>
       </c>
@@ -4148,7 +4157,7 @@
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" s="11"/>
+      <c r="B66" s="10"/>
       <c r="C66" s="3" t="s">
         <v>276</v>
       </c>
@@ -4156,7 +4165,7 @@
       <c r="E66" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="F66" s="11"/>
+      <c r="F66" s="10"/>
       <c r="G66" s="1" t="s">
         <v>288</v>
       </c>
@@ -4169,7 +4178,7 @@
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" s="11"/>
+      <c r="B67" s="10"/>
       <c r="C67" s="3" t="s">
         <v>533</v>
       </c>
@@ -4177,7 +4186,7 @@
       <c r="E67" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="F67" s="11"/>
+      <c r="F67" s="10"/>
       <c r="G67" s="3" t="s">
         <v>409</v>
       </c>
@@ -4190,7 +4199,7 @@
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" s="11"/>
+      <c r="B68" s="10"/>
       <c r="C68" s="3" t="s">
         <v>397</v>
       </c>
@@ -4198,7 +4207,7 @@
       <c r="E68" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="F68" s="11"/>
+      <c r="F68" s="10"/>
       <c r="G68" s="3" t="s">
         <v>410</v>
       </c>
@@ -4211,7 +4220,7 @@
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" s="11"/>
+      <c r="B69" s="10"/>
       <c r="C69" s="3" t="s">
         <v>398</v>
       </c>
@@ -4219,7 +4228,7 @@
       <c r="E69" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="F69" s="11"/>
+      <c r="F69" s="10"/>
       <c r="G69" s="3" t="s">
         <v>411</v>
       </c>
@@ -4232,7 +4241,7 @@
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" s="11"/>
+      <c r="B70" s="10"/>
       <c r="C70" s="3" t="s">
         <v>399</v>
       </c>
@@ -4240,7 +4249,7 @@
       <c r="E70" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="F70" s="11"/>
+      <c r="F70" s="10"/>
       <c r="G70" s="3" t="s">
         <v>412</v>
       </c>
@@ -4253,7 +4262,7 @@
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" s="11"/>
+      <c r="B71" s="10"/>
       <c r="C71" s="3" t="s">
         <v>400</v>
       </c>
@@ -4261,7 +4270,7 @@
       <c r="E71" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="F71" s="11"/>
+      <c r="F71" s="10"/>
       <c r="G71" s="3" t="s">
         <v>413</v>
       </c>
@@ -4274,13 +4283,13 @@
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" s="11"/>
+      <c r="B72" s="10"/>
       <c r="C72" s="3" t="s">
         <v>401</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="11"/>
+      <c r="F72" s="10"/>
       <c r="G72" s="3" t="s">
         <v>414</v>
       </c>
@@ -4291,13 +4300,13 @@
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" s="11"/>
+      <c r="B73" s="10"/>
       <c r="C73" s="3" t="s">
         <v>402</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="11"/>
+      <c r="F73" s="10"/>
       <c r="G73" s="3" t="s">
         <v>415</v>
       </c>
@@ -4308,7 +4317,7 @@
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" s="11"/>
+      <c r="B74" s="10"/>
       <c r="C74" s="3" t="s">
         <v>403</v>
       </c>
@@ -4316,7 +4325,7 @@
       <c r="E74" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="F74" s="11"/>
+      <c r="F74" s="10"/>
       <c r="G74" s="3" t="s">
         <v>416</v>
       </c>
@@ -4327,7 +4336,7 @@
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="10" t="s">
         <v>392</v>
       </c>
       <c r="C75" s="3" t="s">
@@ -4337,7 +4346,7 @@
       <c r="E75" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="F75" s="11" t="s">
+      <c r="F75" s="10" t="s">
         <v>392</v>
       </c>
       <c r="G75" s="3" t="s">
@@ -4352,7 +4361,7 @@
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" s="11"/>
+      <c r="B76" s="10"/>
       <c r="C76" s="3" t="s">
         <v>535</v>
       </c>
@@ -4360,7 +4369,7 @@
       <c r="E76" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="F76" s="11"/>
+      <c r="F76" s="10"/>
       <c r="G76" s="3" t="s">
         <v>551</v>
       </c>
@@ -4373,7 +4382,7 @@
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" s="11"/>
+      <c r="B77" s="10"/>
       <c r="C77" s="3" t="s">
         <v>536</v>
       </c>
@@ -4381,7 +4390,7 @@
       <c r="E77" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="F77" s="11"/>
+      <c r="F77" s="10"/>
       <c r="G77" s="3" t="s">
         <v>552</v>
       </c>
@@ -4394,7 +4403,7 @@
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" s="11"/>
+      <c r="B78" s="10"/>
       <c r="C78" s="3" t="s">
         <v>537</v>
       </c>
@@ -4402,7 +4411,7 @@
       <c r="E78" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="F78" s="11"/>
+      <c r="F78" s="10"/>
       <c r="G78" s="3" t="s">
         <v>553</v>
       </c>
@@ -4415,7 +4424,7 @@
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" s="11"/>
+      <c r="B79" s="10"/>
       <c r="C79" s="3" t="s">
         <v>538</v>
       </c>
@@ -4423,7 +4432,7 @@
       <c r="E79" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="F79" s="11"/>
+      <c r="F79" s="10"/>
       <c r="G79" s="3" t="s">
         <v>554</v>
       </c>
@@ -4436,7 +4445,7 @@
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" s="11"/>
+      <c r="B80" s="10"/>
       <c r="C80" s="3" t="s">
         <v>539</v>
       </c>
@@ -4444,7 +4453,7 @@
       <c r="E80" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="F80" s="11"/>
+      <c r="F80" s="10"/>
       <c r="G80" s="3" t="s">
         <v>555</v>
       </c>
@@ -4454,7 +4463,7 @@
       <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" s="11"/>
+      <c r="B81" s="10"/>
       <c r="C81" s="3" t="s">
         <v>540</v>
       </c>
@@ -4462,7 +4471,7 @@
       <c r="E81" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="F81" s="11"/>
+      <c r="F81" s="10"/>
       <c r="G81" s="3" t="s">
         <v>556</v>
       </c>
@@ -4472,7 +4481,7 @@
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" s="11"/>
+      <c r="B82" s="10"/>
       <c r="C82" s="3" t="s">
         <v>541</v>
       </c>
@@ -4480,7 +4489,7 @@
       <c r="E82" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="F82" s="11"/>
+      <c r="F82" s="10"/>
       <c r="G82" s="3" t="s">
         <v>557</v>
       </c>
@@ -4490,7 +4499,7 @@
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" s="11"/>
+      <c r="B83" s="10"/>
       <c r="C83" s="3" t="s">
         <v>542</v>
       </c>
@@ -4498,7 +4507,7 @@
       <c r="E83" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="F83" s="11"/>
+      <c r="F83" s="10"/>
       <c r="G83" s="3" t="s">
         <v>558</v>
       </c>
@@ -4511,7 +4520,7 @@
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" s="11"/>
+      <c r="B84" s="10"/>
       <c r="C84" s="3" t="s">
         <v>543</v>
       </c>
@@ -4519,7 +4528,7 @@
       <c r="E84" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="F84" s="11"/>
+      <c r="F84" s="10"/>
       <c r="G84" s="3" t="s">
         <v>559</v>
       </c>
@@ -4532,7 +4541,7 @@
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" s="11"/>
+      <c r="B85" s="10"/>
       <c r="C85" s="3" t="s">
         <v>544</v>
       </c>
@@ -4540,7 +4549,7 @@
       <c r="E85" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="F85" s="11"/>
+      <c r="F85" s="10"/>
       <c r="G85" s="3" t="s">
         <v>560</v>
       </c>
@@ -4553,7 +4562,7 @@
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" s="11"/>
+      <c r="B86" s="10"/>
       <c r="C86" s="3" t="s">
         <v>545</v>
       </c>
@@ -4561,7 +4570,7 @@
       <c r="E86" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="F86" s="11"/>
+      <c r="F86" s="10"/>
       <c r="G86" s="3" t="s">
         <v>561</v>
       </c>
@@ -4574,7 +4583,7 @@
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" s="11"/>
+      <c r="B87" s="10"/>
       <c r="C87" s="3" t="s">
         <v>546</v>
       </c>
@@ -4582,7 +4591,7 @@
       <c r="E87" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="F87" s="11"/>
+      <c r="F87" s="10"/>
       <c r="G87" s="3" t="s">
         <v>562</v>
       </c>
@@ -4595,7 +4604,7 @@
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" s="11"/>
+      <c r="B88" s="10"/>
       <c r="C88" s="3" t="s">
         <v>547</v>
       </c>
@@ -4603,7 +4612,7 @@
       <c r="E88" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="F88" s="11"/>
+      <c r="F88" s="10"/>
       <c r="G88" s="3" t="s">
         <v>563</v>
       </c>
@@ -4616,7 +4625,7 @@
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" s="11"/>
+      <c r="B89" s="10"/>
       <c r="C89" s="3" t="s">
         <v>548</v>
       </c>
@@ -4624,7 +4633,7 @@
       <c r="E89" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="F89" s="11"/>
+      <c r="F89" s="10"/>
       <c r="G89" s="3" t="s">
         <v>564</v>
       </c>
@@ -4637,7 +4646,7 @@
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" s="11"/>
+      <c r="B90" s="10"/>
       <c r="C90" s="3" t="s">
         <v>549</v>
       </c>
@@ -4645,7 +4654,7 @@
       <c r="E90" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="F90" s="11"/>
+      <c r="F90" s="10"/>
       <c r="G90" s="3" t="s">
         <v>565</v>
       </c>
@@ -4658,7 +4667,7 @@
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="10" t="s">
         <v>392</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -4668,7 +4677,7 @@
       <c r="E91" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="F91" s="11" t="s">
+      <c r="F91" s="10" t="s">
         <v>392</v>
       </c>
       <c r="G91" s="3" t="s">
@@ -4683,7 +4692,7 @@
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" s="11"/>
+      <c r="B92" s="10"/>
       <c r="C92" s="3" t="s">
         <v>580</v>
       </c>
@@ -4691,7 +4700,7 @@
       <c r="E92" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="F92" s="11"/>
+      <c r="F92" s="10"/>
       <c r="G92" s="3" t="s">
         <v>596</v>
       </c>
@@ -4704,15 +4713,15 @@
       <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" s="11"/>
-      <c r="C93" s="3" t="s">
+      <c r="B93" s="10"/>
+      <c r="C93" s="23" t="s">
         <v>581</v>
       </c>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1" t="s">
+      <c r="D93" s="23"/>
+      <c r="E93" s="23" t="s">
         <v>641</v>
       </c>
-      <c r="F93" s="11"/>
+      <c r="F93" s="10"/>
       <c r="G93" s="3" t="s">
         <v>597</v>
       </c>
@@ -4725,15 +4734,15 @@
       <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" s="11"/>
-      <c r="C94" s="3" t="s">
+      <c r="B94" s="10"/>
+      <c r="C94" s="23" t="s">
         <v>582</v>
       </c>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1" t="s">
+      <c r="D94" s="23"/>
+      <c r="E94" s="23" t="s">
         <v>642</v>
       </c>
-      <c r="F94" s="11"/>
+      <c r="F94" s="10"/>
       <c r="G94" s="3" t="s">
         <v>598</v>
       </c>
@@ -4746,15 +4755,15 @@
       <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" s="11"/>
-      <c r="C95" s="3" t="s">
+      <c r="B95" s="10"/>
+      <c r="C95" s="23" t="s">
         <v>583</v>
       </c>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1" t="s">
+      <c r="D95" s="23"/>
+      <c r="E95" s="23" t="s">
         <v>643</v>
       </c>
-      <c r="F95" s="11"/>
+      <c r="F95" s="10"/>
       <c r="G95" s="3" t="s">
         <v>599</v>
       </c>
@@ -4764,7 +4773,7 @@
       <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" s="11"/>
+      <c r="B96" s="10"/>
       <c r="C96" s="3" t="s">
         <v>584</v>
       </c>
@@ -4772,7 +4781,7 @@
       <c r="E96" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="F96" s="11"/>
+      <c r="F96" s="10"/>
       <c r="G96" s="3" t="s">
         <v>600</v>
       </c>
@@ -4782,7 +4791,7 @@
       <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" s="11"/>
+      <c r="B97" s="10"/>
       <c r="C97" s="3" t="s">
         <v>585</v>
       </c>
@@ -4790,7 +4799,7 @@
       <c r="E97" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="F97" s="11"/>
+      <c r="F97" s="10"/>
       <c r="G97" s="3" t="s">
         <v>601</v>
       </c>
@@ -4800,7 +4809,7 @@
       <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" s="11"/>
+      <c r="B98" s="10"/>
       <c r="C98" s="3" t="s">
         <v>586</v>
       </c>
@@ -4808,7 +4817,7 @@
       <c r="E98" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="F98" s="11"/>
+      <c r="F98" s="10"/>
       <c r="G98" s="3" t="s">
         <v>602</v>
       </c>
@@ -4818,7 +4827,7 @@
       <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" s="11"/>
+      <c r="B99" s="10"/>
       <c r="C99" s="3" t="s">
         <v>587</v>
       </c>
@@ -4826,7 +4835,7 @@
       <c r="E99" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="F99" s="11"/>
+      <c r="F99" s="10"/>
       <c r="G99" s="3" t="s">
         <v>603</v>
       </c>
@@ -4837,7 +4846,7 @@
       <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" s="11"/>
+      <c r="B100" s="10"/>
       <c r="C100" s="3" t="s">
         <v>588</v>
       </c>
@@ -4845,7 +4854,7 @@
       <c r="E100" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="F100" s="11"/>
+      <c r="F100" s="10"/>
       <c r="G100" s="3" t="s">
         <v>604</v>
       </c>
@@ -4856,7 +4865,7 @@
       <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" s="11"/>
+      <c r="B101" s="10"/>
       <c r="C101" s="3" t="s">
         <v>589</v>
       </c>
@@ -4864,7 +4873,7 @@
       <c r="E101" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="F101" s="11"/>
+      <c r="F101" s="10"/>
       <c r="G101" s="3" t="s">
         <v>605</v>
       </c>
@@ -4875,7 +4884,7 @@
       <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" s="11"/>
+      <c r="B102" s="10"/>
       <c r="C102" s="3" t="s">
         <v>590</v>
       </c>
@@ -4883,7 +4892,7 @@
       <c r="E102" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="F102" s="11"/>
+      <c r="F102" s="10"/>
       <c r="G102" s="3" t="s">
         <v>606</v>
       </c>
@@ -4894,7 +4903,7 @@
       <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" s="11"/>
+      <c r="B103" s="10"/>
       <c r="C103" s="3" t="s">
         <v>591</v>
       </c>
@@ -4902,7 +4911,7 @@
       <c r="E103" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="F103" s="11"/>
+      <c r="F103" s="10"/>
       <c r="G103" s="3" t="s">
         <v>607</v>
       </c>
@@ -4913,7 +4922,7 @@
       <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" s="11"/>
+      <c r="B104" s="10"/>
       <c r="C104" s="3" t="s">
         <v>592</v>
       </c>
@@ -4921,7 +4930,7 @@
       <c r="E104" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="F104" s="11"/>
+      <c r="F104" s="10"/>
       <c r="G104" s="3" t="s">
         <v>608</v>
       </c>
@@ -4932,13 +4941,13 @@
       <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" s="11"/>
+      <c r="B105" s="10"/>
       <c r="C105" s="3" t="s">
         <v>593</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="11"/>
+      <c r="F105" s="10"/>
       <c r="G105" s="3" t="s">
         <v>609</v>
       </c>
@@ -4949,13 +4958,13 @@
       <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" s="11"/>
+      <c r="B106" s="10"/>
       <c r="C106" s="3" t="s">
         <v>594</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="11"/>
+      <c r="F106" s="10"/>
       <c r="G106" s="3" t="s">
         <v>610</v>
       </c>
@@ -4963,39 +4972,39 @@
       <c r="I106" s="1"/>
     </row>
     <row r="107" spans="1:9" s="8" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A107" s="12" t="s">
+      <c r="A107" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="14"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="13"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="15"/>
-      <c r="B108" s="16"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="16"/>
-      <c r="F108" s="16"/>
-      <c r="G108" s="16"/>
-      <c r="H108" s="16"/>
-      <c r="I108" s="17"/>
+      <c r="A108" s="14"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="16"/>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="18"/>
-      <c r="B109" s="19"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
-      <c r="E109" s="19"/>
-      <c r="F109" s="19"/>
-      <c r="G109" s="19"/>
-      <c r="H109" s="19"/>
-      <c r="I109" s="20"/>
+      <c r="A109" s="17"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="18"/>
+      <c r="I109" s="19"/>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="1"/>
@@ -5024,7 +5033,7 @@
       <c r="A111" s="1">
         <v>1</v>
       </c>
-      <c r="B111" s="21" t="s">
+      <c r="B111" s="20" t="s">
         <v>349</v>
       </c>
       <c r="C111" s="3" t="s">
@@ -5034,7 +5043,7 @@
       <c r="E111" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="F111" s="21" t="s">
+      <c r="F111" s="20" t="s">
         <v>348</v>
       </c>
       <c r="G111" s="3" t="s">
@@ -5049,7 +5058,7 @@
       <c r="A112" s="1">
         <v>2</v>
       </c>
-      <c r="B112" s="22"/>
+      <c r="B112" s="21"/>
       <c r="C112" s="3" t="s">
         <v>12</v>
       </c>
@@ -5057,7 +5066,7 @@
       <c r="E112" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="F112" s="22"/>
+      <c r="F112" s="21"/>
       <c r="G112" s="3" t="s">
         <v>20</v>
       </c>
@@ -5070,7 +5079,7 @@
       <c r="A113" s="1">
         <v>3</v>
       </c>
-      <c r="B113" s="22"/>
+      <c r="B113" s="21"/>
       <c r="C113" s="3" t="s">
         <v>13</v>
       </c>
@@ -5078,7 +5087,7 @@
       <c r="E113" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="F113" s="22"/>
+      <c r="F113" s="21"/>
       <c r="G113" s="3" t="s">
         <v>21</v>
       </c>
@@ -5091,7 +5100,7 @@
       <c r="A114" s="1">
         <v>4</v>
       </c>
-      <c r="B114" s="22"/>
+      <c r="B114" s="21"/>
       <c r="C114" s="3" t="s">
         <v>14</v>
       </c>
@@ -5099,7 +5108,7 @@
       <c r="E114" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="F114" s="22"/>
+      <c r="F114" s="21"/>
       <c r="G114" s="3" t="s">
         <v>22</v>
       </c>
@@ -5112,7 +5121,7 @@
       <c r="A115" s="1">
         <v>5</v>
       </c>
-      <c r="B115" s="22"/>
+      <c r="B115" s="21"/>
       <c r="C115" s="3" t="s">
         <v>15</v>
       </c>
@@ -5120,7 +5129,7 @@
       <c r="E115" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="F115" s="22"/>
+      <c r="F115" s="21"/>
       <c r="G115" s="3" t="s">
         <v>23</v>
       </c>
@@ -5131,7 +5140,7 @@
       <c r="A116" s="1">
         <v>6</v>
       </c>
-      <c r="B116" s="22"/>
+      <c r="B116" s="21"/>
       <c r="C116" s="3" t="s">
         <v>16</v>
       </c>
@@ -5139,7 +5148,7 @@
       <c r="E116" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="F116" s="22"/>
+      <c r="F116" s="21"/>
       <c r="G116" s="3" t="s">
         <v>24</v>
       </c>
@@ -5150,7 +5159,7 @@
       <c r="A117" s="1">
         <v>7</v>
       </c>
-      <c r="B117" s="22"/>
+      <c r="B117" s="21"/>
       <c r="C117" s="3" t="s">
         <v>17</v>
       </c>
@@ -5158,7 +5167,7 @@
       <c r="E117" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="F117" s="22"/>
+      <c r="F117" s="21"/>
       <c r="G117" s="3" t="s">
         <v>25</v>
       </c>
@@ -5169,7 +5178,7 @@
       <c r="A118" s="1">
         <v>8</v>
       </c>
-      <c r="B118" s="22"/>
+      <c r="B118" s="21"/>
       <c r="C118" s="3" t="s">
         <v>18</v>
       </c>
@@ -5177,7 +5186,7 @@
       <c r="E118" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="F118" s="22"/>
+      <c r="F118" s="21"/>
       <c r="G118" s="3" t="s">
         <v>26</v>
       </c>
@@ -5188,7 +5197,7 @@
       <c r="A119" s="1">
         <v>9</v>
       </c>
-      <c r="B119" s="22"/>
+      <c r="B119" s="21"/>
       <c r="C119" s="3" t="s">
         <v>166</v>
       </c>
@@ -5196,7 +5205,7 @@
       <c r="E119" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="F119" s="22"/>
+      <c r="F119" s="21"/>
       <c r="G119" s="3" t="s">
         <v>170</v>
       </c>
@@ -5209,7 +5218,7 @@
       <c r="A120" s="1">
         <v>10</v>
       </c>
-      <c r="B120" s="22"/>
+      <c r="B120" s="21"/>
       <c r="C120" s="3" t="s">
         <v>167</v>
       </c>
@@ -5217,7 +5226,7 @@
       <c r="E120" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="F120" s="22"/>
+      <c r="F120" s="21"/>
       <c r="G120" s="3" t="s">
         <v>171</v>
       </c>
@@ -5230,7 +5239,7 @@
       <c r="A121" s="1">
         <v>11</v>
       </c>
-      <c r="B121" s="22"/>
+      <c r="B121" s="21"/>
       <c r="C121" s="3" t="s">
         <v>168</v>
       </c>
@@ -5238,7 +5247,7 @@
       <c r="E121" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="F121" s="22"/>
+      <c r="F121" s="21"/>
       <c r="G121" s="3" t="s">
         <v>172</v>
       </c>
@@ -5251,7 +5260,7 @@
       <c r="A122" s="1">
         <v>12</v>
       </c>
-      <c r="B122" s="22"/>
+      <c r="B122" s="21"/>
       <c r="C122" s="3" t="s">
         <v>169</v>
       </c>
@@ -5259,7 +5268,7 @@
       <c r="E122" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="F122" s="22"/>
+      <c r="F122" s="21"/>
       <c r="G122" s="3" t="s">
         <v>173</v>
       </c>
@@ -5272,7 +5281,7 @@
       <c r="A123" s="1">
         <v>13</v>
       </c>
-      <c r="B123" s="22"/>
+      <c r="B123" s="21"/>
       <c r="C123" s="3" t="s">
         <v>350</v>
       </c>
@@ -5280,7 +5289,7 @@
       <c r="E123" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="F123" s="22"/>
+      <c r="F123" s="21"/>
       <c r="G123" s="3" t="s">
         <v>354</v>
       </c>
@@ -5293,7 +5302,7 @@
       <c r="A124" s="1">
         <v>14</v>
       </c>
-      <c r="B124" s="22"/>
+      <c r="B124" s="21"/>
       <c r="C124" s="3" t="s">
         <v>351</v>
       </c>
@@ -5301,7 +5310,7 @@
       <c r="E124" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="F124" s="22"/>
+      <c r="F124" s="21"/>
       <c r="G124" s="3" t="s">
         <v>355</v>
       </c>
@@ -5314,7 +5323,7 @@
       <c r="A125" s="1">
         <v>15</v>
       </c>
-      <c r="B125" s="22"/>
+      <c r="B125" s="21"/>
       <c r="C125" s="3" t="s">
         <v>352</v>
       </c>
@@ -5322,7 +5331,7 @@
       <c r="E125" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="F125" s="22"/>
+      <c r="F125" s="21"/>
       <c r="G125" s="3" t="s">
         <v>356</v>
       </c>
@@ -5335,7 +5344,7 @@
       <c r="A126" s="1">
         <v>16</v>
       </c>
-      <c r="B126" s="22"/>
+      <c r="B126" s="21"/>
       <c r="C126" s="3" t="s">
         <v>353</v>
       </c>
@@ -5343,7 +5352,7 @@
       <c r="E126" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="F126" s="22"/>
+      <c r="F126" s="21"/>
       <c r="G126" s="3" t="s">
         <v>357</v>
       </c>
@@ -5356,7 +5365,7 @@
       <c r="A127" s="1">
         <v>17</v>
       </c>
-      <c r="B127" s="22"/>
+      <c r="B127" s="21"/>
       <c r="C127" s="3" t="s">
         <v>358</v>
       </c>
@@ -5364,7 +5373,7 @@
       <c r="E127" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="F127" s="22"/>
+      <c r="F127" s="21"/>
       <c r="G127" s="3" t="s">
         <v>366</v>
       </c>
@@ -5377,7 +5386,7 @@
       <c r="A128" s="1">
         <v>18</v>
       </c>
-      <c r="B128" s="22"/>
+      <c r="B128" s="21"/>
       <c r="C128" s="3" t="s">
         <v>359</v>
       </c>
@@ -5385,7 +5394,7 @@
       <c r="E128" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="F128" s="22"/>
+      <c r="F128" s="21"/>
       <c r="G128" s="3" t="s">
         <v>367</v>
       </c>
@@ -5398,7 +5407,7 @@
       <c r="A129" s="1">
         <v>19</v>
       </c>
-      <c r="B129" s="22"/>
+      <c r="B129" s="21"/>
       <c r="C129" s="3" t="s">
         <v>360</v>
       </c>
@@ -5406,7 +5415,7 @@
       <c r="E129" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="F129" s="22"/>
+      <c r="F129" s="21"/>
       <c r="G129" s="3" t="s">
         <v>368</v>
       </c>
@@ -5419,7 +5428,7 @@
       <c r="A130" s="1">
         <v>20</v>
       </c>
-      <c r="B130" s="22"/>
+      <c r="B130" s="21"/>
       <c r="C130" s="3" t="s">
         <v>361</v>
       </c>
@@ -5427,7 +5436,7 @@
       <c r="E130" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="F130" s="22"/>
+      <c r="F130" s="21"/>
       <c r="G130" s="3" t="s">
         <v>369</v>
       </c>
@@ -5440,7 +5449,7 @@
       <c r="A131" s="1">
         <v>21</v>
       </c>
-      <c r="B131" s="22"/>
+      <c r="B131" s="21"/>
       <c r="C131" s="3" t="s">
         <v>362</v>
       </c>
@@ -5448,7 +5457,7 @@
       <c r="E131" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="F131" s="22"/>
+      <c r="F131" s="21"/>
       <c r="G131" s="3" t="s">
         <v>370</v>
       </c>
@@ -5461,7 +5470,7 @@
       <c r="A132" s="1">
         <v>22</v>
       </c>
-      <c r="B132" s="22"/>
+      <c r="B132" s="21"/>
       <c r="C132" s="3" t="s">
         <v>363</v>
       </c>
@@ -5469,7 +5478,7 @@
       <c r="E132" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="F132" s="22"/>
+      <c r="F132" s="21"/>
       <c r="G132" s="3" t="s">
         <v>371</v>
       </c>
@@ -5482,7 +5491,7 @@
       <c r="A133" s="1">
         <v>23</v>
       </c>
-      <c r="B133" s="22"/>
+      <c r="B133" s="21"/>
       <c r="C133" s="3" t="s">
         <v>364</v>
       </c>
@@ -5490,7 +5499,7 @@
       <c r="E133" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="F133" s="22"/>
+      <c r="F133" s="21"/>
       <c r="G133" s="3" t="s">
         <v>372</v>
       </c>
@@ -5503,13 +5512,13 @@
       <c r="A134" s="1">
         <v>24</v>
       </c>
-      <c r="B134" s="22"/>
+      <c r="B134" s="21"/>
       <c r="C134" s="3" t="s">
         <v>365</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="22"/>
+      <c r="F134" s="21"/>
       <c r="G134" s="3" t="s">
         <v>373</v>
       </c>
@@ -5522,7 +5531,7 @@
       <c r="A135" s="1">
         <v>25</v>
       </c>
-      <c r="B135" s="22"/>
+      <c r="B135" s="21"/>
       <c r="C135" s="3" t="s">
         <v>374</v>
       </c>
@@ -5530,7 +5539,7 @@
       <c r="E135" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="F135" s="22"/>
+      <c r="F135" s="21"/>
       <c r="G135" s="3" t="s">
         <v>382</v>
       </c>
@@ -5543,7 +5552,7 @@
       <c r="A136" s="1">
         <v>26</v>
       </c>
-      <c r="B136" s="22"/>
+      <c r="B136" s="21"/>
       <c r="C136" s="3" t="s">
         <v>375</v>
       </c>
@@ -5551,7 +5560,7 @@
       <c r="E136" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="F136" s="22"/>
+      <c r="F136" s="21"/>
       <c r="G136" s="3" t="s">
         <v>383</v>
       </c>
@@ -5564,7 +5573,7 @@
       <c r="A137" s="1">
         <v>27</v>
       </c>
-      <c r="B137" s="22"/>
+      <c r="B137" s="21"/>
       <c r="C137" s="3" t="s">
         <v>376</v>
       </c>
@@ -5572,7 +5581,7 @@
       <c r="E137" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="F137" s="22"/>
+      <c r="F137" s="21"/>
       <c r="G137" s="3" t="s">
         <v>384</v>
       </c>
@@ -5585,7 +5594,7 @@
       <c r="A138" s="1">
         <v>28</v>
       </c>
-      <c r="B138" s="22"/>
+      <c r="B138" s="21"/>
       <c r="C138" s="3" t="s">
         <v>377</v>
       </c>
@@ -5593,7 +5602,7 @@
       <c r="E138" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="F138" s="22"/>
+      <c r="F138" s="21"/>
       <c r="G138" s="3" t="s">
         <v>385</v>
       </c>
@@ -5606,7 +5615,7 @@
       <c r="A139" s="1">
         <v>29</v>
       </c>
-      <c r="B139" s="22"/>
+      <c r="B139" s="21"/>
       <c r="C139" s="3" t="s">
         <v>378</v>
       </c>
@@ -5614,7 +5623,7 @@
       <c r="E139" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="F139" s="22"/>
+      <c r="F139" s="21"/>
       <c r="G139" s="3" t="s">
         <v>386</v>
       </c>
@@ -5627,7 +5636,7 @@
       <c r="A140" s="1">
         <v>30</v>
       </c>
-      <c r="B140" s="22"/>
+      <c r="B140" s="21"/>
       <c r="C140" s="3" t="s">
         <v>379</v>
       </c>
@@ -5635,7 +5644,7 @@
       <c r="E140" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="F140" s="22"/>
+      <c r="F140" s="21"/>
       <c r="G140" s="3" t="s">
         <v>387</v>
       </c>
@@ -5648,13 +5657,13 @@
       <c r="A141" s="1">
         <v>31</v>
       </c>
-      <c r="B141" s="22"/>
+      <c r="B141" s="21"/>
       <c r="C141" s="3" t="s">
         <v>380</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
-      <c r="F141" s="22"/>
+      <c r="F141" s="21"/>
       <c r="G141" s="3" t="s">
         <v>388</v>
       </c>
@@ -5667,13 +5676,13 @@
       <c r="A142" s="1">
         <v>32</v>
       </c>
-      <c r="B142" s="22"/>
+      <c r="B142" s="21"/>
       <c r="C142" s="3" t="s">
         <v>381</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
-      <c r="F142" s="22"/>
+      <c r="F142" s="21"/>
       <c r="G142" s="3" t="s">
         <v>389</v>
       </c>
@@ -5686,7 +5695,7 @@
       <c r="A143" s="1">
         <v>33</v>
       </c>
-      <c r="B143" s="11" t="s">
+      <c r="B143" s="10" t="s">
         <v>392</v>
       </c>
       <c r="C143" s="3" t="s">
@@ -5696,7 +5705,7 @@
       <c r="E143" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="F143" s="11" t="s">
+      <c r="F143" s="10" t="s">
         <v>392</v>
       </c>
       <c r="G143" s="3" t="s">
@@ -5711,7 +5720,7 @@
       <c r="A144" s="1">
         <v>34</v>
       </c>
-      <c r="B144" s="11"/>
+      <c r="B144" s="10"/>
       <c r="C144" s="3" t="s">
         <v>175</v>
       </c>
@@ -5719,7 +5728,7 @@
       <c r="E144" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="F144" s="11"/>
+      <c r="F144" s="10"/>
       <c r="G144" s="3" t="s">
         <v>224</v>
       </c>
@@ -5732,7 +5741,7 @@
       <c r="A145" s="1">
         <v>35</v>
       </c>
-      <c r="B145" s="11"/>
+      <c r="B145" s="10"/>
       <c r="C145" s="3" t="s">
         <v>176</v>
       </c>
@@ -5740,7 +5749,7 @@
       <c r="E145" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="F145" s="11"/>
+      <c r="F145" s="10"/>
       <c r="G145" s="3" t="s">
         <v>225</v>
       </c>
@@ -5753,7 +5762,7 @@
       <c r="A146" s="1">
         <v>36</v>
       </c>
-      <c r="B146" s="11"/>
+      <c r="B146" s="10"/>
       <c r="C146" s="3" t="s">
         <v>177</v>
       </c>
@@ -5761,7 +5770,7 @@
       <c r="E146" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="F146" s="11"/>
+      <c r="F146" s="10"/>
       <c r="G146" s="3" t="s">
         <v>226</v>
       </c>
@@ -5774,7 +5783,7 @@
       <c r="A147" s="1">
         <v>37</v>
       </c>
-      <c r="B147" s="11"/>
+      <c r="B147" s="10"/>
       <c r="C147" s="3" t="s">
         <v>178</v>
       </c>
@@ -5782,7 +5791,7 @@
       <c r="E147" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="F147" s="11"/>
+      <c r="F147" s="10"/>
       <c r="G147" s="3" t="s">
         <v>227</v>
       </c>
@@ -5795,7 +5804,7 @@
       <c r="A148" s="1">
         <v>38</v>
       </c>
-      <c r="B148" s="11"/>
+      <c r="B148" s="10"/>
       <c r="C148" s="3" t="s">
         <v>179</v>
       </c>
@@ -5803,7 +5812,7 @@
       <c r="E148" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="F148" s="11"/>
+      <c r="F148" s="10"/>
       <c r="G148" s="3" t="s">
         <v>228</v>
       </c>
@@ -5816,13 +5825,13 @@
       <c r="A149" s="1">
         <v>39</v>
       </c>
-      <c r="B149" s="11"/>
+      <c r="B149" s="10"/>
       <c r="C149" s="3" t="s">
         <v>180</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="4"/>
-      <c r="F149" s="11"/>
+      <c r="F149" s="10"/>
       <c r="G149" s="3" t="s">
         <v>229</v>
       </c>
@@ -5833,13 +5842,13 @@
       <c r="A150" s="1">
         <v>40</v>
       </c>
-      <c r="B150" s="11"/>
+      <c r="B150" s="10"/>
       <c r="C150" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="4"/>
-      <c r="F150" s="11"/>
+      <c r="F150" s="10"/>
       <c r="G150" s="3" t="s">
         <v>230</v>
       </c>
@@ -5850,7 +5859,7 @@
       <c r="A151" s="1">
         <v>50</v>
       </c>
-      <c r="B151" s="11"/>
+      <c r="B151" s="10"/>
       <c r="C151" s="3" t="s">
         <v>506</v>
       </c>
@@ -5858,7 +5867,7 @@
       <c r="E151" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="F151" s="11"/>
+      <c r="F151" s="10"/>
       <c r="G151" s="3" t="s">
         <v>404</v>
       </c>
@@ -5869,7 +5878,7 @@
       <c r="A152" s="1">
         <v>51</v>
       </c>
-      <c r="B152" s="11"/>
+      <c r="B152" s="10"/>
       <c r="C152" s="3" t="s">
         <v>216</v>
       </c>
@@ -5877,7 +5886,7 @@
       <c r="E152" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="F152" s="11"/>
+      <c r="F152" s="10"/>
       <c r="G152" s="3" t="s">
         <v>231</v>
       </c>
@@ -5888,7 +5897,7 @@
       <c r="A153" s="1">
         <v>52</v>
       </c>
-      <c r="B153" s="11"/>
+      <c r="B153" s="10"/>
       <c r="C153" s="3" t="s">
         <v>217</v>
       </c>
@@ -5896,7 +5905,7 @@
       <c r="E153" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="F153" s="11"/>
+      <c r="F153" s="10"/>
       <c r="G153" s="3" t="s">
         <v>232</v>
       </c>
@@ -5907,7 +5916,7 @@
       <c r="A154" s="1">
         <v>53</v>
       </c>
-      <c r="B154" s="11"/>
+      <c r="B154" s="10"/>
       <c r="C154" s="3" t="s">
         <v>218</v>
       </c>
@@ -5915,7 +5924,7 @@
       <c r="E154" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="F154" s="11"/>
+      <c r="F154" s="10"/>
       <c r="G154" s="3" t="s">
         <v>233</v>
       </c>
@@ -5926,7 +5935,7 @@
       <c r="A155" s="1">
         <v>54</v>
       </c>
-      <c r="B155" s="11"/>
+      <c r="B155" s="10"/>
       <c r="C155" s="3" t="s">
         <v>219</v>
       </c>
@@ -5934,7 +5943,7 @@
       <c r="E155" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="F155" s="11"/>
+      <c r="F155" s="10"/>
       <c r="G155" s="3" t="s">
         <v>234</v>
       </c>
@@ -5945,7 +5954,7 @@
       <c r="A156" s="1">
         <v>55</v>
       </c>
-      <c r="B156" s="11"/>
+      <c r="B156" s="10"/>
       <c r="C156" s="3" t="s">
         <v>220</v>
       </c>
@@ -5953,7 +5962,7 @@
       <c r="E156" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="F156" s="11"/>
+      <c r="F156" s="10"/>
       <c r="G156" s="3" t="s">
         <v>235</v>
       </c>
@@ -5964,13 +5973,13 @@
       <c r="A157" s="1">
         <v>56</v>
       </c>
-      <c r="B157" s="11"/>
+      <c r="B157" s="10"/>
       <c r="C157" s="3" t="s">
         <v>221</v>
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
-      <c r="F157" s="11"/>
+      <c r="F157" s="10"/>
       <c r="G157" s="3" t="s">
         <v>236</v>
       </c>
@@ -5981,13 +5990,13 @@
       <c r="A158" s="1">
         <v>57</v>
       </c>
-      <c r="B158" s="11"/>
+      <c r="B158" s="10"/>
       <c r="C158" s="3" t="s">
         <v>222</v>
       </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
-      <c r="F158" s="11"/>
+      <c r="F158" s="10"/>
       <c r="G158" s="3" t="s">
         <v>237</v>
       </c>
@@ -5996,6 +6005,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B75:B90"/>
+    <mergeCell ref="F75:F90"/>
+    <mergeCell ref="B59:B74"/>
+    <mergeCell ref="F59:F74"/>
+    <mergeCell ref="B43:B58"/>
+    <mergeCell ref="F43:F58"/>
     <mergeCell ref="B143:B158"/>
     <mergeCell ref="F143:F158"/>
     <mergeCell ref="A107:I109"/>
@@ -6005,13 +6021,6 @@
     <mergeCell ref="F111:F142"/>
     <mergeCell ref="B91:B106"/>
     <mergeCell ref="F91:F106"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B75:B90"/>
-    <mergeCell ref="F75:F90"/>
-    <mergeCell ref="B59:B74"/>
-    <mergeCell ref="F59:F74"/>
-    <mergeCell ref="B43:B58"/>
-    <mergeCell ref="F43:F58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/天津力神项目IO表.xlsx
+++ b/天津力神项目IO表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="649">
   <si>
     <t>输入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1099,9 +1099,6 @@
     <t>下料输送线3电机正转</t>
   </si>
   <si>
-    <t>下料输送线4电机正转</t>
-  </si>
-  <si>
     <t>下料输送线5电机正转</t>
   </si>
   <si>
@@ -2101,13 +2098,6 @@
     <t>炉子上料线体位置2下料请求</t>
   </si>
   <si>
-    <t>炉子上料线体位置2下料完成</t>
-  </si>
-  <si>
-    <t>炉子上料线体位置2允许放行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>罩子机械手提起检测开关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2201,6 +2191,38 @@
   </si>
   <si>
     <t>炉子上料2完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挡停气缸1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挡停气缸2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGV门提起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGV门落下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGV门提起检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGV门落下检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罩子提升自动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGV门自动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2399,7 +2421,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2429,6 +2451,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2466,10 +2494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2768,8 +2793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93:E95"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2793,16 +2818,16 @@
   <sheetData>
     <row r="1" spans="1:18" ht="14.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1"/>
@@ -2839,40 +2864,40 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>349</v>
+      <c r="B3" s="12" t="s">
+        <v>348</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>347</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="F4" s="10"/>
+        <v>344</v>
+      </c>
+      <c r="F4" s="12"/>
       <c r="G4" s="3" t="s">
         <v>20</v>
       </c>
@@ -2883,15 +2908,15 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="F5" s="10"/>
+        <v>629</v>
+      </c>
+      <c r="F5" s="12"/>
       <c r="G5" s="3" t="s">
         <v>21</v>
       </c>
@@ -2902,15 +2927,15 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="F6" s="10"/>
+        <v>395</v>
+      </c>
+      <c r="F6" s="12"/>
       <c r="G6" s="3" t="s">
         <v>22</v>
       </c>
@@ -2921,78 +2946,78 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="F7" s="10"/>
+        <v>502</v>
+      </c>
+      <c r="F7" s="12"/>
       <c r="G7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="14.25" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="F8" s="10"/>
+        <v>503</v>
+      </c>
+      <c r="F8" s="12"/>
       <c r="G8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="F9" s="10"/>
+        <v>630</v>
+      </c>
+      <c r="F9" s="12"/>
       <c r="G9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="F10" s="10"/>
+        <v>487</v>
+      </c>
+      <c r="F10" s="12"/>
       <c r="G10" s="3" t="s">
         <v>26</v>
       </c>
@@ -3003,15 +3028,15 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="F11" s="10"/>
+        <v>346</v>
+      </c>
+      <c r="F11" s="12"/>
       <c r="G11" s="3" t="s">
         <v>170</v>
       </c>
@@ -3024,15 +3049,15 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="F12" s="10"/>
+        <v>435</v>
+      </c>
+      <c r="F12" s="12"/>
       <c r="G12" s="3" t="s">
         <v>171</v>
       </c>
@@ -3045,15 +3070,15 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="3" t="s">
         <v>168</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="F13" s="10"/>
+        <v>631</v>
+      </c>
+      <c r="F13" s="12"/>
       <c r="G13" s="3" t="s">
         <v>172</v>
       </c>
@@ -3066,7 +3091,7 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="10"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="3" t="s">
         <v>169</v>
       </c>
@@ -3074,7 +3099,7 @@
       <c r="E14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="3" t="s">
         <v>173</v>
       </c>
@@ -3087,17 +3112,17 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="12"/>
       <c r="G15" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
@@ -3108,17 +3133,17 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="10"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="12"/>
       <c r="G16" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
@@ -3129,15 +3154,15 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="10"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F17" s="10"/>
+      <c r="F17" s="12"/>
       <c r="G17" s="3"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -3146,17 +3171,17 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="10"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F18" s="10"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
@@ -3167,17 +3192,17 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="10"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F19" s="10"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
@@ -3188,38 +3213,38 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="10"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F20" s="10"/>
+      <c r="F20" s="12"/>
       <c r="G20" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="10"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="F21" s="10"/>
+      <c r="F21" s="12"/>
       <c r="G21" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
@@ -3230,17 +3255,17 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="10"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F22" s="10"/>
+      <c r="F22" s="12"/>
       <c r="G22" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
@@ -3251,17 +3276,17 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="10"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="F23" s="10"/>
+        <v>632</v>
+      </c>
+      <c r="F23" s="12"/>
       <c r="G23" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
@@ -3272,17 +3297,17 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="10"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="F24" s="10"/>
+      <c r="F24" s="12"/>
       <c r="G24" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
@@ -3293,17 +3318,17 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="10"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="F25" s="10"/>
+      <c r="F25" s="12"/>
       <c r="G25" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
@@ -3314,38 +3339,38 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="10"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F26" s="10"/>
+      <c r="F26" s="12"/>
       <c r="G26" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="10"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="F27" s="10"/>
+      <c r="F27" s="12"/>
       <c r="G27" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
@@ -3356,17 +3381,17 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="10"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F28" s="10"/>
+      <c r="F28" s="12"/>
       <c r="G28" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
@@ -3377,38 +3402,38 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="10"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F29" s="10"/>
+      <c r="F29" s="12"/>
       <c r="G29" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="10"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F30" s="10"/>
+      <c r="F30" s="12"/>
       <c r="G30" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="3" t="s">
@@ -3419,17 +3444,17 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="10"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F31" s="10"/>
+      <c r="F31" s="12"/>
       <c r="G31" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="3" t="s">
@@ -3440,17 +3465,17 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="10"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F32" s="10"/>
+        <v>339</v>
+      </c>
+      <c r="F32" s="12"/>
       <c r="G32" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
@@ -3461,17 +3486,17 @@
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="10"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F33" s="10"/>
+        <v>340</v>
+      </c>
+      <c r="F33" s="12"/>
       <c r="G33" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
@@ -3482,17 +3507,17 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="10"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F34" s="10"/>
+        <v>341</v>
+      </c>
+      <c r="F34" s="12"/>
       <c r="G34" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -3501,15 +3526,15 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="10"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="F35" s="10"/>
+        <v>342</v>
+      </c>
+      <c r="F35" s="12"/>
       <c r="G35" s="3" t="s">
         <v>223</v>
       </c>
@@ -3522,15 +3547,15 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="10"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="F36" s="10"/>
+        <v>485</v>
+      </c>
+      <c r="F36" s="12"/>
       <c r="G36" s="3" t="s">
         <v>224</v>
       </c>
@@ -3543,13 +3568,15 @@
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="10"/>
+      <c r="B37" s="12"/>
       <c r="C37" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="10"/>
+      <c r="E37" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="F37" s="12"/>
       <c r="G37" s="3" t="s">
         <v>225</v>
       </c>
@@ -3565,13 +3592,15 @@
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="10"/>
+      <c r="B38" s="12"/>
       <c r="C38" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="10"/>
+      <c r="E38" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="F38" s="12"/>
       <c r="G38" s="3" t="s">
         <v>226</v>
       </c>
@@ -3584,15 +3613,15 @@
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="10"/>
+      <c r="B39" s="12"/>
       <c r="C39" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="F39" s="10"/>
+        <v>420</v>
+      </c>
+      <c r="F39" s="12"/>
       <c r="G39" s="3" t="s">
         <v>227</v>
       </c>
@@ -3605,15 +3634,15 @@
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="10"/>
+      <c r="B40" s="12"/>
       <c r="C40" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="F40" s="10"/>
+        <v>421</v>
+      </c>
+      <c r="F40" s="12"/>
       <c r="G40" s="3" t="s">
         <v>228</v>
       </c>
@@ -3626,15 +3655,15 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="10"/>
+      <c r="B41" s="12"/>
       <c r="C41" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="F41" s="10"/>
+        <v>422</v>
+      </c>
+      <c r="F41" s="12"/>
       <c r="G41" s="3" t="s">
         <v>229</v>
       </c>
@@ -3647,15 +3676,15 @@
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="10"/>
+      <c r="B42" s="12"/>
       <c r="C42" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="F42" s="10"/>
+        <v>423</v>
+      </c>
+      <c r="F42" s="12"/>
       <c r="G42" s="3" t="s">
         <v>230</v>
       </c>
@@ -3668,21 +3697,21 @@
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>392</v>
+      <c r="B43" s="12" t="s">
+        <v>391</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>392</v>
+        <v>425</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>391</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="3" t="s">
@@ -3693,7 +3722,7 @@
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="10"/>
+      <c r="B44" s="12"/>
       <c r="C44" s="3" t="s">
         <v>216</v>
       </c>
@@ -3701,7 +3730,7 @@
       <c r="E44" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="F44" s="10"/>
+      <c r="F44" s="12"/>
       <c r="G44" s="3" t="s">
         <v>231</v>
       </c>
@@ -3714,15 +3743,15 @@
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="10"/>
+      <c r="B45" s="12"/>
       <c r="C45" s="3" t="s">
         <v>217</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="F45" s="10"/>
+        <v>426</v>
+      </c>
+      <c r="F45" s="12"/>
       <c r="G45" s="3" t="s">
         <v>232</v>
       </c>
@@ -3735,15 +3764,15 @@
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="10"/>
+      <c r="B46" s="12"/>
       <c r="C46" s="3" t="s">
         <v>218</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="F46" s="10"/>
+        <v>427</v>
+      </c>
+      <c r="F46" s="12"/>
       <c r="G46" s="3" t="s">
         <v>233</v>
       </c>
@@ -3756,15 +3785,15 @@
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="10"/>
+      <c r="B47" s="12"/>
       <c r="C47" s="3" t="s">
         <v>219</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="F47" s="10"/>
+        <v>428</v>
+      </c>
+      <c r="F47" s="12"/>
       <c r="G47" s="3" t="s">
         <v>234</v>
       </c>
@@ -3777,57 +3806,57 @@
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="10"/>
+      <c r="B48" s="12"/>
       <c r="C48" s="3" t="s">
         <v>220</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="F48" s="10"/>
+        <v>429</v>
+      </c>
+      <c r="F48" s="12"/>
       <c r="G48" s="3" t="s">
         <v>235</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="10"/>
+      <c r="B49" s="12"/>
       <c r="C49" s="3" t="s">
         <v>221</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="F49" s="10"/>
+        <v>430</v>
+      </c>
+      <c r="F49" s="12"/>
       <c r="G49" s="3" t="s">
         <v>236</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="10"/>
+      <c r="B50" s="12"/>
       <c r="C50" s="3" t="s">
         <v>222</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="F50" s="10"/>
+        <v>431</v>
+      </c>
+      <c r="F50" s="12"/>
       <c r="G50" s="3" t="s">
         <v>237</v>
       </c>
@@ -3838,17 +3867,17 @@
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="10"/>
+      <c r="B51" s="12"/>
       <c r="C51" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="F51" s="10"/>
+        <v>432</v>
+      </c>
+      <c r="F51" s="12"/>
       <c r="G51" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1" t="s">
@@ -3859,15 +3888,15 @@
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="10"/>
+      <c r="B52" s="12"/>
       <c r="C52" s="3" t="s">
         <v>214</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="F52" s="10"/>
+        <v>433</v>
+      </c>
+      <c r="F52" s="12"/>
       <c r="G52" s="1" t="s">
         <v>278</v>
       </c>
@@ -3880,15 +3909,15 @@
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="10"/>
+      <c r="B53" s="12"/>
       <c r="C53" s="3" t="s">
         <v>268</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="F53" s="10"/>
+        <v>434</v>
+      </c>
+      <c r="F53" s="12"/>
       <c r="G53" s="1" t="s">
         <v>279</v>
       </c>
@@ -3901,7 +3930,7 @@
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="10"/>
+      <c r="B54" s="12"/>
       <c r="C54" s="3" t="s">
         <v>269</v>
       </c>
@@ -3909,7 +3938,7 @@
       <c r="E54" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="F54" s="10"/>
+      <c r="F54" s="12"/>
       <c r="G54" s="1" t="s">
         <v>280</v>
       </c>
@@ -3922,17 +3951,17 @@
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="10"/>
+      <c r="B55" s="12"/>
       <c r="C55" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="F55" s="10"/>
+      <c r="F55" s="12"/>
       <c r="G55" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1" t="s">
@@ -3943,15 +3972,15 @@
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="23" t="s">
+      <c r="B56" s="12"/>
+      <c r="C56" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23" t="s">
-        <v>638</v>
-      </c>
-      <c r="F56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="F56" s="12"/>
       <c r="G56" s="1" t="s">
         <v>282</v>
       </c>
@@ -3964,15 +3993,15 @@
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="23" t="s">
+      <c r="B57" s="12"/>
+      <c r="C57" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23" t="s">
-        <v>639</v>
-      </c>
-      <c r="F57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="F57" s="12"/>
       <c r="G57" s="1" t="s">
         <v>281</v>
       </c>
@@ -3985,15 +4014,15 @@
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="23" t="s">
+      <c r="B58" s="12"/>
+      <c r="C58" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23" t="s">
-        <v>640</v>
-      </c>
-      <c r="F58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="F58" s="12"/>
       <c r="G58" s="1" t="s">
         <v>283</v>
       </c>
@@ -4006,21 +4035,21 @@
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>392</v>
+      <c r="B59" s="12" t="s">
+        <v>391</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="F59" s="10" t="s">
-        <v>392</v>
+      <c r="F59" s="12" t="s">
+        <v>391</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="3" t="s">
@@ -4031,7 +4060,7 @@
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="10"/>
+      <c r="B60" s="12"/>
       <c r="C60" s="3" t="s">
         <v>273</v>
       </c>
@@ -4039,7 +4068,7 @@
       <c r="E60" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="F60" s="10"/>
+      <c r="F60" s="12"/>
       <c r="G60" s="1" t="s">
         <v>284</v>
       </c>
@@ -4052,7 +4081,7 @@
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="10"/>
+      <c r="B61" s="12"/>
       <c r="C61" s="3" t="s">
         <v>215</v>
       </c>
@@ -4060,7 +4089,7 @@
       <c r="E61" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="F61" s="10"/>
+      <c r="F61" s="12"/>
       <c r="G61" s="1" t="s">
         <v>285</v>
       </c>
@@ -4073,7 +4102,7 @@
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="10"/>
+      <c r="B62" s="12"/>
       <c r="C62" s="3" t="s">
         <v>274</v>
       </c>
@@ -4081,20 +4110,20 @@
       <c r="E62" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="F62" s="10"/>
+      <c r="F62" s="12"/>
       <c r="G62" s="1" t="s">
         <v>286</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="3" t="s">
-        <v>330</v>
+        <v>641</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="10"/>
+      <c r="B63" s="12"/>
       <c r="C63" s="3" t="s">
         <v>275</v>
       </c>
@@ -4102,41 +4131,41 @@
       <c r="E63" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="F63" s="10"/>
+      <c r="F63" s="12"/>
       <c r="G63" s="1" t="s">
         <v>287</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="10"/>
+      <c r="B64" s="12"/>
       <c r="C64" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="F64" s="10"/>
+      <c r="F64" s="12"/>
       <c r="G64" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="10"/>
+      <c r="B65" s="12"/>
       <c r="C65" s="3" t="s">
         <v>277</v>
       </c>
@@ -4144,20 +4173,20 @@
       <c r="E65" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="F65" s="10"/>
+      <c r="F65" s="12"/>
       <c r="G65" s="1" t="s">
         <v>289</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" s="10"/>
+      <c r="B66" s="12"/>
       <c r="C66" s="3" t="s">
         <v>276</v>
       </c>
@@ -4165,133 +4194,133 @@
       <c r="E66" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="F66" s="10"/>
+      <c r="F66" s="12"/>
       <c r="G66" s="1" t="s">
         <v>288</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="13.5" customHeight="1">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" s="10"/>
+      <c r="B67" s="12"/>
       <c r="C67" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="F67" s="10"/>
+        <v>416</v>
+      </c>
+      <c r="F67" s="12"/>
       <c r="G67" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H67" s="1"/>
-      <c r="I67" s="1" t="s">
-        <v>508</v>
+      <c r="I67" s="24" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" s="10"/>
+      <c r="B68" s="12"/>
       <c r="C68" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="F68" s="10"/>
+        <v>417</v>
+      </c>
+      <c r="F68" s="12"/>
       <c r="G68" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" s="10"/>
+      <c r="B69" s="12"/>
       <c r="C69" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="F69" s="10"/>
+        <v>418</v>
+      </c>
+      <c r="F69" s="12"/>
       <c r="G69" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" s="10"/>
+      <c r="B70" s="12"/>
       <c r="C70" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="F70" s="10"/>
+        <v>419</v>
+      </c>
+      <c r="F70" s="12"/>
       <c r="G70" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" s="10"/>
+      <c r="B71" s="12"/>
       <c r="C71" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="F71" s="10"/>
+        <v>491</v>
+      </c>
+      <c r="F71" s="12"/>
       <c r="G71" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" s="10"/>
+      <c r="B72" s="12"/>
       <c r="C72" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="10"/>
+      <c r="F72" s="12"/>
       <c r="G72" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -4300,15 +4329,15 @@
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" s="10"/>
+      <c r="B73" s="12"/>
       <c r="C73" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="10"/>
+      <c r="F73" s="12"/>
       <c r="G73" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -4317,145 +4346,147 @@
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" s="10"/>
+      <c r="B74" s="12"/>
       <c r="C74" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F74" s="12"/>
+      <c r="G74" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="F74" s="10"/>
-      <c r="G74" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" s="10" t="s">
-        <v>392</v>
+      <c r="B75" s="12" t="s">
+        <v>391</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="F75" s="10" t="s">
-        <v>392</v>
+      <c r="F75" s="12" t="s">
+        <v>391</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" s="10"/>
+      <c r="B76" s="12"/>
       <c r="C76" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="F76" s="10"/>
+      <c r="F76" s="12"/>
       <c r="G76" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" s="10"/>
+      <c r="B77" s="12"/>
       <c r="C77" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="F77" s="10"/>
+      <c r="F77" s="12"/>
       <c r="G77" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" s="10"/>
+      <c r="B78" s="12"/>
       <c r="C78" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="F78" s="10"/>
+      <c r="F78" s="12"/>
       <c r="G78" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" s="10"/>
+      <c r="B79" s="12"/>
       <c r="C79" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="F79" s="10"/>
+      <c r="F79" s="12"/>
       <c r="G79" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" s="10"/>
+      <c r="B80" s="12"/>
       <c r="C80" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="F80" s="10"/>
+        <v>331</v>
+      </c>
+      <c r="F80" s="12"/>
       <c r="G80" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H80" s="1"/>
     </row>
@@ -4463,17 +4494,17 @@
       <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" s="10"/>
+      <c r="B81" s="12"/>
       <c r="C81" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="F81" s="10"/>
+        <v>334</v>
+      </c>
+      <c r="F81" s="12"/>
       <c r="G81" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H81" s="1"/>
     </row>
@@ -4481,17 +4512,17 @@
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" s="10"/>
+      <c r="B82" s="12"/>
       <c r="C82" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="F82" s="10"/>
+        <v>335</v>
+      </c>
+      <c r="F82" s="12"/>
       <c r="G82" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H82" s="1"/>
     </row>
@@ -4499,309 +4530,315 @@
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" s="10"/>
+      <c r="B83" s="12"/>
       <c r="C83" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="F83" s="10"/>
+        <v>571</v>
+      </c>
+      <c r="F83" s="12"/>
       <c r="G83" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" s="10"/>
+      <c r="B84" s="12"/>
       <c r="C84" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="F84" s="10"/>
+        <v>572</v>
+      </c>
+      <c r="F84" s="12"/>
       <c r="G84" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" s="10"/>
+      <c r="B85" s="12"/>
       <c r="C85" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="F85" s="10"/>
+        <v>571</v>
+      </c>
+      <c r="F85" s="12"/>
       <c r="G85" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" s="10"/>
+      <c r="B86" s="12"/>
       <c r="C86" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="F86" s="10"/>
+        <v>572</v>
+      </c>
+      <c r="F86" s="12"/>
       <c r="G86" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" s="10"/>
+      <c r="B87" s="12"/>
       <c r="C87" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="F87" s="10"/>
+        <v>569</v>
+      </c>
+      <c r="F87" s="12"/>
       <c r="G87" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="4" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" s="10"/>
+      <c r="B88" s="12"/>
       <c r="C88" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="F88" s="10"/>
+        <v>570</v>
+      </c>
+      <c r="F88" s="12"/>
       <c r="G88" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="4" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" s="10"/>
+      <c r="B89" s="12"/>
       <c r="C89" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="F89" s="10"/>
+        <v>569</v>
+      </c>
+      <c r="F89" s="12"/>
       <c r="G89" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="4" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="14.25" thickBot="1">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" s="10"/>
+      <c r="B90" s="12"/>
       <c r="C90" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="F90" s="10"/>
+        <v>570</v>
+      </c>
+      <c r="F90" s="12"/>
       <c r="G90" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="4" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="91" spans="1:9" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" s="10" t="s">
-        <v>392</v>
+      <c r="B91" s="12" t="s">
+        <v>391</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="F91" s="10" t="s">
-        <v>392</v>
+        <v>633</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>391</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H91" s="1"/>
-      <c r="I91" s="1" t="s">
-        <v>624</v>
+      <c r="I91" s="7" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="92" spans="1:9" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" s="10"/>
+      <c r="B92" s="12"/>
       <c r="C92" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="F92" s="10"/>
+        <v>634</v>
+      </c>
+      <c r="F92" s="12"/>
       <c r="G92" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H92" s="1"/>
-      <c r="I92" s="1" t="s">
-        <v>625</v>
+      <c r="I92" s="7" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="93" spans="1:9" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" s="10"/>
-      <c r="C93" s="23" t="s">
-        <v>581</v>
-      </c>
-      <c r="D93" s="23"/>
-      <c r="E93" s="23" t="s">
-        <v>641</v>
-      </c>
-      <c r="F93" s="10"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="F93" s="12"/>
       <c r="G93" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="94" spans="1:9" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" s="10"/>
-      <c r="C94" s="23" t="s">
-        <v>582</v>
-      </c>
-      <c r="D94" s="23"/>
-      <c r="E94" s="23" t="s">
-        <v>642</v>
-      </c>
-      <c r="F94" s="10"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="F94" s="12"/>
       <c r="G94" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="95" spans="1:9" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" s="10"/>
-      <c r="C95" s="23" t="s">
-        <v>583</v>
-      </c>
-      <c r="D95" s="23"/>
-      <c r="E95" s="23" t="s">
-        <v>643</v>
-      </c>
-      <c r="F95" s="10"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="F95" s="12"/>
       <c r="G95" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H95" s="1"/>
+      <c r="I95" s="1" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="96" spans="1:9" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" s="10"/>
+      <c r="B96" s="12"/>
       <c r="C96" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="F96" s="10"/>
+        <v>614</v>
+      </c>
+      <c r="F96" s="12"/>
       <c r="G96" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H96" s="1"/>
+      <c r="I96" s="1" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="97" spans="1:9" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" s="10"/>
+      <c r="B97" s="12"/>
       <c r="C97" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="F97" s="10"/>
+        <v>615</v>
+      </c>
+      <c r="F97" s="12"/>
       <c r="G97" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H97" s="1"/>
     </row>
@@ -4809,17 +4846,17 @@
       <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" s="10"/>
+      <c r="B98" s="12"/>
       <c r="C98" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="F98" s="10"/>
+        <v>616</v>
+      </c>
+      <c r="F98" s="12"/>
       <c r="G98" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H98" s="1"/>
     </row>
@@ -4827,36 +4864,35 @@
       <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" s="10"/>
+      <c r="B99" s="12"/>
       <c r="C99" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D99" s="1"/>
-      <c r="E99" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="F99" s="10"/>
+      <c r="E99" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="F99" s="12"/>
       <c r="G99" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
     </row>
     <row r="100" spans="1:9" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" s="10"/>
+      <c r="B100" s="12"/>
       <c r="C100" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D100" s="1"/>
-      <c r="E100" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="F100" s="10"/>
+      <c r="E100" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="F100" s="12"/>
       <c r="G100" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -4865,17 +4901,14 @@
       <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" s="10"/>
+      <c r="B101" s="12"/>
       <c r="C101" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D101" s="1"/>
-      <c r="E101" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="F101" s="10"/>
+      <c r="F101" s="12"/>
       <c r="G101" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -4884,17 +4917,17 @@
       <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" s="10"/>
+      <c r="B102" s="12"/>
       <c r="C102" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="F102" s="10"/>
+        <v>617</v>
+      </c>
+      <c r="F102" s="12"/>
       <c r="G102" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -4903,17 +4936,17 @@
       <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" s="10"/>
+      <c r="B103" s="12"/>
       <c r="C103" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="F103" s="10"/>
+        <v>618</v>
+      </c>
+      <c r="F103" s="12"/>
       <c r="G103" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -4922,17 +4955,17 @@
       <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" s="10"/>
+      <c r="B104" s="12"/>
       <c r="C104" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="F104" s="10"/>
+        <v>619</v>
+      </c>
+      <c r="F104" s="12"/>
       <c r="G104" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -4941,15 +4974,17 @@
       <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" s="10"/>
+      <c r="B105" s="12"/>
       <c r="C105" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="10"/>
+      <c r="E105" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="F105" s="12"/>
       <c r="G105" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -4958,53 +4993,53 @@
       <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" s="10"/>
+      <c r="B106" s="12"/>
       <c r="C106" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="10"/>
+      <c r="F106" s="12"/>
       <c r="G106" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
     <row r="107" spans="1:9" s="8" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A107" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="B107" s="12"/>
-      <c r="C107" s="12"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12"/>
-      <c r="G107" s="12"/>
-      <c r="H107" s="12"/>
-      <c r="I107" s="13"/>
+      <c r="A107" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="14"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="15"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="14"/>
-      <c r="B108" s="15"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="15"/>
-      <c r="H108" s="15"/>
-      <c r="I108" s="16"/>
+      <c r="A108" s="16"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="18"/>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="17"/>
-      <c r="B109" s="18"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="18"/>
-      <c r="F109" s="18"/>
-      <c r="G109" s="18"/>
-      <c r="H109" s="18"/>
-      <c r="I109" s="19"/>
+      <c r="A109" s="19"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="20"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="21"/>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="1"/>
@@ -5033,103 +5068,103 @@
       <c r="A111" s="1">
         <v>1</v>
       </c>
-      <c r="B111" s="20" t="s">
-        <v>349</v>
+      <c r="B111" s="22" t="s">
+        <v>348</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="F111" s="20" t="s">
-        <v>348</v>
+        <v>486</v>
+      </c>
+      <c r="F111" s="22" t="s">
+        <v>347</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H111" s="1"/>
       <c r="I111" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="1">
         <v>2</v>
       </c>
-      <c r="B112" s="21"/>
+      <c r="B112" s="23"/>
       <c r="C112" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="F112" s="21"/>
+        <v>473</v>
+      </c>
+      <c r="F112" s="23"/>
       <c r="G112" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H112" s="1"/>
       <c r="I112" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="1">
         <v>3</v>
       </c>
-      <c r="B113" s="21"/>
+      <c r="B113" s="23"/>
       <c r="C113" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="F113" s="21"/>
+        <v>467</v>
+      </c>
+      <c r="F113" s="23"/>
       <c r="G113" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="1">
         <v>4</v>
       </c>
-      <c r="B114" s="21"/>
+      <c r="B114" s="23"/>
       <c r="C114" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="F114" s="21"/>
+        <v>468</v>
+      </c>
+      <c r="F114" s="23"/>
       <c r="G114" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="1">
         <v>5</v>
       </c>
-      <c r="B115" s="21"/>
+      <c r="B115" s="23"/>
       <c r="C115" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="F115" s="21"/>
+        <v>469</v>
+      </c>
+      <c r="F115" s="23"/>
       <c r="G115" s="3" t="s">
         <v>23</v>
       </c>
@@ -5140,15 +5175,15 @@
       <c r="A116" s="1">
         <v>6</v>
       </c>
-      <c r="B116" s="21"/>
+      <c r="B116" s="23"/>
       <c r="C116" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="F116" s="21"/>
+        <v>470</v>
+      </c>
+      <c r="F116" s="23"/>
       <c r="G116" s="3" t="s">
         <v>24</v>
       </c>
@@ -5159,15 +5194,15 @@
       <c r="A117" s="1">
         <v>7</v>
       </c>
-      <c r="B117" s="21"/>
+      <c r="B117" s="23"/>
       <c r="C117" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="F117" s="21"/>
+        <v>471</v>
+      </c>
+      <c r="F117" s="23"/>
       <c r="G117" s="3" t="s">
         <v>25</v>
       </c>
@@ -5178,15 +5213,15 @@
       <c r="A118" s="1">
         <v>8</v>
       </c>
-      <c r="B118" s="21"/>
+      <c r="B118" s="23"/>
       <c r="C118" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F118" s="21"/>
+        <v>472</v>
+      </c>
+      <c r="F118" s="23"/>
       <c r="G118" s="3" t="s">
         <v>26</v>
       </c>
@@ -5197,185 +5232,185 @@
       <c r="A119" s="1">
         <v>9</v>
       </c>
-      <c r="B119" s="21"/>
+      <c r="B119" s="23"/>
       <c r="C119" s="3" t="s">
         <v>166</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="F119" s="21"/>
+        <v>446</v>
+      </c>
+      <c r="F119" s="23"/>
       <c r="G119" s="3" t="s">
         <v>170</v>
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="1">
         <v>10</v>
       </c>
-      <c r="B120" s="21"/>
+      <c r="B120" s="23"/>
       <c r="C120" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="F120" s="21"/>
+        <v>445</v>
+      </c>
+      <c r="F120" s="23"/>
       <c r="G120" s="3" t="s">
         <v>171</v>
       </c>
       <c r="H120" s="1"/>
       <c r="I120" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="1">
         <v>11</v>
       </c>
-      <c r="B121" s="21"/>
+      <c r="B121" s="23"/>
       <c r="C121" s="3" t="s">
         <v>168</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="F121" s="21"/>
+        <v>444</v>
+      </c>
+      <c r="F121" s="23"/>
       <c r="G121" s="3" t="s">
         <v>172</v>
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="1">
         <v>12</v>
       </c>
-      <c r="B122" s="21"/>
+      <c r="B122" s="23"/>
       <c r="C122" s="3" t="s">
         <v>169</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="F122" s="21"/>
+        <v>447</v>
+      </c>
+      <c r="F122" s="23"/>
       <c r="G122" s="3" t="s">
         <v>173</v>
       </c>
       <c r="H122" s="1"/>
       <c r="I122" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="1">
         <v>13</v>
       </c>
-      <c r="B123" s="21"/>
+      <c r="B123" s="23"/>
       <c r="C123" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="F123" s="21"/>
+        <v>448</v>
+      </c>
+      <c r="F123" s="23"/>
       <c r="G123" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H123" s="1"/>
       <c r="I123" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="1">
         <v>14</v>
       </c>
-      <c r="B124" s="21"/>
+      <c r="B124" s="23"/>
       <c r="C124" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="F124" s="21"/>
+        <v>501</v>
+      </c>
+      <c r="F124" s="23"/>
       <c r="G124" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H124" s="1"/>
       <c r="I124" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="1">
         <v>15</v>
       </c>
-      <c r="B125" s="21"/>
+      <c r="B125" s="23"/>
       <c r="C125" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="F125" s="21"/>
+        <v>489</v>
+      </c>
+      <c r="F125" s="23"/>
       <c r="G125" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H125" s="1"/>
       <c r="I125" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="1">
         <v>16</v>
       </c>
-      <c r="B126" s="21"/>
+      <c r="B126" s="23"/>
       <c r="C126" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="F126" s="21"/>
+        <v>490</v>
+      </c>
+      <c r="F126" s="23"/>
       <c r="G126" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H126" s="1"/>
       <c r="I126" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="1">
         <v>17</v>
       </c>
-      <c r="B127" s="21"/>
+      <c r="B127" s="23"/>
       <c r="C127" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="F127" s="21"/>
+        <v>420</v>
+      </c>
+      <c r="F127" s="23"/>
       <c r="G127" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H127" s="1"/>
       <c r="I127" s="1" t="s">
@@ -5386,17 +5421,17 @@
       <c r="A128" s="1">
         <v>18</v>
       </c>
-      <c r="B128" s="21"/>
+      <c r="B128" s="23"/>
       <c r="C128" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="F128" s="21"/>
+        <v>421</v>
+      </c>
+      <c r="F128" s="23"/>
       <c r="G128" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H128" s="1"/>
       <c r="I128" s="1" t="s">
@@ -5407,17 +5442,17 @@
       <c r="A129" s="1">
         <v>19</v>
       </c>
-      <c r="B129" s="21"/>
+      <c r="B129" s="23"/>
       <c r="C129" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="F129" s="21"/>
+        <v>449</v>
+      </c>
+      <c r="F129" s="23"/>
       <c r="G129" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H129" s="1"/>
       <c r="I129" s="1" t="s">
@@ -5428,17 +5463,17 @@
       <c r="A130" s="1">
         <v>20</v>
       </c>
-      <c r="B130" s="21"/>
+      <c r="B130" s="23"/>
       <c r="C130" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="F130" s="21"/>
+        <v>450</v>
+      </c>
+      <c r="F130" s="23"/>
       <c r="G130" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H130" s="1"/>
       <c r="I130" s="1" t="s">
@@ -5449,17 +5484,17 @@
       <c r="A131" s="1">
         <v>21</v>
       </c>
-      <c r="B131" s="21"/>
+      <c r="B131" s="23"/>
       <c r="C131" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="F131" s="21"/>
+        <v>451</v>
+      </c>
+      <c r="F131" s="23"/>
       <c r="G131" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H131" s="1"/>
       <c r="I131" s="1" t="s">
@@ -5470,17 +5505,17 @@
       <c r="A132" s="1">
         <v>22</v>
       </c>
-      <c r="B132" s="21"/>
+      <c r="B132" s="23"/>
       <c r="C132" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="F132" s="21"/>
+        <v>426</v>
+      </c>
+      <c r="F132" s="23"/>
       <c r="G132" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H132" s="1"/>
       <c r="I132" s="1" t="s">
@@ -5491,17 +5526,17 @@
       <c r="A133" s="1">
         <v>23</v>
       </c>
-      <c r="B133" s="21"/>
+      <c r="B133" s="23"/>
       <c r="C133" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="F133" s="21"/>
+        <v>427</v>
+      </c>
+      <c r="F133" s="23"/>
       <c r="G133" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H133" s="1"/>
       <c r="I133" s="1" t="s">
@@ -5512,15 +5547,15 @@
       <c r="A134" s="1">
         <v>24</v>
       </c>
-      <c r="B134" s="21"/>
+      <c r="B134" s="23"/>
       <c r="C134" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="21"/>
+      <c r="F134" s="23"/>
       <c r="G134" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H134" s="1"/>
       <c r="I134" s="1" t="s">
@@ -5531,101 +5566,101 @@
       <c r="A135" s="1">
         <v>25</v>
       </c>
-      <c r="B135" s="21"/>
+      <c r="B135" s="23"/>
       <c r="C135" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="F135" s="21"/>
+        <v>480</v>
+      </c>
+      <c r="F135" s="23"/>
       <c r="G135" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H135" s="1"/>
       <c r="I135" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="1">
         <v>26</v>
       </c>
-      <c r="B136" s="21"/>
+      <c r="B136" s="23"/>
       <c r="C136" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="F136" s="21"/>
+        <v>455</v>
+      </c>
+      <c r="F136" s="23"/>
       <c r="G136" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H136" s="1"/>
       <c r="I136" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="1">
         <v>27</v>
       </c>
-      <c r="B137" s="21"/>
+      <c r="B137" s="23"/>
       <c r="C137" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="F137" s="21"/>
+        <v>456</v>
+      </c>
+      <c r="F137" s="23"/>
       <c r="G137" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H137" s="1"/>
       <c r="I137" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="1">
         <v>28</v>
       </c>
-      <c r="B138" s="21"/>
+      <c r="B138" s="23"/>
       <c r="C138" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="F138" s="21"/>
+        <v>481</v>
+      </c>
+      <c r="F138" s="23"/>
       <c r="G138" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H138" s="1"/>
       <c r="I138" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="1">
         <v>29</v>
       </c>
-      <c r="B139" s="21"/>
+      <c r="B139" s="23"/>
       <c r="C139" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="F139" s="21"/>
+        <v>460</v>
+      </c>
+      <c r="F139" s="23"/>
       <c r="G139" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H139" s="1"/>
       <c r="I139" s="1" t="s">
@@ -5636,202 +5671,202 @@
       <c r="A140" s="1">
         <v>30</v>
       </c>
-      <c r="B140" s="21"/>
+      <c r="B140" s="23"/>
       <c r="C140" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="F140" s="21"/>
+        <v>461</v>
+      </c>
+      <c r="F140" s="23"/>
       <c r="G140" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H140" s="1"/>
       <c r="I140" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="1">
         <v>31</v>
       </c>
-      <c r="B141" s="21"/>
+      <c r="B141" s="23"/>
       <c r="C141" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
-      <c r="F141" s="21"/>
+      <c r="F141" s="23"/>
       <c r="G141" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H141" s="1"/>
       <c r="I141" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="1">
         <v>32</v>
       </c>
-      <c r="B142" s="21"/>
+      <c r="B142" s="23"/>
       <c r="C142" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
-      <c r="F142" s="21"/>
+      <c r="F142" s="23"/>
       <c r="G142" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H142" s="1"/>
       <c r="I142" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="1">
         <v>33</v>
       </c>
-      <c r="B143" s="10" t="s">
-        <v>392</v>
+      <c r="B143" s="12" t="s">
+        <v>391</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>174</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="F143" s="10" t="s">
-        <v>392</v>
+        <v>482</v>
+      </c>
+      <c r="F143" s="12" t="s">
+        <v>391</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>223</v>
       </c>
       <c r="H143" s="1"/>
       <c r="I143" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="1">
         <v>34</v>
       </c>
-      <c r="B144" s="10"/>
+      <c r="B144" s="12"/>
       <c r="C144" s="3" t="s">
         <v>175</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="F144" s="10"/>
+        <v>483</v>
+      </c>
+      <c r="F144" s="12"/>
       <c r="G144" s="3" t="s">
         <v>224</v>
       </c>
       <c r="H144" s="1"/>
       <c r="I144" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="1">
         <v>35</v>
       </c>
-      <c r="B145" s="10"/>
+      <c r="B145" s="12"/>
       <c r="C145" s="3" t="s">
         <v>176</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="F145" s="10"/>
+        <v>484</v>
+      </c>
+      <c r="F145" s="12"/>
       <c r="G145" s="3" t="s">
         <v>225</v>
       </c>
       <c r="H145" s="1"/>
       <c r="I145" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="1">
         <v>36</v>
       </c>
-      <c r="B146" s="10"/>
+      <c r="B146" s="12"/>
       <c r="C146" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="F146" s="10"/>
+        <v>457</v>
+      </c>
+      <c r="F146" s="12"/>
       <c r="G146" s="3" t="s">
         <v>226</v>
       </c>
       <c r="H146" s="1"/>
       <c r="I146" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="1">
         <v>37</v>
       </c>
-      <c r="B147" s="10"/>
+      <c r="B147" s="12"/>
       <c r="C147" s="3" t="s">
         <v>178</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="F147" s="10"/>
+        <v>458</v>
+      </c>
+      <c r="F147" s="12"/>
       <c r="G147" s="3" t="s">
         <v>227</v>
       </c>
       <c r="H147" s="1"/>
       <c r="I147" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="1">
         <v>38</v>
       </c>
-      <c r="B148" s="10"/>
+      <c r="B148" s="12"/>
       <c r="C148" s="3" t="s">
         <v>179</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="F148" s="10"/>
+        <v>459</v>
+      </c>
+      <c r="F148" s="12"/>
       <c r="G148" s="3" t="s">
         <v>228</v>
       </c>
       <c r="H148" s="1"/>
       <c r="I148" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="1">
         <v>39</v>
       </c>
-      <c r="B149" s="10"/>
+      <c r="B149" s="12"/>
       <c r="C149" s="3" t="s">
         <v>180</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="4"/>
-      <c r="F149" s="10"/>
+      <c r="F149" s="12"/>
       <c r="G149" s="3" t="s">
         <v>229</v>
       </c>
@@ -5842,13 +5877,13 @@
       <c r="A150" s="1">
         <v>40</v>
       </c>
-      <c r="B150" s="10"/>
+      <c r="B150" s="12"/>
       <c r="C150" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="4"/>
-      <c r="F150" s="10"/>
+      <c r="F150" s="12"/>
       <c r="G150" s="3" t="s">
         <v>230</v>
       </c>
@@ -5859,17 +5894,17 @@
       <c r="A151" s="1">
         <v>50</v>
       </c>
-      <c r="B151" s="10"/>
+      <c r="B151" s="12"/>
       <c r="C151" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="F151" s="10"/>
+        <v>495</v>
+      </c>
+      <c r="F151" s="12"/>
       <c r="G151" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
@@ -5878,15 +5913,15 @@
       <c r="A152" s="1">
         <v>51</v>
       </c>
-      <c r="B152" s="10"/>
+      <c r="B152" s="12"/>
       <c r="C152" s="3" t="s">
         <v>216</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="F152" s="10"/>
+        <v>496</v>
+      </c>
+      <c r="F152" s="12"/>
       <c r="G152" s="3" t="s">
         <v>231</v>
       </c>
@@ -5897,15 +5932,15 @@
       <c r="A153" s="1">
         <v>52</v>
       </c>
-      <c r="B153" s="10"/>
+      <c r="B153" s="12"/>
       <c r="C153" s="3" t="s">
         <v>217</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="F153" s="10"/>
+        <v>497</v>
+      </c>
+      <c r="F153" s="12"/>
       <c r="G153" s="3" t="s">
         <v>232</v>
       </c>
@@ -5916,15 +5951,15 @@
       <c r="A154" s="1">
         <v>53</v>
       </c>
-      <c r="B154" s="10"/>
+      <c r="B154" s="12"/>
       <c r="C154" s="3" t="s">
         <v>218</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="F154" s="10"/>
+        <v>498</v>
+      </c>
+      <c r="F154" s="12"/>
       <c r="G154" s="3" t="s">
         <v>233</v>
       </c>
@@ -5935,15 +5970,15 @@
       <c r="A155" s="1">
         <v>54</v>
       </c>
-      <c r="B155" s="10"/>
+      <c r="B155" s="12"/>
       <c r="C155" s="3" t="s">
         <v>219</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="F155" s="10"/>
+        <v>499</v>
+      </c>
+      <c r="F155" s="12"/>
       <c r="G155" s="3" t="s">
         <v>234</v>
       </c>
@@ -5954,15 +5989,15 @@
       <c r="A156" s="1">
         <v>55</v>
       </c>
-      <c r="B156" s="10"/>
+      <c r="B156" s="12"/>
       <c r="C156" s="3" t="s">
         <v>220</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="F156" s="10"/>
+        <v>500</v>
+      </c>
+      <c r="F156" s="12"/>
       <c r="G156" s="3" t="s">
         <v>235</v>
       </c>
@@ -5973,13 +6008,13 @@
       <c r="A157" s="1">
         <v>56</v>
       </c>
-      <c r="B157" s="10"/>
+      <c r="B157" s="12"/>
       <c r="C157" s="3" t="s">
         <v>221</v>
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
-      <c r="F157" s="10"/>
+      <c r="F157" s="12"/>
       <c r="G157" s="3" t="s">
         <v>236</v>
       </c>
@@ -5990,13 +6025,13 @@
       <c r="A158" s="1">
         <v>57</v>
       </c>
-      <c r="B158" s="10"/>
+      <c r="B158" s="12"/>
       <c r="C158" s="3" t="s">
         <v>222</v>
       </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
-      <c r="F158" s="10"/>
+      <c r="F158" s="12"/>
       <c r="G158" s="3" t="s">
         <v>237</v>
       </c>
@@ -6005,13 +6040,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B75:B90"/>
-    <mergeCell ref="F75:F90"/>
-    <mergeCell ref="B59:B74"/>
-    <mergeCell ref="F59:F74"/>
-    <mergeCell ref="B43:B58"/>
-    <mergeCell ref="F43:F58"/>
     <mergeCell ref="B143:B158"/>
     <mergeCell ref="F143:F158"/>
     <mergeCell ref="A107:I109"/>
@@ -6021,6 +6049,13 @@
     <mergeCell ref="F111:F142"/>
     <mergeCell ref="B91:B106"/>
     <mergeCell ref="F91:F106"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B75:B90"/>
+    <mergeCell ref="F75:F90"/>
+    <mergeCell ref="B59:B74"/>
+    <mergeCell ref="F59:F74"/>
+    <mergeCell ref="B43:B58"/>
+    <mergeCell ref="F43:F58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/天津力神项目IO表.xlsx
+++ b/天津力神项目IO表.xlsx
@@ -2194,14 +2194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>挡停气缸1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挡停气缸2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AGV门提起</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2223,6 +2215,14 @@
   </si>
   <si>
     <t>AGV门自动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉子下料挡停气缸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉子上料挡停气缸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2455,8 +2455,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2494,8 +2494,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2793,8 +2793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2818,16 +2818,16 @@
   <sheetData>
     <row r="1" spans="1:18" ht="14.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="24" t="s">
         <v>345</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1"/>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="3" t="s">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="3" t="s">
@@ -4116,7 +4116,7 @@
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="3" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -4220,8 +4220,8 @@
         <v>408</v>
       </c>
       <c r="H67" s="1"/>
-      <c r="I67" s="24" t="s">
-        <v>642</v>
+      <c r="I67" s="11" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="92" spans="1:9" s="7" customFormat="1" ht="14.25" thickBot="1">
@@ -4737,7 +4737,7 @@
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="93" spans="1:9" s="7" customFormat="1" ht="14.25" thickBot="1">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="7" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F99" s="12"/>
       <c r="G99" s="3" t="s">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="7" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F100" s="12"/>
       <c r="G100" s="3" t="s">
@@ -6040,6 +6040,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B75:B90"/>
+    <mergeCell ref="F75:F90"/>
+    <mergeCell ref="B59:B74"/>
+    <mergeCell ref="F59:F74"/>
+    <mergeCell ref="B43:B58"/>
+    <mergeCell ref="F43:F58"/>
     <mergeCell ref="B143:B158"/>
     <mergeCell ref="F143:F158"/>
     <mergeCell ref="A107:I109"/>
@@ -6049,13 +6056,6 @@
     <mergeCell ref="F111:F142"/>
     <mergeCell ref="B91:B106"/>
     <mergeCell ref="F91:F106"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B75:B90"/>
-    <mergeCell ref="F75:F90"/>
-    <mergeCell ref="B59:B74"/>
-    <mergeCell ref="F59:F74"/>
-    <mergeCell ref="B43:B58"/>
-    <mergeCell ref="F43:F58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
